--- a/Data/Input/TestCases.xlsx
+++ b/Data/Input/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1317">
   <si>
     <t>TC_ID</t>
   </si>
@@ -3786,9 +3786,6 @@
     <t>Enter first Name of the User</t>
   </si>
   <si>
-    <t>PQR</t>
-  </si>
-  <si>
     <t>First Name Should be Entered</t>
   </si>
   <si>
@@ -3804,9 +3801,6 @@
     <t>Enter Last Name of the User</t>
   </si>
   <si>
-    <t>pqr</t>
-  </si>
-  <si>
     <t>Last Name Should be Entered</t>
   </si>
   <si>
@@ -3865,6 +3859,120 @@
   </si>
   <si>
     <t>TC_095_Step_9.png</t>
+  </si>
+  <si>
+    <t>PQR@pqr.com*STU@stu.com</t>
+  </si>
+  <si>
+    <t>Piyush</t>
+  </si>
+  <si>
+    <t>Rahane</t>
+  </si>
+  <si>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Check Users Functionality with Delete User</t>
+  </si>
+  <si>
+    <t>TC_096_Step_1.png</t>
+  </si>
+  <si>
+    <t>TC_096_Step_2.png</t>
+  </si>
+  <si>
+    <t>STU@stu.com</t>
+  </si>
+  <si>
+    <t>TC_096_Step_3.png</t>
+  </si>
+  <si>
+    <t>STU</t>
+  </si>
+  <si>
+    <t>TC_096_Step_4.png</t>
+  </si>
+  <si>
+    <t>stu</t>
+  </si>
+  <si>
+    <t>TC_096_Step_5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Status as Inctive </t>
+  </si>
+  <si>
+    <t>User Status should be inactive</t>
+  </si>
+  <si>
+    <t>User Status is inactive</t>
+  </si>
+  <si>
+    <t>User Status is not inactive</t>
+  </si>
+  <si>
+    <t>TC_096_Step_6.png</t>
+  </si>
+  <si>
+    <t>TC_096_Step_7.png</t>
+  </si>
+  <si>
+    <t>TC_096_Step_8.png</t>
+  </si>
+  <si>
+    <t>Delete User</t>
+  </si>
+  <si>
+    <t>TC_096_Step_9.png</t>
+  </si>
+  <si>
+    <t>TC_096_Step_10.png</t>
+  </si>
+  <si>
+    <t>Check whether User Name is deleted from record</t>
+  </si>
+  <si>
+    <t>User Name should be deleted from record list</t>
+  </si>
+  <si>
+    <t>User Name is deleted from  record list</t>
+  </si>
+  <si>
+    <t>User Name is not  deleted from record list</t>
+  </si>
+  <si>
+    <t>TC_096_Step_11.png</t>
+  </si>
+  <si>
+    <t>TC_096_Step_12.png</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Check Notification Bell icon Functionality</t>
+  </si>
+  <si>
+    <t>TC_133_Step_1.png</t>
+  </si>
+  <si>
+    <t>Click on  Notification Bell Icon</t>
+  </si>
+  <si>
+    <t>User should be able to see Notification if present or blank if not</t>
+  </si>
+  <si>
+    <t>User is able to see Notification if present or blank if not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is not able to see Notification </t>
+  </si>
+  <si>
+    <t>TC_133_Step_2.png</t>
+  </si>
+  <si>
+    <t>TC_133_Step_3.png</t>
   </si>
 </sst>
 </file>
@@ -4058,7 +4166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -4278,71 +4386,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4364,6 +4409,95 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4594,10 +4728,10 @@
   <dimension ref="A1:L720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H374" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F399" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M161" sqref="M161"/>
+      <selection pane="bottomRight" activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -4657,16 +4791,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="51">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="88" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="51" t="s">
         <v>12</v>
       </c>
@@ -4691,10 +4825,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="51" t="s">
         <v>14</v>
       </c>
@@ -4719,10 +4853,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="51" t="s">
         <v>16</v>
       </c>
@@ -4747,10 +4881,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="51" t="s">
         <v>18</v>
       </c>
@@ -4773,10 +4907,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="38.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="51" t="s">
         <v>20</v>
       </c>
@@ -4802,13 +4936,13 @@
       <c r="A7" s="93" t="s">
         <v>622</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
@@ -4834,9 +4968,9 @@
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
       <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
@@ -4860,9 +4994,9 @@
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
       <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="19" t="s">
         <v>16</v>
       </c>
@@ -4886,9 +5020,9 @@
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
@@ -4914,9 +5048,9 @@
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="96"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="19" t="s">
         <v>20</v>
       </c>
@@ -4942,9 +5076,9 @@
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="93"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="96"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="19" t="s">
         <v>48</v>
       </c>
@@ -4970,9 +5104,9 @@
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="96"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="19" t="s">
         <v>53</v>
       </c>
@@ -4998,9 +5132,9 @@
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="93"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="96"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="19" t="s">
         <v>58</v>
       </c>
@@ -5026,9 +5160,9 @@
     </row>
     <row r="15" spans="1:12" ht="21" customHeight="1">
       <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="96"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="19" t="s">
         <v>64</v>
       </c>
@@ -5054,9 +5188,9 @@
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1">
       <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="96"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="19" t="s">
         <v>69</v>
       </c>
@@ -5080,9 +5214,9 @@
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="96"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19" t="s">
         <v>75</v>
       </c>
@@ -5106,9 +5240,9 @@
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
       <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="96"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="19" t="s">
         <v>80</v>
       </c>
@@ -5132,9 +5266,9 @@
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
       <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="96"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="19" t="s">
         <v>86</v>
       </c>
@@ -5158,9 +5292,9 @@
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
       <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="19" t="s">
         <v>88</v>
       </c>
@@ -5184,9 +5318,9 @@
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1">
       <c r="A21" s="93"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="96"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="19" t="s">
         <v>93</v>
       </c>
@@ -5212,9 +5346,9 @@
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1">
       <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="96"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="19" t="s">
         <v>110</v>
       </c>
@@ -5238,9 +5372,9 @@
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1">
       <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="96"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="19" t="s">
         <v>111</v>
       </c>
@@ -5267,9 +5401,9 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1">
       <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="19" t="s">
         <v>132</v>
       </c>
@@ -5295,13 +5429,13 @@
       <c r="A25" s="93" t="s">
         <v>623</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="19" t="s">
         <v>12</v>
       </c>
@@ -5327,9 +5461,9 @@
     </row>
     <row r="26" spans="1:12" ht="42.6" customHeight="1">
       <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="96"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="19" t="s">
         <v>14</v>
       </c>
@@ -5353,9 +5487,9 @@
     </row>
     <row r="27" spans="1:12" ht="17.45" customHeight="1">
       <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="96"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="19" t="s">
         <v>16</v>
       </c>
@@ -5379,9 +5513,9 @@
     </row>
     <row r="28" spans="1:12" ht="28.15" customHeight="1">
       <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="96"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="19" t="s">
         <v>18</v>
       </c>
@@ -5407,9 +5541,9 @@
     </row>
     <row r="29" spans="1:12" ht="28.15" customHeight="1">
       <c r="A29" s="93"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="96"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="19" t="s">
         <v>20</v>
       </c>
@@ -5435,9 +5569,9 @@
     </row>
     <row r="30" spans="1:12" ht="28.15" customHeight="1">
       <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="96"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="19" t="s">
         <v>48</v>
       </c>
@@ -5463,9 +5597,9 @@
     </row>
     <row r="31" spans="1:12" ht="28.15" customHeight="1">
       <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="96"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
@@ -5491,9 +5625,9 @@
     </row>
     <row r="32" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="96"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="19" t="s">
         <v>58</v>
       </c>
@@ -5519,9 +5653,9 @@
     </row>
     <row r="33" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="19" t="s">
         <v>64</v>
       </c>
@@ -5547,9 +5681,9 @@
     </row>
     <row r="34" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="96"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="19" t="s">
         <v>69</v>
       </c>
@@ -5573,9 +5707,9 @@
     </row>
     <row r="35" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="96"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="19" t="s">
         <v>75</v>
       </c>
@@ -5601,9 +5735,9 @@
     </row>
     <row r="36" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="19" t="s">
         <v>80</v>
       </c>
@@ -5627,9 +5761,9 @@
     </row>
     <row r="37" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="96"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="19" t="s">
         <v>86</v>
       </c>
@@ -5653,9 +5787,9 @@
     </row>
     <row r="38" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="96"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="19" t="s">
         <v>88</v>
       </c>
@@ -5679,9 +5813,9 @@
     </row>
     <row r="39" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A39" s="93"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="96"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="19" t="s">
         <v>93</v>
       </c>
@@ -5705,9 +5839,9 @@
     </row>
     <row r="40" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="96"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="19" t="s">
         <v>110</v>
       </c>
@@ -5731,9 +5865,9 @@
     </row>
     <row r="41" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="93"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="19" t="s">
         <v>111</v>
       </c>
@@ -5759,9 +5893,9 @@
     </row>
     <row r="42" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="96"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="19" t="s">
         <v>132</v>
       </c>
@@ -5785,9 +5919,9 @@
     </row>
     <row r="43" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="96"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="19" t="s">
         <v>134</v>
       </c>
@@ -5814,9 +5948,9 @@
     </row>
     <row r="44" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="97"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="87"/>
       <c r="E44" s="19" t="s">
         <v>561</v>
       </c>
@@ -5839,16 +5973,16 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="51">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="88" t="s">
         <v>624</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="92"/>
+      <c r="D45" s="90"/>
       <c r="E45" s="51" t="s">
         <v>12</v>
       </c>
@@ -5873,10 +6007,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="90"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="90"/>
       <c r="E46" s="51" t="s">
         <v>14</v>
       </c>
@@ -5899,10 +6033,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="90"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90"/>
       <c r="E47" s="51" t="s">
         <v>16</v>
       </c>
@@ -5927,10 +6061,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="51" t="s">
         <v>18</v>
       </c>
@@ -5953,10 +6087,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30">
-      <c r="A49" s="90"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="90"/>
       <c r="E49" s="51" t="s">
         <v>20</v>
       </c>
@@ -5981,10 +6115,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30">
-      <c r="A50" s="90"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="51" t="s">
         <v>48</v>
       </c>
@@ -6009,10 +6143,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="45">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="51" t="s">
         <v>53</v>
       </c>
@@ -6034,10 +6168,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="38.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="52" t="s">
         <v>58</v>
       </c>
@@ -6062,10 +6196,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="30">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="51" t="s">
         <v>64</v>
       </c>
@@ -6088,16 +6222,16 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="51">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="88" t="s">
         <v>625</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="90"/>
       <c r="E54" s="51" t="s">
         <v>12</v>
       </c>
@@ -6122,10 +6256,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A55" s="90"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="92"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="51" t="s">
         <v>14</v>
       </c>
@@ -6148,10 +6282,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A56" s="90"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="92"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="51" t="s">
         <v>16</v>
       </c>
@@ -6176,10 +6310,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A57" s="90"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="51" t="s">
         <v>18</v>
       </c>
@@ -6204,10 +6338,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A58" s="90"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="51" t="s">
         <v>20</v>
       </c>
@@ -6230,16 +6364,16 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="51">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="88" t="s">
         <v>626</v>
       </c>
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C59" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="D59" s="92"/>
+      <c r="D59" s="90"/>
       <c r="E59" s="51" t="s">
         <v>12</v>
       </c>
@@ -6264,10 +6398,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="45">
-      <c r="A60" s="90"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="51" t="s">
         <v>14</v>
       </c>
@@ -6290,10 +6424,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="45">
-      <c r="A61" s="90"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="51" t="s">
         <v>16</v>
       </c>
@@ -6318,10 +6452,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="30">
-      <c r="A62" s="90"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="92"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="51" t="s">
         <v>18</v>
       </c>
@@ -6346,10 +6480,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="30">
-      <c r="A63" s="90"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="51" t="s">
         <v>20</v>
       </c>
@@ -6372,16 +6506,16 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="51">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="88" t="s">
         <v>627</v>
       </c>
-      <c r="B64" s="91" t="s">
+      <c r="B64" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="91" t="s">
+      <c r="C64" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="D64" s="92"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="51" t="s">
         <v>12</v>
       </c>
@@ -6406,10 +6540,10 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A65" s="90"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="51" t="s">
         <v>14</v>
       </c>
@@ -6432,10 +6566,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A66" s="90"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="51" t="s">
         <v>16</v>
       </c>
@@ -6460,10 +6594,10 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A67" s="90"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="92"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="51" t="s">
         <v>18</v>
       </c>
@@ -6488,10 +6622,10 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="23.45" customHeight="1">
-      <c r="A68" s="90"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="92"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="51" t="s">
         <v>20</v>
       </c>
@@ -6514,10 +6648,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A69" s="90"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="92"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="90"/>
       <c r="E69" s="51" t="s">
         <v>48</v>
       </c>
@@ -6540,10 +6674,10 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A70" s="90"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="92"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="51" t="s">
         <v>53</v>
       </c>
@@ -6566,10 +6700,10 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A71" s="90"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="92"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="51" t="s">
         <v>58</v>
       </c>
@@ -6592,10 +6726,10 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A72" s="90"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="92"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="51" t="s">
         <v>64</v>
       </c>
@@ -6618,16 +6752,16 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="33.6" customHeight="1">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="91" t="s">
         <v>628</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="95"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="19" t="s">
         <v>12</v>
       </c>
@@ -6652,10 +6786,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="24.6" customHeight="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="96"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="19" t="s">
         <v>14</v>
       </c>
@@ -6680,10 +6814,10 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A75" s="98"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="96"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="86"/>
       <c r="E75" s="19" t="s">
         <v>16</v>
       </c>
@@ -6706,10 +6840,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A76" s="98"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="96"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="86"/>
       <c r="E76" s="19" t="s">
         <v>18</v>
       </c>
@@ -6734,10 +6868,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="96"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="86"/>
       <c r="E77" s="19" t="s">
         <v>20</v>
       </c>
@@ -6762,10 +6896,10 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A78" s="98"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="96"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="86"/>
       <c r="E78" s="19" t="s">
         <v>48</v>
       </c>
@@ -6790,10 +6924,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A79" s="98"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="96"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="19" t="s">
         <v>53</v>
       </c>
@@ -6818,10 +6952,10 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A80" s="98"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="96"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="86"/>
       <c r="E80" s="19" t="s">
         <v>58</v>
       </c>
@@ -6846,10 +6980,10 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A81" s="98"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="96"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="86"/>
       <c r="E81" s="19" t="s">
         <v>64</v>
       </c>
@@ -6874,10 +7008,10 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="96"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="86"/>
       <c r="E82" s="19" t="s">
         <v>69</v>
       </c>
@@ -6902,10 +7036,10 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="96"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="86"/>
       <c r="E83" s="19" t="s">
         <v>75</v>
       </c>
@@ -6930,10 +7064,10 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A84" s="98"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="96"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="19" t="s">
         <v>80</v>
       </c>
@@ -6958,10 +7092,10 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A85" s="98"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="96"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="86"/>
       <c r="E85" s="19" t="s">
         <v>86</v>
       </c>
@@ -6986,10 +7120,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A86" s="98"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="96"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="86"/>
       <c r="E86" s="19" t="s">
         <v>88</v>
       </c>
@@ -7012,10 +7146,10 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A87" s="98"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="96"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="19" t="s">
         <v>93</v>
       </c>
@@ -7041,10 +7175,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="97"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="87"/>
       <c r="E88" s="19" t="s">
         <v>110</v>
       </c>
@@ -7067,16 +7201,16 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="51">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="88" t="s">
         <v>629</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="92"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="51" t="s">
         <v>12</v>
       </c>
@@ -7101,10 +7235,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="28.15" customHeight="1">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="92"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="51" t="s">
         <v>14</v>
       </c>
@@ -7129,10 +7263,10 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="92"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="51" t="s">
         <v>16</v>
       </c>
@@ -7155,10 +7289,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="92"/>
+      <c r="A92" s="88"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="51" t="s">
         <v>18</v>
       </c>
@@ -7181,10 +7315,10 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="30">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="92"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="51" t="s">
         <v>20</v>
       </c>
@@ -7207,10 +7341,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="92"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="90"/>
       <c r="E94" s="51" t="s">
         <v>48</v>
       </c>
@@ -7233,10 +7367,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="30">
-      <c r="A95" s="90"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="92"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="51" t="s">
         <v>53</v>
       </c>
@@ -7259,16 +7393,16 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="52.9" customHeight="1">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="88" t="s">
         <v>630</v>
       </c>
-      <c r="B96" s="91" t="s">
+      <c r="B96" s="89" t="s">
         <v>303</v>
       </c>
-      <c r="C96" s="91" t="s">
+      <c r="C96" s="89" t="s">
         <v>303</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="51" t="s">
         <v>12</v>
       </c>
@@ -7293,10 +7427,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="30">
-      <c r="A97" s="90"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="92"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="51" t="s">
         <v>14</v>
       </c>
@@ -7321,10 +7455,10 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="45">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="92"/>
+      <c r="A98" s="88"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="90"/>
       <c r="E98" s="51" t="s">
         <v>16</v>
       </c>
@@ -7347,10 +7481,10 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="45">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="92"/>
+      <c r="A99" s="88"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="90"/>
       <c r="E99" s="51" t="s">
         <v>18</v>
       </c>
@@ -7375,10 +7509,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="45">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="92"/>
+      <c r="A100" s="88"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="90"/>
       <c r="E100" s="51" t="s">
         <v>20</v>
       </c>
@@ -7403,10 +7537,10 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="30">
-      <c r="A101" s="90"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="92"/>
+      <c r="A101" s="88"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="90"/>
       <c r="E101" s="51" t="s">
         <v>48</v>
       </c>
@@ -7431,10 +7565,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="30">
-      <c r="A102" s="90"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="92"/>
+      <c r="A102" s="88"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="90"/>
       <c r="E102" s="51" t="s">
         <v>53</v>
       </c>
@@ -7459,10 +7593,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="45">
-      <c r="A103" s="90"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="92"/>
+      <c r="A103" s="88"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="90"/>
       <c r="E103" s="51" t="s">
         <v>58</v>
       </c>
@@ -7485,10 +7619,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="30">
-      <c r="A104" s="90"/>
-      <c r="B104" s="91"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="92"/>
+      <c r="A104" s="88"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="90"/>
       <c r="E104" s="51" t="s">
         <v>64</v>
       </c>
@@ -7511,10 +7645,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
-      <c r="A105" s="90"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="92"/>
+      <c r="A105" s="88"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="90"/>
       <c r="E105" s="51" t="s">
         <v>69</v>
       </c>
@@ -7537,16 +7671,16 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="51">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="88" t="s">
         <v>631</v>
       </c>
-      <c r="B106" s="91" t="s">
+      <c r="B106" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="91" t="s">
+      <c r="C106" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="D106" s="92"/>
+      <c r="D106" s="90"/>
       <c r="E106" s="51" t="s">
         <v>12</v>
       </c>
@@ -7571,10 +7705,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="30">
-      <c r="A107" s="90"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="91"/>
-      <c r="D107" s="92"/>
+      <c r="A107" s="88"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="90"/>
       <c r="E107" s="51" t="s">
         <v>14</v>
       </c>
@@ -7599,10 +7733,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="30">
-      <c r="A108" s="90"/>
-      <c r="B108" s="91"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="92"/>
+      <c r="A108" s="88"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="90"/>
       <c r="E108" s="51" t="s">
         <v>16</v>
       </c>
@@ -7625,10 +7759,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="90"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="92"/>
+      <c r="A109" s="88"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="90"/>
       <c r="E109" s="51" t="s">
         <v>18</v>
       </c>
@@ -7651,10 +7785,10 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="30">
-      <c r="A110" s="90"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="92"/>
+      <c r="A110" s="88"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="90"/>
       <c r="E110" s="51" t="s">
         <v>20</v>
       </c>
@@ -7677,16 +7811,16 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="51">
-      <c r="A111" s="90" t="s">
+      <c r="A111" s="88" t="s">
         <v>632</v>
       </c>
-      <c r="B111" s="91" t="s">
+      <c r="B111" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="D111" s="92"/>
+      <c r="D111" s="90"/>
       <c r="E111" s="51" t="s">
         <v>12</v>
       </c>
@@ -7711,10 +7845,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="30">
-      <c r="A112" s="90"/>
-      <c r="B112" s="91"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="92"/>
+      <c r="A112" s="88"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="90"/>
       <c r="E112" s="51" t="s">
         <v>14</v>
       </c>
@@ -7739,10 +7873,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="30">
-      <c r="A113" s="90"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="92"/>
+      <c r="A113" s="88"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="90"/>
       <c r="E113" s="51" t="s">
         <v>16</v>
       </c>
@@ -7765,10 +7899,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="30">
-      <c r="A114" s="90"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="92"/>
+      <c r="A114" s="88"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="90"/>
       <c r="E114" s="51" t="s">
         <v>18</v>
       </c>
@@ -7791,10 +7925,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="30">
-      <c r="A115" s="90"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="91"/>
-      <c r="D115" s="92"/>
+      <c r="A115" s="88"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="90"/>
       <c r="E115" s="51" t="s">
         <v>20</v>
       </c>
@@ -7817,16 +7951,16 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="51">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="88" t="s">
         <v>633</v>
       </c>
-      <c r="B116" s="91" t="s">
+      <c r="B116" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="91" t="s">
+      <c r="C116" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="D116" s="92"/>
+      <c r="D116" s="90"/>
       <c r="E116" s="51" t="s">
         <v>12</v>
       </c>
@@ -7851,10 +7985,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="30">
-      <c r="A117" s="90"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="92"/>
+      <c r="A117" s="88"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="90"/>
       <c r="E117" s="51" t="s">
         <v>14</v>
       </c>
@@ -7879,10 +8013,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="30">
-      <c r="A118" s="90"/>
-      <c r="B118" s="91"/>
-      <c r="C118" s="91"/>
-      <c r="D118" s="92"/>
+      <c r="A118" s="88"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="90"/>
       <c r="E118" s="51" t="s">
         <v>16</v>
       </c>
@@ -7905,10 +8039,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A119" s="90"/>
-      <c r="B119" s="91"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="92"/>
+      <c r="A119" s="88"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="90"/>
       <c r="E119" s="51" t="s">
         <v>18</v>
       </c>
@@ -7931,10 +8065,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A120" s="90"/>
-      <c r="B120" s="91"/>
-      <c r="C120" s="91"/>
-      <c r="D120" s="92"/>
+      <c r="A120" s="88"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="90"/>
       <c r="E120" s="51" t="s">
         <v>20</v>
       </c>
@@ -7959,10 +8093,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A121" s="90"/>
-      <c r="B121" s="91"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="92"/>
+      <c r="A121" s="88"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="90"/>
       <c r="E121" s="51" t="s">
         <v>48</v>
       </c>
@@ -7987,10 +8121,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A122" s="90"/>
-      <c r="B122" s="91"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="92"/>
+      <c r="A122" s="88"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="90"/>
       <c r="E122" s="51" t="s">
         <v>53</v>
       </c>
@@ -8013,10 +8147,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A123" s="90"/>
-      <c r="B123" s="91"/>
-      <c r="C123" s="91"/>
-      <c r="D123" s="92"/>
+      <c r="A123" s="88"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="90"/>
       <c r="E123" s="51" t="s">
         <v>58</v>
       </c>
@@ -8039,10 +8173,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="19.149999999999999" customHeight="1">
-      <c r="A124" s="90"/>
-      <c r="B124" s="91"/>
-      <c r="C124" s="91"/>
-      <c r="D124" s="92"/>
+      <c r="A124" s="88"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="90"/>
       <c r="E124" s="51" t="s">
         <v>64</v>
       </c>
@@ -8065,10 +8199,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1">
-      <c r="A125" s="90"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="92"/>
+      <c r="A125" s="88"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="90"/>
       <c r="E125" s="51" t="s">
         <v>69</v>
       </c>
@@ -8091,10 +8225,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1">
-      <c r="A126" s="90"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="92"/>
+      <c r="A126" s="88"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="90"/>
       <c r="E126" s="51" t="s">
         <v>75</v>
       </c>
@@ -8120,10 +8254,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1">
-      <c r="A127" s="90"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="92"/>
+      <c r="A127" s="88"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="90"/>
       <c r="E127" s="51" t="s">
         <v>80</v>
       </c>
@@ -8146,10 +8280,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1">
-      <c r="A128" s="90"/>
-      <c r="B128" s="91"/>
-      <c r="C128" s="91"/>
-      <c r="D128" s="92"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="90"/>
       <c r="E128" s="51" t="s">
         <v>86</v>
       </c>
@@ -8172,10 +8306,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1">
-      <c r="A129" s="90"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="91"/>
-      <c r="D129" s="92"/>
+      <c r="A129" s="88"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="90"/>
       <c r="E129" s="51" t="s">
         <v>88</v>
       </c>
@@ -8198,10 +8332,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="30">
-      <c r="A130" s="90"/>
-      <c r="B130" s="91"/>
-      <c r="C130" s="91"/>
-      <c r="D130" s="92"/>
+      <c r="A130" s="88"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="90"/>
       <c r="E130" s="51" t="s">
         <v>93</v>
       </c>
@@ -8224,16 +8358,16 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="51">
-      <c r="A131" s="90" t="s">
+      <c r="A131" s="88" t="s">
         <v>634</v>
       </c>
-      <c r="B131" s="91" t="s">
+      <c r="B131" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="C131" s="91" t="s">
+      <c r="C131" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="D131" s="92"/>
+      <c r="D131" s="90"/>
       <c r="E131" s="51" t="s">
         <v>12</v>
       </c>
@@ -8258,10 +8392,10 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="30">
-      <c r="A132" s="90"/>
-      <c r="B132" s="91"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="92"/>
+      <c r="A132" s="88"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="90"/>
       <c r="E132" s="51" t="s">
         <v>14</v>
       </c>
@@ -8286,10 +8420,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="45">
-      <c r="A133" s="90"/>
-      <c r="B133" s="91"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
+      <c r="A133" s="88"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="90"/>
       <c r="E133" s="51" t="s">
         <v>16</v>
       </c>
@@ -8312,10 +8446,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A134" s="90"/>
-      <c r="B134" s="91"/>
-      <c r="C134" s="91"/>
-      <c r="D134" s="92"/>
+      <c r="A134" s="88"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="90"/>
       <c r="E134" s="51" t="s">
         <v>18</v>
       </c>
@@ -8338,10 +8472,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A135" s="90"/>
-      <c r="B135" s="91"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="92"/>
+      <c r="A135" s="88"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="90"/>
       <c r="E135" s="51" t="s">
         <v>20</v>
       </c>
@@ -8364,10 +8498,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A136" s="90"/>
-      <c r="B136" s="91"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="92"/>
+      <c r="A136" s="88"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="90"/>
       <c r="E136" s="51" t="s">
         <v>48</v>
       </c>
@@ -8390,10 +8524,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="16.899999999999999" customHeight="1">
-      <c r="A137" s="90"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="92"/>
+      <c r="A137" s="88"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="90"/>
       <c r="E137" s="51" t="s">
         <v>53</v>
       </c>
@@ -8416,16 +8550,16 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="51">
-      <c r="A138" s="99" t="s">
+      <c r="A138" s="78" t="s">
         <v>635</v>
       </c>
-      <c r="B138" s="91" t="s">
+      <c r="B138" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="C138" s="91" t="s">
+      <c r="C138" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="D138" s="92"/>
+      <c r="D138" s="90"/>
       <c r="E138" s="51" t="s">
         <v>12</v>
       </c>
@@ -8450,10 +8584,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A139" s="100"/>
-      <c r="B139" s="91"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="92"/>
+      <c r="A139" s="79"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="90"/>
       <c r="E139" s="51" t="s">
         <v>14</v>
       </c>
@@ -8478,10 +8612,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A140" s="100"/>
-      <c r="B140" s="91"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="92"/>
+      <c r="A140" s="79"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="90"/>
       <c r="E140" s="51" t="s">
         <v>16</v>
       </c>
@@ -8504,10 +8638,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A141" s="100"/>
-      <c r="B141" s="91"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="92"/>
+      <c r="A141" s="79"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="90"/>
       <c r="E141" s="51" t="s">
         <v>18</v>
       </c>
@@ -8530,10 +8664,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="30">
-      <c r="A142" s="100"/>
-      <c r="B142" s="91"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="92"/>
+      <c r="A142" s="79"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="90"/>
       <c r="E142" s="51" t="s">
         <v>20</v>
       </c>
@@ -8556,10 +8690,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="30">
-      <c r="A143" s="100"/>
-      <c r="B143" s="91"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="92"/>
+      <c r="A143" s="79"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="90"/>
       <c r="E143" s="51" t="s">
         <v>48</v>
       </c>
@@ -8582,10 +8716,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="30">
-      <c r="A144" s="100"/>
-      <c r="B144" s="91"/>
-      <c r="C144" s="91"/>
-      <c r="D144" s="92"/>
+      <c r="A144" s="79"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="90"/>
       <c r="E144" s="51" t="s">
         <v>53</v>
       </c>
@@ -8608,16 +8742,16 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="45">
-      <c r="A145" s="99" t="s">
+      <c r="A145" s="78" t="s">
         <v>636</v>
       </c>
-      <c r="B145" s="102" t="s">
+      <c r="B145" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="C145" s="102" t="s">
+      <c r="C145" s="81" t="s">
         <v>396</v>
       </c>
-      <c r="D145" s="103"/>
+      <c r="D145" s="82"/>
       <c r="E145" s="43" t="s">
         <v>12</v>
       </c>
@@ -8642,10 +8776,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="25.5">
-      <c r="A146" s="100"/>
-      <c r="B146" s="102"/>
-      <c r="C146" s="102"/>
-      <c r="D146" s="104"/>
+      <c r="A146" s="79"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="83"/>
       <c r="E146" s="43" t="s">
         <v>14</v>
       </c>
@@ -8670,10 +8804,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="25.5">
-      <c r="A147" s="100"/>
-      <c r="B147" s="102"/>
-      <c r="C147" s="102"/>
-      <c r="D147" s="104"/>
+      <c r="A147" s="79"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="83"/>
       <c r="E147" s="43" t="s">
         <v>16</v>
       </c>
@@ -8696,10 +8830,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
-      <c r="A148" s="100"/>
-      <c r="B148" s="102"/>
-      <c r="C148" s="102"/>
-      <c r="D148" s="104"/>
+      <c r="A148" s="79"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="83"/>
       <c r="E148" s="43" t="s">
         <v>18</v>
       </c>
@@ -8722,10 +8856,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="30">
-      <c r="A149" s="100"/>
-      <c r="B149" s="102"/>
-      <c r="C149" s="102"/>
-      <c r="D149" s="104"/>
+      <c r="A149" s="79"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="81"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="43" t="s">
         <v>20</v>
       </c>
@@ -8748,10 +8882,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="30">
-      <c r="A150" s="100"/>
-      <c r="B150" s="102"/>
-      <c r="C150" s="102"/>
-      <c r="D150" s="104"/>
+      <c r="A150" s="79"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="83"/>
       <c r="E150" s="43" t="s">
         <v>48</v>
       </c>
@@ -8774,10 +8908,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="30">
-      <c r="A151" s="101"/>
-      <c r="B151" s="102"/>
-      <c r="C151" s="102"/>
-      <c r="D151" s="105"/>
+      <c r="A151" s="80"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="84"/>
       <c r="E151" s="43" t="s">
         <v>53</v>
       </c>
@@ -8800,16 +8934,16 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="45">
-      <c r="A152" s="99" t="s">
+      <c r="A152" s="78" t="s">
         <v>637</v>
       </c>
-      <c r="B152" s="102" t="s">
+      <c r="B152" s="81" t="s">
         <v>395</v>
       </c>
-      <c r="C152" s="102" t="s">
+      <c r="C152" s="81" t="s">
         <v>395</v>
       </c>
-      <c r="D152" s="103"/>
+      <c r="D152" s="82"/>
       <c r="E152" s="43" t="s">
         <v>12</v>
       </c>
@@ -8834,10 +8968,10 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="25.5">
-      <c r="A153" s="100"/>
-      <c r="B153" s="102"/>
-      <c r="C153" s="102"/>
-      <c r="D153" s="104"/>
+      <c r="A153" s="79"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="83"/>
       <c r="E153" s="43" t="s">
         <v>14</v>
       </c>
@@ -8862,10 +8996,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="25.5">
-      <c r="A154" s="100"/>
-      <c r="B154" s="102"/>
-      <c r="C154" s="102"/>
-      <c r="D154" s="104"/>
+      <c r="A154" s="79"/>
+      <c r="B154" s="81"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="83"/>
       <c r="E154" s="43" t="s">
         <v>16</v>
       </c>
@@ -8888,10 +9022,10 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="30">
-      <c r="A155" s="100"/>
-      <c r="B155" s="102"/>
-      <c r="C155" s="102"/>
-      <c r="D155" s="104"/>
+      <c r="A155" s="79"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="43" t="s">
         <v>18</v>
       </c>
@@ -8914,10 +9048,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="30">
-      <c r="A156" s="100"/>
-      <c r="B156" s="102"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="104"/>
+      <c r="A156" s="79"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="43" t="s">
         <v>20</v>
       </c>
@@ -8940,10 +9074,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="30">
-      <c r="A157" s="100"/>
-      <c r="B157" s="102"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="104"/>
+      <c r="A157" s="79"/>
+      <c r="B157" s="81"/>
+      <c r="C157" s="81"/>
+      <c r="D157" s="83"/>
       <c r="E157" s="43" t="s">
         <v>48</v>
       </c>
@@ -8966,10 +9100,10 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="30">
-      <c r="A158" s="101"/>
-      <c r="B158" s="102"/>
-      <c r="C158" s="102"/>
-      <c r="D158" s="105"/>
+      <c r="A158" s="80"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="84"/>
       <c r="E158" s="43" t="s">
         <v>53</v>
       </c>
@@ -8992,16 +9126,16 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="45">
-      <c r="A159" s="99" t="s">
+      <c r="A159" s="78" t="s">
         <v>638</v>
       </c>
-      <c r="B159" s="102" t="s">
+      <c r="B159" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="C159" s="102" t="s">
+      <c r="C159" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="D159" s="95"/>
+      <c r="D159" s="85"/>
       <c r="E159" s="43" t="s">
         <v>12</v>
       </c>
@@ -9026,10 +9160,10 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="25.5">
-      <c r="A160" s="100"/>
-      <c r="B160" s="102"/>
-      <c r="C160" s="102"/>
-      <c r="D160" s="96"/>
+      <c r="A160" s="79"/>
+      <c r="B160" s="81"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="86"/>
       <c r="E160" s="43" t="s">
         <v>14</v>
       </c>
@@ -9054,10 +9188,10 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="25.5">
-      <c r="A161" s="100"/>
-      <c r="B161" s="102"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="96"/>
+      <c r="A161" s="79"/>
+      <c r="B161" s="81"/>
+      <c r="C161" s="81"/>
+      <c r="D161" s="86"/>
       <c r="E161" s="43" t="s">
         <v>16</v>
       </c>
@@ -9080,10 +9214,10 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="30">
-      <c r="A162" s="101"/>
-      <c r="B162" s="102"/>
-      <c r="C162" s="102"/>
-      <c r="D162" s="97"/>
+      <c r="A162" s="80"/>
+      <c r="B162" s="81"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="87"/>
       <c r="E162" s="43" t="s">
         <v>18</v>
       </c>
@@ -9106,16 +9240,16 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="51">
-      <c r="A163" s="88" t="s">
+      <c r="A163" s="94" t="s">
         <v>644</v>
       </c>
-      <c r="B163" s="88" t="s">
+      <c r="B163" s="94" t="s">
         <v>645</v>
       </c>
-      <c r="C163" s="88" t="s">
+      <c r="C163" s="94" t="s">
         <v>646</v>
       </c>
-      <c r="D163" s="85"/>
+      <c r="D163" s="96"/>
       <c r="E163" s="54" t="s">
         <v>12</v>
       </c>
@@ -9140,10 +9274,10 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="45">
-      <c r="A164" s="89"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="89"/>
-      <c r="D164" s="86"/>
+      <c r="A164" s="95"/>
+      <c r="B164" s="95"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="97"/>
       <c r="E164" s="54" t="s">
         <v>14</v>
       </c>
@@ -9166,10 +9300,10 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="45">
-      <c r="A165" s="89"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="89"/>
-      <c r="D165" s="86"/>
+      <c r="A165" s="95"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="95"/>
+      <c r="D165" s="97"/>
       <c r="E165" s="54" t="s">
         <v>16</v>
       </c>
@@ -9192,10 +9326,10 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="38.25">
-      <c r="A166" s="89"/>
-      <c r="B166" s="89"/>
-      <c r="C166" s="89"/>
-      <c r="D166" s="86"/>
+      <c r="A166" s="95"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="97"/>
       <c r="E166" s="54" t="s">
         <v>18</v>
       </c>
@@ -9218,16 +9352,16 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="51">
-      <c r="A167" s="79" t="s">
+      <c r="A167" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="B167" s="79" t="s">
+      <c r="B167" s="98" t="s">
         <v>668</v>
       </c>
-      <c r="C167" s="79" t="s">
+      <c r="C167" s="98" t="s">
         <v>669</v>
       </c>
-      <c r="D167" s="82"/>
+      <c r="D167" s="99"/>
       <c r="E167" s="59" t="s">
         <v>12</v>
       </c>
@@ -9252,10 +9386,10 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="25.5">
-      <c r="A168" s="79"/>
-      <c r="B168" s="81"/>
-      <c r="C168" s="81"/>
-      <c r="D168" s="83"/>
+      <c r="A168" s="98"/>
+      <c r="B168" s="101"/>
+      <c r="C168" s="101"/>
+      <c r="D168" s="100"/>
       <c r="E168" s="59" t="s">
         <v>14</v>
       </c>
@@ -9278,10 +9412,10 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="45">
-      <c r="A169" s="79"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="83"/>
+      <c r="A169" s="98"/>
+      <c r="B169" s="101"/>
+      <c r="C169" s="101"/>
+      <c r="D169" s="100"/>
       <c r="E169" s="64" t="s">
         <v>16</v>
       </c>
@@ -9304,10 +9438,10 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="45">
-      <c r="A170" s="79"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="81"/>
-      <c r="D170" s="83"/>
+      <c r="A170" s="98"/>
+      <c r="B170" s="101"/>
+      <c r="C170" s="101"/>
+      <c r="D170" s="100"/>
       <c r="E170" s="59" t="s">
         <v>18</v>
       </c>
@@ -9332,10 +9466,10 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="45">
-      <c r="A171" s="79"/>
-      <c r="B171" s="81"/>
-      <c r="C171" s="81"/>
-      <c r="D171" s="83"/>
+      <c r="A171" s="98"/>
+      <c r="B171" s="101"/>
+      <c r="C171" s="101"/>
+      <c r="D171" s="100"/>
       <c r="E171" s="64" t="s">
         <v>20</v>
       </c>
@@ -9358,10 +9492,10 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="45">
-      <c r="A172" s="79"/>
-      <c r="B172" s="81"/>
-      <c r="C172" s="81"/>
-      <c r="D172" s="83"/>
+      <c r="A172" s="98"/>
+      <c r="B172" s="101"/>
+      <c r="C172" s="101"/>
+      <c r="D172" s="100"/>
       <c r="E172" s="64" t="s">
         <v>48</v>
       </c>
@@ -9386,10 +9520,10 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="45">
-      <c r="A173" s="79"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="81"/>
-      <c r="D173" s="83"/>
+      <c r="A173" s="98"/>
+      <c r="B173" s="101"/>
+      <c r="C173" s="101"/>
+      <c r="D173" s="100"/>
       <c r="E173" s="64" t="s">
         <v>53</v>
       </c>
@@ -9412,10 +9546,10 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="60">
-      <c r="A174" s="79"/>
-      <c r="B174" s="81"/>
-      <c r="C174" s="81"/>
-      <c r="D174" s="83"/>
+      <c r="A174" s="98"/>
+      <c r="B174" s="101"/>
+      <c r="C174" s="101"/>
+      <c r="D174" s="100"/>
       <c r="E174" s="64" t="s">
         <v>58</v>
       </c>
@@ -9440,10 +9574,10 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="45">
-      <c r="A175" s="79"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="81"/>
-      <c r="D175" s="83"/>
+      <c r="A175" s="98"/>
+      <c r="B175" s="101"/>
+      <c r="C175" s="101"/>
+      <c r="D175" s="100"/>
       <c r="E175" s="64" t="s">
         <v>64</v>
       </c>
@@ -9466,10 +9600,10 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="38.25">
-      <c r="A176" s="79"/>
-      <c r="B176" s="81"/>
-      <c r="C176" s="81"/>
-      <c r="D176" s="83"/>
+      <c r="A176" s="98"/>
+      <c r="B176" s="101"/>
+      <c r="C176" s="101"/>
+      <c r="D176" s="100"/>
       <c r="E176" s="64" t="s">
         <v>69</v>
       </c>
@@ -9492,16 +9626,16 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="51">
-      <c r="A177" s="88" t="s">
+      <c r="A177" s="94" t="s">
         <v>701</v>
       </c>
-      <c r="B177" s="88" t="s">
+      <c r="B177" s="94" t="s">
         <v>702</v>
       </c>
-      <c r="C177" s="88" t="s">
+      <c r="C177" s="94" t="s">
         <v>702</v>
       </c>
-      <c r="D177" s="85"/>
+      <c r="D177" s="96"/>
       <c r="E177" s="54" t="s">
         <v>12</v>
       </c>
@@ -9526,10 +9660,10 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="25.5">
-      <c r="A178" s="89"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="89"/>
-      <c r="D178" s="86"/>
+      <c r="A178" s="95"/>
+      <c r="B178" s="95"/>
+      <c r="C178" s="95"/>
+      <c r="D178" s="97"/>
       <c r="E178" s="54" t="s">
         <v>14</v>
       </c>
@@ -9552,10 +9686,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="45">
-      <c r="A179" s="89"/>
-      <c r="B179" s="89"/>
-      <c r="C179" s="89"/>
-      <c r="D179" s="86"/>
+      <c r="A179" s="95"/>
+      <c r="B179" s="95"/>
+      <c r="C179" s="95"/>
+      <c r="D179" s="97"/>
       <c r="E179" s="54" t="s">
         <v>16</v>
       </c>
@@ -9578,10 +9712,10 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="30">
-      <c r="A180" s="89"/>
-      <c r="B180" s="89"/>
-      <c r="C180" s="89"/>
-      <c r="D180" s="86"/>
+      <c r="A180" s="95"/>
+      <c r="B180" s="95"/>
+      <c r="C180" s="95"/>
+      <c r="D180" s="97"/>
       <c r="E180" s="54" t="s">
         <v>18</v>
       </c>
@@ -9606,10 +9740,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="38.25">
-      <c r="A181" s="89"/>
-      <c r="B181" s="89"/>
-      <c r="C181" s="89"/>
-      <c r="D181" s="86"/>
+      <c r="A181" s="95"/>
+      <c r="B181" s="95"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="97"/>
       <c r="E181" s="54" t="s">
         <v>20</v>
       </c>
@@ -9632,16 +9766,16 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="51">
-      <c r="A182" s="79" t="s">
+      <c r="A182" s="98" t="s">
         <v>721</v>
       </c>
-      <c r="B182" s="79" t="s">
+      <c r="B182" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="C182" s="79" t="s">
+      <c r="C182" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="D182" s="82"/>
+      <c r="D182" s="99"/>
       <c r="E182" s="59" t="s">
         <v>12</v>
       </c>
@@ -9666,10 +9800,10 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="25.5">
-      <c r="A183" s="79"/>
-      <c r="B183" s="79"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="83"/>
+      <c r="A183" s="98"/>
+      <c r="B183" s="98"/>
+      <c r="C183" s="98"/>
+      <c r="D183" s="100"/>
       <c r="E183" s="59" t="s">
         <v>14</v>
       </c>
@@ -9692,10 +9826,10 @@
       </c>
     </row>
     <row r="184" spans="1:12" ht="25.5">
-      <c r="A184" s="79"/>
-      <c r="B184" s="79"/>
-      <c r="C184" s="79"/>
-      <c r="D184" s="83"/>
+      <c r="A184" s="98"/>
+      <c r="B184" s="98"/>
+      <c r="C184" s="98"/>
+      <c r="D184" s="100"/>
       <c r="E184" s="59" t="s">
         <v>16</v>
       </c>
@@ -9718,10 +9852,10 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
-      <c r="A185" s="79"/>
-      <c r="B185" s="79"/>
-      <c r="C185" s="79"/>
-      <c r="D185" s="83"/>
+      <c r="A185" s="98"/>
+      <c r="B185" s="98"/>
+      <c r="C185" s="98"/>
+      <c r="D185" s="100"/>
       <c r="E185" s="59" t="s">
         <v>18</v>
       </c>
@@ -9746,10 +9880,10 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="30">
-      <c r="A186" s="79"/>
-      <c r="B186" s="79"/>
-      <c r="C186" s="79"/>
-      <c r="D186" s="83"/>
+      <c r="A186" s="98"/>
+      <c r="B186" s="98"/>
+      <c r="C186" s="98"/>
+      <c r="D186" s="100"/>
       <c r="E186" s="59" t="s">
         <v>20</v>
       </c>
@@ -9774,10 +9908,10 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="30">
-      <c r="A187" s="79"/>
-      <c r="B187" s="79"/>
-      <c r="C187" s="79"/>
-      <c r="D187" s="83"/>
+      <c r="A187" s="98"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="98"/>
+      <c r="D187" s="100"/>
       <c r="E187" s="59" t="s">
         <v>48</v>
       </c>
@@ -9802,10 +9936,10 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="30">
-      <c r="A188" s="79"/>
-      <c r="B188" s="79"/>
-      <c r="C188" s="79"/>
-      <c r="D188" s="83"/>
+      <c r="A188" s="98"/>
+      <c r="B188" s="98"/>
+      <c r="C188" s="98"/>
+      <c r="D188" s="100"/>
       <c r="E188" s="59" t="s">
         <v>53</v>
       </c>
@@ -9830,10 +9964,10 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="45">
-      <c r="A189" s="79"/>
-      <c r="B189" s="79"/>
-      <c r="C189" s="79"/>
-      <c r="D189" s="83"/>
+      <c r="A189" s="98"/>
+      <c r="B189" s="98"/>
+      <c r="C189" s="98"/>
+      <c r="D189" s="100"/>
       <c r="E189" s="59" t="s">
         <v>58</v>
       </c>
@@ -9858,10 +9992,10 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="45">
-      <c r="A190" s="79"/>
-      <c r="B190" s="79"/>
-      <c r="C190" s="79"/>
-      <c r="D190" s="83"/>
+      <c r="A190" s="98"/>
+      <c r="B190" s="98"/>
+      <c r="C190" s="98"/>
+      <c r="D190" s="100"/>
       <c r="E190" s="59" t="s">
         <v>64</v>
       </c>
@@ -9886,10 +10020,10 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="45">
-      <c r="A191" s="79"/>
-      <c r="B191" s="79"/>
-      <c r="C191" s="79"/>
-      <c r="D191" s="83"/>
+      <c r="A191" s="98"/>
+      <c r="B191" s="98"/>
+      <c r="C191" s="98"/>
+      <c r="D191" s="100"/>
       <c r="E191" s="59" t="s">
         <v>69</v>
       </c>
@@ -9912,10 +10046,10 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="60">
-      <c r="A192" s="79"/>
-      <c r="B192" s="79"/>
-      <c r="C192" s="79"/>
-      <c r="D192" s="83"/>
+      <c r="A192" s="98"/>
+      <c r="B192" s="98"/>
+      <c r="C192" s="98"/>
+      <c r="D192" s="100"/>
       <c r="E192" s="59" t="s">
         <v>75</v>
       </c>
@@ -9938,10 +10072,10 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="30">
-      <c r="A193" s="79"/>
-      <c r="B193" s="79"/>
-      <c r="C193" s="79"/>
-      <c r="D193" s="83"/>
+      <c r="A193" s="98"/>
+      <c r="B193" s="98"/>
+      <c r="C193" s="98"/>
+      <c r="D193" s="100"/>
       <c r="E193" s="59" t="s">
         <v>80</v>
       </c>
@@ -9964,10 +10098,10 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="45">
-      <c r="A194" s="79"/>
-      <c r="B194" s="79"/>
-      <c r="C194" s="79"/>
-      <c r="D194" s="83"/>
+      <c r="A194" s="98"/>
+      <c r="B194" s="98"/>
+      <c r="C194" s="98"/>
+      <c r="D194" s="100"/>
       <c r="E194" s="59" t="s">
         <v>86</v>
       </c>
@@ -9992,10 +10126,10 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="38.25">
-      <c r="A195" s="79"/>
-      <c r="B195" s="79"/>
-      <c r="C195" s="79"/>
-      <c r="D195" s="83"/>
+      <c r="A195" s="98"/>
+      <c r="B195" s="98"/>
+      <c r="C195" s="98"/>
+      <c r="D195" s="100"/>
       <c r="E195" s="59" t="s">
         <v>88</v>
       </c>
@@ -10018,16 +10152,16 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="51">
-      <c r="A196" s="77" t="s">
+      <c r="A196" s="102" t="s">
         <v>783</v>
       </c>
-      <c r="B196" s="77" t="s">
+      <c r="B196" s="102" t="s">
         <v>784</v>
       </c>
-      <c r="C196" s="77" t="s">
+      <c r="C196" s="102" t="s">
         <v>784</v>
       </c>
-      <c r="D196" s="85"/>
+      <c r="D196" s="96"/>
       <c r="E196" s="54" t="s">
         <v>12</v>
       </c>
@@ -10052,10 +10186,10 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="25.5">
-      <c r="A197" s="77"/>
-      <c r="B197" s="77"/>
-      <c r="C197" s="77"/>
-      <c r="D197" s="86"/>
+      <c r="A197" s="102"/>
+      <c r="B197" s="102"/>
+      <c r="C197" s="102"/>
+      <c r="D197" s="97"/>
       <c r="E197" s="54" t="s">
         <v>14</v>
       </c>
@@ -10078,10 +10212,10 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="25.5">
-      <c r="A198" s="77"/>
-      <c r="B198" s="77"/>
-      <c r="C198" s="77"/>
-      <c r="D198" s="86"/>
+      <c r="A198" s="102"/>
+      <c r="B198" s="102"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="97"/>
       <c r="E198" s="54" t="s">
         <v>16</v>
       </c>
@@ -10104,10 +10238,10 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="30">
-      <c r="A199" s="77"/>
-      <c r="B199" s="77"/>
-      <c r="C199" s="77"/>
-      <c r="D199" s="86"/>
+      <c r="A199" s="102"/>
+      <c r="B199" s="102"/>
+      <c r="C199" s="102"/>
+      <c r="D199" s="97"/>
       <c r="E199" s="54" t="s">
         <v>18</v>
       </c>
@@ -10132,10 +10266,10 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="30">
-      <c r="A200" s="77"/>
-      <c r="B200" s="77"/>
-      <c r="C200" s="77"/>
-      <c r="D200" s="86"/>
+      <c r="A200" s="102"/>
+      <c r="B200" s="102"/>
+      <c r="C200" s="102"/>
+      <c r="D200" s="97"/>
       <c r="E200" s="54" t="s">
         <v>20</v>
       </c>
@@ -10160,10 +10294,10 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="30">
-      <c r="A201" s="77"/>
-      <c r="B201" s="77"/>
-      <c r="C201" s="77"/>
-      <c r="D201" s="86"/>
+      <c r="A201" s="102"/>
+      <c r="B201" s="102"/>
+      <c r="C201" s="102"/>
+      <c r="D201" s="97"/>
       <c r="E201" s="54" t="s">
         <v>48</v>
       </c>
@@ -10188,10 +10322,10 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="30">
-      <c r="A202" s="77"/>
-      <c r="B202" s="77"/>
-      <c r="C202" s="77"/>
-      <c r="D202" s="86"/>
+      <c r="A202" s="102"/>
+      <c r="B202" s="102"/>
+      <c r="C202" s="102"/>
+      <c r="D202" s="97"/>
       <c r="E202" s="54" t="s">
         <v>53</v>
       </c>
@@ -10216,10 +10350,10 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="45">
-      <c r="A203" s="77"/>
-      <c r="B203" s="77"/>
-      <c r="C203" s="77"/>
-      <c r="D203" s="86"/>
+      <c r="A203" s="102"/>
+      <c r="B203" s="102"/>
+      <c r="C203" s="102"/>
+      <c r="D203" s="97"/>
       <c r="E203" s="54" t="s">
         <v>58</v>
       </c>
@@ -10244,10 +10378,10 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="45">
-      <c r="A204" s="77"/>
-      <c r="B204" s="77"/>
-      <c r="C204" s="77"/>
-      <c r="D204" s="86"/>
+      <c r="A204" s="102"/>
+      <c r="B204" s="102"/>
+      <c r="C204" s="102"/>
+      <c r="D204" s="97"/>
       <c r="E204" s="54" t="s">
         <v>64</v>
       </c>
@@ -10272,10 +10406,10 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="45">
-      <c r="A205" s="77"/>
-      <c r="B205" s="77"/>
-      <c r="C205" s="77"/>
-      <c r="D205" s="86"/>
+      <c r="A205" s="102"/>
+      <c r="B205" s="102"/>
+      <c r="C205" s="102"/>
+      <c r="D205" s="97"/>
       <c r="E205" s="54" t="s">
         <v>69</v>
       </c>
@@ -10298,10 +10432,10 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="60">
-      <c r="A206" s="77"/>
-      <c r="B206" s="77"/>
-      <c r="C206" s="77"/>
-      <c r="D206" s="86"/>
+      <c r="A206" s="102"/>
+      <c r="B206" s="102"/>
+      <c r="C206" s="102"/>
+      <c r="D206" s="97"/>
       <c r="E206" s="54" t="s">
         <v>75</v>
       </c>
@@ -10324,10 +10458,10 @@
       </c>
     </row>
     <row r="207" spans="1:12" ht="45">
-      <c r="A207" s="77"/>
-      <c r="B207" s="77"/>
-      <c r="C207" s="77"/>
-      <c r="D207" s="86"/>
+      <c r="A207" s="102"/>
+      <c r="B207" s="102"/>
+      <c r="C207" s="102"/>
+      <c r="D207" s="97"/>
       <c r="E207" s="54" t="s">
         <v>80</v>
       </c>
@@ -10350,10 +10484,10 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="60">
-      <c r="A208" s="77"/>
-      <c r="B208" s="77"/>
-      <c r="C208" s="77"/>
-      <c r="D208" s="86"/>
+      <c r="A208" s="102"/>
+      <c r="B208" s="102"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="97"/>
       <c r="E208" s="54" t="s">
         <v>86</v>
       </c>
@@ -10376,10 +10510,10 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="30">
-      <c r="A209" s="77"/>
-      <c r="B209" s="77"/>
-      <c r="C209" s="77"/>
-      <c r="D209" s="86"/>
+      <c r="A209" s="102"/>
+      <c r="B209" s="102"/>
+      <c r="C209" s="102"/>
+      <c r="D209" s="97"/>
       <c r="E209" s="54" t="s">
         <v>88</v>
       </c>
@@ -10404,10 +10538,10 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="30">
-      <c r="A210" s="77"/>
-      <c r="B210" s="77"/>
-      <c r="C210" s="77"/>
-      <c r="D210" s="86"/>
+      <c r="A210" s="102"/>
+      <c r="B210" s="102"/>
+      <c r="C210" s="102"/>
+      <c r="D210" s="97"/>
       <c r="E210" s="54" t="s">
         <v>93</v>
       </c>
@@ -10432,10 +10566,10 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="30">
-      <c r="A211" s="77"/>
-      <c r="B211" s="77"/>
-      <c r="C211" s="77"/>
-      <c r="D211" s="86"/>
+      <c r="A211" s="102"/>
+      <c r="B211" s="102"/>
+      <c r="C211" s="102"/>
+      <c r="D211" s="97"/>
       <c r="E211" s="54" t="s">
         <v>110</v>
       </c>
@@ -10460,10 +10594,10 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="30">
-      <c r="A212" s="77"/>
-      <c r="B212" s="77"/>
-      <c r="C212" s="77"/>
-      <c r="D212" s="86"/>
+      <c r="A212" s="102"/>
+      <c r="B212" s="102"/>
+      <c r="C212" s="102"/>
+      <c r="D212" s="97"/>
       <c r="E212" s="54" t="s">
         <v>111</v>
       </c>
@@ -10488,10 +10622,10 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="45">
-      <c r="A213" s="77"/>
-      <c r="B213" s="77"/>
-      <c r="C213" s="77"/>
-      <c r="D213" s="86"/>
+      <c r="A213" s="102"/>
+      <c r="B213" s="102"/>
+      <c r="C213" s="102"/>
+      <c r="D213" s="97"/>
       <c r="E213" s="54" t="s">
         <v>132</v>
       </c>
@@ -10516,10 +10650,10 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="45">
-      <c r="A214" s="77"/>
-      <c r="B214" s="77"/>
-      <c r="C214" s="77"/>
-      <c r="D214" s="86"/>
+      <c r="A214" s="102"/>
+      <c r="B214" s="102"/>
+      <c r="C214" s="102"/>
+      <c r="D214" s="97"/>
       <c r="E214" s="54" t="s">
         <v>134</v>
       </c>
@@ -10544,10 +10678,10 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="45">
-      <c r="A215" s="77"/>
-      <c r="B215" s="77"/>
-      <c r="C215" s="77"/>
-      <c r="D215" s="86"/>
+      <c r="A215" s="102"/>
+      <c r="B215" s="102"/>
+      <c r="C215" s="102"/>
+      <c r="D215" s="97"/>
       <c r="E215" s="54" t="s">
         <v>561</v>
       </c>
@@ -10570,10 +10704,10 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="60">
-      <c r="A216" s="77"/>
-      <c r="B216" s="77"/>
-      <c r="C216" s="77"/>
-      <c r="D216" s="86"/>
+      <c r="A216" s="102"/>
+      <c r="B216" s="102"/>
+      <c r="C216" s="102"/>
+      <c r="D216" s="97"/>
       <c r="E216" s="54" t="s">
         <v>815</v>
       </c>
@@ -10596,10 +10730,10 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="45">
-      <c r="A217" s="77"/>
-      <c r="B217" s="77"/>
-      <c r="C217" s="77"/>
-      <c r="D217" s="86"/>
+      <c r="A217" s="102"/>
+      <c r="B217" s="102"/>
+      <c r="C217" s="102"/>
+      <c r="D217" s="97"/>
       <c r="E217" s="54" t="s">
         <v>818</v>
       </c>
@@ -10624,10 +10758,10 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="38.25">
-      <c r="A218" s="77"/>
-      <c r="B218" s="77"/>
-      <c r="C218" s="77"/>
-      <c r="D218" s="87"/>
+      <c r="A218" s="102"/>
+      <c r="B218" s="102"/>
+      <c r="C218" s="102"/>
+      <c r="D218" s="105"/>
       <c r="E218" s="54" t="s">
         <v>820</v>
       </c>
@@ -10650,16 +10784,16 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="51">
-      <c r="A219" s="79" t="s">
+      <c r="A219" s="98" t="s">
         <v>822</v>
       </c>
-      <c r="B219" s="79" t="s">
+      <c r="B219" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="C219" s="79" t="s">
+      <c r="C219" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="D219" s="80"/>
+      <c r="D219" s="104"/>
       <c r="E219" s="59" t="s">
         <v>12</v>
       </c>
@@ -10684,10 +10818,10 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="25.5">
-      <c r="A220" s="79"/>
-      <c r="B220" s="79"/>
-      <c r="C220" s="79"/>
-      <c r="D220" s="80"/>
+      <c r="A220" s="98"/>
+      <c r="B220" s="98"/>
+      <c r="C220" s="98"/>
+      <c r="D220" s="104"/>
       <c r="E220" s="59" t="s">
         <v>14</v>
       </c>
@@ -10710,10 +10844,10 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="30">
-      <c r="A221" s="79"/>
-      <c r="B221" s="79"/>
-      <c r="C221" s="79"/>
-      <c r="D221" s="80"/>
+      <c r="A221" s="98"/>
+      <c r="B221" s="98"/>
+      <c r="C221" s="98"/>
+      <c r="D221" s="104"/>
       <c r="E221" s="59" t="s">
         <v>16</v>
       </c>
@@ -10738,10 +10872,10 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="45">
-      <c r="A222" s="79"/>
-      <c r="B222" s="79"/>
-      <c r="C222" s="79"/>
-      <c r="D222" s="80"/>
+      <c r="A222" s="98"/>
+      <c r="B222" s="98"/>
+      <c r="C222" s="98"/>
+      <c r="D222" s="104"/>
       <c r="E222" s="59" t="s">
         <v>18</v>
       </c>
@@ -10766,10 +10900,10 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="60">
-      <c r="A223" s="79"/>
-      <c r="B223" s="79"/>
-      <c r="C223" s="79"/>
-      <c r="D223" s="80"/>
+      <c r="A223" s="98"/>
+      <c r="B223" s="98"/>
+      <c r="C223" s="98"/>
+      <c r="D223" s="104"/>
       <c r="E223" s="59" t="s">
         <v>20</v>
       </c>
@@ -10792,10 +10926,10 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="45">
-      <c r="A224" s="79"/>
-      <c r="B224" s="79"/>
-      <c r="C224" s="79"/>
-      <c r="D224" s="80"/>
+      <c r="A224" s="98"/>
+      <c r="B224" s="98"/>
+      <c r="C224" s="98"/>
+      <c r="D224" s="104"/>
       <c r="E224" s="59" t="s">
         <v>48</v>
       </c>
@@ -10820,10 +10954,10 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="38.25">
-      <c r="A225" s="79"/>
-      <c r="B225" s="79"/>
-      <c r="C225" s="79"/>
-      <c r="D225" s="80"/>
+      <c r="A225" s="98"/>
+      <c r="B225" s="98"/>
+      <c r="C225" s="98"/>
+      <c r="D225" s="104"/>
       <c r="E225" s="59" t="s">
         <v>53</v>
       </c>
@@ -10846,16 +10980,16 @@
       </c>
     </row>
     <row r="226" spans="1:12" ht="51">
-      <c r="A226" s="77" t="s">
+      <c r="A226" s="102" t="s">
         <v>848</v>
       </c>
-      <c r="B226" s="77" t="s">
+      <c r="B226" s="102" t="s">
         <v>849</v>
       </c>
-      <c r="C226" s="77" t="s">
+      <c r="C226" s="102" t="s">
         <v>849</v>
       </c>
-      <c r="D226" s="78"/>
+      <c r="D226" s="103"/>
       <c r="E226" s="54" t="s">
         <v>12</v>
       </c>
@@ -10880,10 +11014,10 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="25.5">
-      <c r="A227" s="77"/>
-      <c r="B227" s="77"/>
-      <c r="C227" s="77"/>
-      <c r="D227" s="78"/>
+      <c r="A227" s="102"/>
+      <c r="B227" s="102"/>
+      <c r="C227" s="102"/>
+      <c r="D227" s="103"/>
       <c r="E227" s="54" t="s">
         <v>14</v>
       </c>
@@ -10906,10 +11040,10 @@
       </c>
     </row>
     <row r="228" spans="1:12" ht="60">
-      <c r="A228" s="77"/>
-      <c r="B228" s="77"/>
-      <c r="C228" s="77"/>
-      <c r="D228" s="78"/>
+      <c r="A228" s="102"/>
+      <c r="B228" s="102"/>
+      <c r="C228" s="102"/>
+      <c r="D228" s="103"/>
       <c r="E228" s="54" t="s">
         <v>16</v>
       </c>
@@ -10934,10 +11068,10 @@
       </c>
     </row>
     <row r="229" spans="1:12" ht="30">
-      <c r="A229" s="77"/>
-      <c r="B229" s="77"/>
-      <c r="C229" s="77"/>
-      <c r="D229" s="78"/>
+      <c r="A229" s="102"/>
+      <c r="B229" s="102"/>
+      <c r="C229" s="102"/>
+      <c r="D229" s="103"/>
       <c r="E229" s="54" t="s">
         <v>18</v>
       </c>
@@ -10960,10 +11094,10 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="45">
-      <c r="A230" s="77"/>
-      <c r="B230" s="77"/>
-      <c r="C230" s="77"/>
-      <c r="D230" s="78"/>
+      <c r="A230" s="102"/>
+      <c r="B230" s="102"/>
+      <c r="C230" s="102"/>
+      <c r="D230" s="103"/>
       <c r="E230" s="54" t="s">
         <v>20</v>
       </c>
@@ -10988,10 +11122,10 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="38.25">
-      <c r="A231" s="77"/>
-      <c r="B231" s="77"/>
-      <c r="C231" s="77"/>
-      <c r="D231" s="78"/>
+      <c r="A231" s="102"/>
+      <c r="B231" s="102"/>
+      <c r="C231" s="102"/>
+      <c r="D231" s="103"/>
       <c r="E231" s="54" t="s">
         <v>48</v>
       </c>
@@ -11014,16 +11148,16 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="51">
-      <c r="A232" s="79" t="s">
+      <c r="A232" s="98" t="s">
         <v>868</v>
       </c>
-      <c r="B232" s="79" t="s">
+      <c r="B232" s="98" t="s">
         <v>869</v>
       </c>
-      <c r="C232" s="79" t="s">
+      <c r="C232" s="98" t="s">
         <v>869</v>
       </c>
-      <c r="D232" s="80"/>
+      <c r="D232" s="104"/>
       <c r="E232" s="59" t="s">
         <v>12</v>
       </c>
@@ -11048,10 +11182,10 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="25.5">
-      <c r="A233" s="79"/>
-      <c r="B233" s="79"/>
-      <c r="C233" s="79"/>
-      <c r="D233" s="80"/>
+      <c r="A233" s="98"/>
+      <c r="B233" s="98"/>
+      <c r="C233" s="98"/>
+      <c r="D233" s="104"/>
       <c r="E233" s="59" t="s">
         <v>14</v>
       </c>
@@ -11074,10 +11208,10 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="38.25">
-      <c r="A234" s="79"/>
-      <c r="B234" s="79"/>
-      <c r="C234" s="79"/>
-      <c r="D234" s="80"/>
+      <c r="A234" s="98"/>
+      <c r="B234" s="98"/>
+      <c r="C234" s="98"/>
+      <c r="D234" s="104"/>
       <c r="E234" s="59" t="s">
         <v>16</v>
       </c>
@@ -11102,10 +11236,10 @@
       </c>
     </row>
     <row r="235" spans="1:12" ht="30">
-      <c r="A235" s="79"/>
-      <c r="B235" s="79"/>
-      <c r="C235" s="79"/>
-      <c r="D235" s="80"/>
+      <c r="A235" s="98"/>
+      <c r="B235" s="98"/>
+      <c r="C235" s="98"/>
+      <c r="D235" s="104"/>
       <c r="E235" s="59" t="s">
         <v>18</v>
       </c>
@@ -11130,10 +11264,10 @@
       </c>
     </row>
     <row r="236" spans="1:12" ht="45">
-      <c r="A236" s="79"/>
-      <c r="B236" s="79"/>
-      <c r="C236" s="79"/>
-      <c r="D236" s="80"/>
+      <c r="A236" s="98"/>
+      <c r="B236" s="98"/>
+      <c r="C236" s="98"/>
+      <c r="D236" s="104"/>
       <c r="E236" s="59" t="s">
         <v>20</v>
       </c>
@@ -11158,10 +11292,10 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="60">
-      <c r="A237" s="79"/>
-      <c r="B237" s="79"/>
-      <c r="C237" s="79"/>
-      <c r="D237" s="80"/>
+      <c r="A237" s="98"/>
+      <c r="B237" s="98"/>
+      <c r="C237" s="98"/>
+      <c r="D237" s="104"/>
       <c r="E237" s="59" t="s">
         <v>48</v>
       </c>
@@ -11184,10 +11318,10 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="45">
-      <c r="A238" s="79"/>
-      <c r="B238" s="79"/>
-      <c r="C238" s="79"/>
-      <c r="D238" s="80"/>
+      <c r="A238" s="98"/>
+      <c r="B238" s="98"/>
+      <c r="C238" s="98"/>
+      <c r="D238" s="104"/>
       <c r="E238" s="59" t="s">
         <v>53</v>
       </c>
@@ -11212,10 +11346,10 @@
       </c>
     </row>
     <row r="239" spans="1:12" ht="38.25">
-      <c r="A239" s="79"/>
-      <c r="B239" s="79"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="80"/>
+      <c r="A239" s="98"/>
+      <c r="B239" s="98"/>
+      <c r="C239" s="98"/>
+      <c r="D239" s="104"/>
       <c r="E239" s="59" t="s">
         <v>58</v>
       </c>
@@ -11238,16 +11372,16 @@
       </c>
     </row>
     <row r="240" spans="1:12" ht="51">
-      <c r="A240" s="77" t="s">
+      <c r="A240" s="102" t="s">
         <v>893</v>
       </c>
-      <c r="B240" s="77" t="s">
+      <c r="B240" s="102" t="s">
         <v>894</v>
       </c>
-      <c r="C240" s="77" t="s">
+      <c r="C240" s="102" t="s">
         <v>894</v>
       </c>
-      <c r="D240" s="78"/>
+      <c r="D240" s="103"/>
       <c r="E240" s="54" t="s">
         <v>12</v>
       </c>
@@ -11272,10 +11406,10 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="25.5">
-      <c r="A241" s="77"/>
-      <c r="B241" s="77"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="78"/>
+      <c r="A241" s="102"/>
+      <c r="B241" s="102"/>
+      <c r="C241" s="102"/>
+      <c r="D241" s="103"/>
       <c r="E241" s="54" t="s">
         <v>14</v>
       </c>
@@ -11298,10 +11432,10 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="45">
-      <c r="A242" s="77"/>
-      <c r="B242" s="77"/>
-      <c r="C242" s="77"/>
-      <c r="D242" s="78"/>
+      <c r="A242" s="102"/>
+      <c r="B242" s="102"/>
+      <c r="C242" s="102"/>
+      <c r="D242" s="103"/>
       <c r="E242" s="54" t="s">
         <v>16</v>
       </c>
@@ -11324,10 +11458,10 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="30">
-      <c r="A243" s="77"/>
-      <c r="B243" s="77"/>
-      <c r="C243" s="77"/>
-      <c r="D243" s="78"/>
+      <c r="A243" s="102"/>
+      <c r="B243" s="102"/>
+      <c r="C243" s="102"/>
+      <c r="D243" s="103"/>
       <c r="E243" s="54" t="s">
         <v>18</v>
       </c>
@@ -11352,10 +11486,10 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="38.25">
-      <c r="A244" s="77"/>
-      <c r="B244" s="77"/>
-      <c r="C244" s="77"/>
-      <c r="D244" s="78"/>
+      <c r="A244" s="102"/>
+      <c r="B244" s="102"/>
+      <c r="C244" s="102"/>
+      <c r="D244" s="103"/>
       <c r="E244" s="54" t="s">
         <v>20</v>
       </c>
@@ -11378,16 +11512,16 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="51">
-      <c r="A245" s="79" t="s">
+      <c r="A245" s="98" t="s">
         <v>906</v>
       </c>
-      <c r="B245" s="79" t="s">
+      <c r="B245" s="98" t="s">
         <v>907</v>
       </c>
-      <c r="C245" s="79" t="s">
+      <c r="C245" s="98" t="s">
         <v>907</v>
       </c>
-      <c r="D245" s="82"/>
+      <c r="D245" s="99"/>
       <c r="E245" s="59" t="s">
         <v>12</v>
       </c>
@@ -11412,10 +11546,10 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="25.5">
-      <c r="A246" s="79"/>
-      <c r="B246" s="79"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="83"/>
+      <c r="A246" s="98"/>
+      <c r="B246" s="98"/>
+      <c r="C246" s="98"/>
+      <c r="D246" s="100"/>
       <c r="E246" s="59" t="s">
         <v>14</v>
       </c>
@@ -11438,10 +11572,10 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="25.5">
-      <c r="A247" s="79"/>
-      <c r="B247" s="79"/>
-      <c r="C247" s="79"/>
-      <c r="D247" s="83"/>
+      <c r="A247" s="98"/>
+      <c r="B247" s="98"/>
+      <c r="C247" s="98"/>
+      <c r="D247" s="100"/>
       <c r="E247" s="59" t="s">
         <v>16</v>
       </c>
@@ -11464,10 +11598,10 @@
       </c>
     </row>
     <row r="248" spans="1:12" ht="30">
-      <c r="A248" s="79"/>
-      <c r="B248" s="79"/>
-      <c r="C248" s="79"/>
-      <c r="D248" s="83"/>
+      <c r="A248" s="98"/>
+      <c r="B248" s="98"/>
+      <c r="C248" s="98"/>
+      <c r="D248" s="100"/>
       <c r="E248" s="59" t="s">
         <v>18</v>
       </c>
@@ -11492,10 +11626,10 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="30">
-      <c r="A249" s="79"/>
-      <c r="B249" s="79"/>
-      <c r="C249" s="79"/>
-      <c r="D249" s="83"/>
+      <c r="A249" s="98"/>
+      <c r="B249" s="98"/>
+      <c r="C249" s="98"/>
+      <c r="D249" s="100"/>
       <c r="E249" s="59" t="s">
         <v>20</v>
       </c>
@@ -11520,10 +11654,10 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="30">
-      <c r="A250" s="79"/>
-      <c r="B250" s="79"/>
-      <c r="C250" s="79"/>
-      <c r="D250" s="83"/>
+      <c r="A250" s="98"/>
+      <c r="B250" s="98"/>
+      <c r="C250" s="98"/>
+      <c r="D250" s="100"/>
       <c r="E250" s="59" t="s">
         <v>48</v>
       </c>
@@ -11548,10 +11682,10 @@
       </c>
     </row>
     <row r="251" spans="1:12" ht="45">
-      <c r="A251" s="79"/>
-      <c r="B251" s="79"/>
-      <c r="C251" s="79"/>
-      <c r="D251" s="83"/>
+      <c r="A251" s="98"/>
+      <c r="B251" s="98"/>
+      <c r="C251" s="98"/>
+      <c r="D251" s="100"/>
       <c r="E251" s="59" t="s">
         <v>53</v>
       </c>
@@ -11576,10 +11710,10 @@
       </c>
     </row>
     <row r="252" spans="1:12" ht="60">
-      <c r="A252" s="79"/>
-      <c r="B252" s="79"/>
-      <c r="C252" s="79"/>
-      <c r="D252" s="83"/>
+      <c r="A252" s="98"/>
+      <c r="B252" s="98"/>
+      <c r="C252" s="98"/>
+      <c r="D252" s="100"/>
       <c r="E252" s="59" t="s">
         <v>58</v>
       </c>
@@ -11602,10 +11736,10 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="30">
-      <c r="A253" s="79"/>
-      <c r="B253" s="79"/>
-      <c r="C253" s="79"/>
-      <c r="D253" s="83"/>
+      <c r="A253" s="98"/>
+      <c r="B253" s="98"/>
+      <c r="C253" s="98"/>
+      <c r="D253" s="100"/>
       <c r="E253" s="59" t="s">
         <v>64</v>
       </c>
@@ -11630,10 +11764,10 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="60">
-      <c r="A254" s="79"/>
-      <c r="B254" s="79"/>
-      <c r="C254" s="79"/>
-      <c r="D254" s="83"/>
+      <c r="A254" s="98"/>
+      <c r="B254" s="98"/>
+      <c r="C254" s="98"/>
+      <c r="D254" s="100"/>
       <c r="E254" s="59" t="s">
         <v>69</v>
       </c>
@@ -11658,10 +11792,10 @@
       </c>
     </row>
     <row r="255" spans="1:12" ht="30">
-      <c r="A255" s="79"/>
-      <c r="B255" s="79"/>
-      <c r="C255" s="79"/>
-      <c r="D255" s="83"/>
+      <c r="A255" s="98"/>
+      <c r="B255" s="98"/>
+      <c r="C255" s="98"/>
+      <c r="D255" s="100"/>
       <c r="E255" s="59" t="s">
         <v>75</v>
       </c>
@@ -11686,10 +11820,10 @@
       </c>
     </row>
     <row r="256" spans="1:12" ht="60">
-      <c r="A256" s="79"/>
-      <c r="B256" s="79"/>
-      <c r="C256" s="79"/>
-      <c r="D256" s="83"/>
+      <c r="A256" s="98"/>
+      <c r="B256" s="98"/>
+      <c r="C256" s="98"/>
+      <c r="D256" s="100"/>
       <c r="E256" s="59" t="s">
         <v>80</v>
       </c>
@@ -11714,10 +11848,10 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="30">
-      <c r="A257" s="79"/>
-      <c r="B257" s="79"/>
-      <c r="C257" s="79"/>
-      <c r="D257" s="83"/>
+      <c r="A257" s="98"/>
+      <c r="B257" s="98"/>
+      <c r="C257" s="98"/>
+      <c r="D257" s="100"/>
       <c r="E257" s="59" t="s">
         <v>86</v>
       </c>
@@ -11742,10 +11876,10 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="30">
-      <c r="A258" s="79"/>
-      <c r="B258" s="79"/>
-      <c r="C258" s="79"/>
-      <c r="D258" s="83"/>
+      <c r="A258" s="98"/>
+      <c r="B258" s="98"/>
+      <c r="C258" s="98"/>
+      <c r="D258" s="100"/>
       <c r="E258" s="59" t="s">
         <v>88</v>
       </c>
@@ -11770,10 +11904,10 @@
       </c>
     </row>
     <row r="259" spans="1:12" ht="60">
-      <c r="A259" s="79"/>
-      <c r="B259" s="79"/>
-      <c r="C259" s="79"/>
-      <c r="D259" s="83"/>
+      <c r="A259" s="98"/>
+      <c r="B259" s="98"/>
+      <c r="C259" s="98"/>
+      <c r="D259" s="100"/>
       <c r="E259" s="59" t="s">
         <v>93</v>
       </c>
@@ -11796,10 +11930,10 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="45">
-      <c r="A260" s="79"/>
-      <c r="B260" s="79"/>
-      <c r="C260" s="79"/>
-      <c r="D260" s="83"/>
+      <c r="A260" s="98"/>
+      <c r="B260" s="98"/>
+      <c r="C260" s="98"/>
+      <c r="D260" s="100"/>
       <c r="E260" s="59" t="s">
         <v>110</v>
       </c>
@@ -11824,10 +11958,10 @@
       </c>
     </row>
     <row r="261" spans="1:12" ht="38.25">
-      <c r="A261" s="79"/>
-      <c r="B261" s="79"/>
-      <c r="C261" s="79"/>
-      <c r="D261" s="84"/>
+      <c r="A261" s="98"/>
+      <c r="B261" s="98"/>
+      <c r="C261" s="98"/>
+      <c r="D261" s="106"/>
       <c r="E261" s="59" t="s">
         <v>111</v>
       </c>
@@ -11850,16 +11984,16 @@
       </c>
     </row>
     <row r="262" spans="1:12" ht="51">
-      <c r="A262" s="77" t="s">
+      <c r="A262" s="102" t="s">
         <v>965</v>
       </c>
-      <c r="B262" s="77" t="s">
+      <c r="B262" s="102" t="s">
         <v>966</v>
       </c>
-      <c r="C262" s="77" t="s">
+      <c r="C262" s="102" t="s">
         <v>966</v>
       </c>
-      <c r="D262" s="85"/>
+      <c r="D262" s="96"/>
       <c r="E262" s="54" t="s">
         <v>12</v>
       </c>
@@ -11884,10 +12018,10 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="25.5">
-      <c r="A263" s="77"/>
-      <c r="B263" s="77"/>
-      <c r="C263" s="77"/>
-      <c r="D263" s="86"/>
+      <c r="A263" s="102"/>
+      <c r="B263" s="102"/>
+      <c r="C263" s="102"/>
+      <c r="D263" s="97"/>
       <c r="E263" s="54" t="s">
         <v>14</v>
       </c>
@@ -11910,10 +12044,10 @@
       </c>
     </row>
     <row r="264" spans="1:12" ht="25.5">
-      <c r="A264" s="77"/>
-      <c r="B264" s="77"/>
-      <c r="C264" s="77"/>
-      <c r="D264" s="86"/>
+      <c r="A264" s="102"/>
+      <c r="B264" s="102"/>
+      <c r="C264" s="102"/>
+      <c r="D264" s="97"/>
       <c r="E264" s="54" t="s">
         <v>16</v>
       </c>
@@ -11936,10 +12070,10 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="30">
-      <c r="A265" s="77"/>
-      <c r="B265" s="77"/>
-      <c r="C265" s="77"/>
-      <c r="D265" s="86"/>
+      <c r="A265" s="102"/>
+      <c r="B265" s="102"/>
+      <c r="C265" s="102"/>
+      <c r="D265" s="97"/>
       <c r="E265" s="54" t="s">
         <v>18</v>
       </c>
@@ -11964,10 +12098,10 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="30">
-      <c r="A266" s="77"/>
-      <c r="B266" s="77"/>
-      <c r="C266" s="77"/>
-      <c r="D266" s="86"/>
+      <c r="A266" s="102"/>
+      <c r="B266" s="102"/>
+      <c r="C266" s="102"/>
+      <c r="D266" s="97"/>
       <c r="E266" s="54" t="s">
         <v>20</v>
       </c>
@@ -11992,10 +12126,10 @@
       </c>
     </row>
     <row r="267" spans="1:12" ht="30">
-      <c r="A267" s="77"/>
-      <c r="B267" s="77"/>
-      <c r="C267" s="77"/>
-      <c r="D267" s="86"/>
+      <c r="A267" s="102"/>
+      <c r="B267" s="102"/>
+      <c r="C267" s="102"/>
+      <c r="D267" s="97"/>
       <c r="E267" s="54" t="s">
         <v>48</v>
       </c>
@@ -12020,10 +12154,10 @@
       </c>
     </row>
     <row r="268" spans="1:12" ht="45">
-      <c r="A268" s="77"/>
-      <c r="B268" s="77"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="86"/>
+      <c r="A268" s="102"/>
+      <c r="B268" s="102"/>
+      <c r="C268" s="102"/>
+      <c r="D268" s="97"/>
       <c r="E268" s="54" t="s">
         <v>53</v>
       </c>
@@ -12048,10 +12182,10 @@
       </c>
     </row>
     <row r="269" spans="1:12" ht="60">
-      <c r="A269" s="77"/>
-      <c r="B269" s="77"/>
-      <c r="C269" s="77"/>
-      <c r="D269" s="86"/>
+      <c r="A269" s="102"/>
+      <c r="B269" s="102"/>
+      <c r="C269" s="102"/>
+      <c r="D269" s="97"/>
       <c r="E269" s="54" t="s">
         <v>58</v>
       </c>
@@ -12074,10 +12208,10 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="30">
-      <c r="A270" s="77"/>
-      <c r="B270" s="77"/>
-      <c r="C270" s="77"/>
-      <c r="D270" s="86"/>
+      <c r="A270" s="102"/>
+      <c r="B270" s="102"/>
+      <c r="C270" s="102"/>
+      <c r="D270" s="97"/>
       <c r="E270" s="54" t="s">
         <v>64</v>
       </c>
@@ -12102,10 +12236,10 @@
       </c>
     </row>
     <row r="271" spans="1:12" ht="60">
-      <c r="A271" s="77"/>
-      <c r="B271" s="77"/>
-      <c r="C271" s="77"/>
-      <c r="D271" s="86"/>
+      <c r="A271" s="102"/>
+      <c r="B271" s="102"/>
+      <c r="C271" s="102"/>
+      <c r="D271" s="97"/>
       <c r="E271" s="54" t="s">
         <v>69</v>
       </c>
@@ -12130,10 +12264,10 @@
       </c>
     </row>
     <row r="272" spans="1:12" ht="30">
-      <c r="A272" s="77"/>
-      <c r="B272" s="77"/>
-      <c r="C272" s="77"/>
-      <c r="D272" s="86"/>
+      <c r="A272" s="102"/>
+      <c r="B272" s="102"/>
+      <c r="C272" s="102"/>
+      <c r="D272" s="97"/>
       <c r="E272" s="54" t="s">
         <v>75</v>
       </c>
@@ -12158,10 +12292,10 @@
       </c>
     </row>
     <row r="273" spans="1:12" ht="60">
-      <c r="A273" s="77"/>
-      <c r="B273" s="77"/>
-      <c r="C273" s="77"/>
-      <c r="D273" s="86"/>
+      <c r="A273" s="102"/>
+      <c r="B273" s="102"/>
+      <c r="C273" s="102"/>
+      <c r="D273" s="97"/>
       <c r="E273" s="54" t="s">
         <v>80</v>
       </c>
@@ -12186,10 +12320,10 @@
       </c>
     </row>
     <row r="274" spans="1:12" ht="30">
-      <c r="A274" s="77"/>
-      <c r="B274" s="77"/>
-      <c r="C274" s="77"/>
-      <c r="D274" s="86"/>
+      <c r="A274" s="102"/>
+      <c r="B274" s="102"/>
+      <c r="C274" s="102"/>
+      <c r="D274" s="97"/>
       <c r="E274" s="54" t="s">
         <v>86</v>
       </c>
@@ -12214,10 +12348,10 @@
       </c>
     </row>
     <row r="275" spans="1:12" ht="30">
-      <c r="A275" s="77"/>
-      <c r="B275" s="77"/>
-      <c r="C275" s="77"/>
-      <c r="D275" s="86"/>
+      <c r="A275" s="102"/>
+      <c r="B275" s="102"/>
+      <c r="C275" s="102"/>
+      <c r="D275" s="97"/>
       <c r="E275" s="54" t="s">
         <v>88</v>
       </c>
@@ -12242,10 +12376,10 @@
       </c>
     </row>
     <row r="276" spans="1:12" ht="60">
-      <c r="A276" s="77"/>
-      <c r="B276" s="77"/>
-      <c r="C276" s="77"/>
-      <c r="D276" s="86"/>
+      <c r="A276" s="102"/>
+      <c r="B276" s="102"/>
+      <c r="C276" s="102"/>
+      <c r="D276" s="97"/>
       <c r="E276" s="54" t="s">
         <v>93</v>
       </c>
@@ -12268,10 +12402,10 @@
       </c>
     </row>
     <row r="277" spans="1:12" ht="30">
-      <c r="A277" s="77"/>
-      <c r="B277" s="77"/>
-      <c r="C277" s="77"/>
-      <c r="D277" s="86"/>
+      <c r="A277" s="102"/>
+      <c r="B277" s="102"/>
+      <c r="C277" s="102"/>
+      <c r="D277" s="97"/>
       <c r="E277" s="54" t="s">
         <v>110</v>
       </c>
@@ -12296,10 +12430,10 @@
       </c>
     </row>
     <row r="278" spans="1:12" ht="45">
-      <c r="A278" s="77"/>
-      <c r="B278" s="77"/>
-      <c r="C278" s="77"/>
-      <c r="D278" s="86"/>
+      <c r="A278" s="102"/>
+      <c r="B278" s="102"/>
+      <c r="C278" s="102"/>
+      <c r="D278" s="97"/>
       <c r="E278" s="54" t="s">
         <v>111</v>
       </c>
@@ -12322,10 +12456,10 @@
       </c>
     </row>
     <row r="279" spans="1:12" ht="30">
-      <c r="A279" s="77"/>
-      <c r="B279" s="77"/>
-      <c r="C279" s="77"/>
-      <c r="D279" s="86"/>
+      <c r="A279" s="102"/>
+      <c r="B279" s="102"/>
+      <c r="C279" s="102"/>
+      <c r="D279" s="97"/>
       <c r="E279" s="54" t="s">
         <v>132</v>
       </c>
@@ -12350,10 +12484,10 @@
       </c>
     </row>
     <row r="280" spans="1:12" ht="30">
-      <c r="A280" s="77"/>
-      <c r="B280" s="77"/>
-      <c r="C280" s="77"/>
-      <c r="D280" s="86"/>
+      <c r="A280" s="102"/>
+      <c r="B280" s="102"/>
+      <c r="C280" s="102"/>
+      <c r="D280" s="97"/>
       <c r="E280" s="54" t="s">
         <v>134</v>
       </c>
@@ -12378,10 +12512,10 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="30">
-      <c r="A281" s="77"/>
-      <c r="B281" s="77"/>
-      <c r="C281" s="77"/>
-      <c r="D281" s="86"/>
+      <c r="A281" s="102"/>
+      <c r="B281" s="102"/>
+      <c r="C281" s="102"/>
+      <c r="D281" s="97"/>
       <c r="E281" s="54" t="s">
         <v>561</v>
       </c>
@@ -12406,10 +12540,10 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="45">
-      <c r="A282" s="77"/>
-      <c r="B282" s="77"/>
-      <c r="C282" s="77"/>
-      <c r="D282" s="86"/>
+      <c r="A282" s="102"/>
+      <c r="B282" s="102"/>
+      <c r="C282" s="102"/>
+      <c r="D282" s="97"/>
       <c r="E282" s="54" t="s">
         <v>815</v>
       </c>
@@ -12434,10 +12568,10 @@
       </c>
     </row>
     <row r="283" spans="1:12" ht="60">
-      <c r="A283" s="77"/>
-      <c r="B283" s="77"/>
-      <c r="C283" s="77"/>
-      <c r="D283" s="86"/>
+      <c r="A283" s="102"/>
+      <c r="B283" s="102"/>
+      <c r="C283" s="102"/>
+      <c r="D283" s="97"/>
       <c r="E283" s="54" t="s">
         <v>818</v>
       </c>
@@ -12460,10 +12594,10 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="30">
-      <c r="A284" s="77"/>
-      <c r="B284" s="77"/>
-      <c r="C284" s="77"/>
-      <c r="D284" s="86"/>
+      <c r="A284" s="102"/>
+      <c r="B284" s="102"/>
+      <c r="C284" s="102"/>
+      <c r="D284" s="97"/>
       <c r="E284" s="54" t="s">
         <v>820</v>
       </c>
@@ -12488,10 +12622,10 @@
       </c>
     </row>
     <row r="285" spans="1:12" ht="60">
-      <c r="A285" s="77"/>
-      <c r="B285" s="77"/>
-      <c r="C285" s="77"/>
-      <c r="D285" s="86"/>
+      <c r="A285" s="102"/>
+      <c r="B285" s="102"/>
+      <c r="C285" s="102"/>
+      <c r="D285" s="97"/>
       <c r="E285" s="54" t="s">
         <v>1003</v>
       </c>
@@ -12516,10 +12650,10 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="30">
-      <c r="A286" s="77"/>
-      <c r="B286" s="77"/>
-      <c r="C286" s="77"/>
-      <c r="D286" s="86"/>
+      <c r="A286" s="102"/>
+      <c r="B286" s="102"/>
+      <c r="C286" s="102"/>
+      <c r="D286" s="97"/>
       <c r="E286" s="54" t="s">
         <v>1005</v>
       </c>
@@ -12544,10 +12678,10 @@
       </c>
     </row>
     <row r="287" spans="1:12" ht="60">
-      <c r="A287" s="77"/>
-      <c r="B287" s="77"/>
-      <c r="C287" s="77"/>
-      <c r="D287" s="86"/>
+      <c r="A287" s="102"/>
+      <c r="B287" s="102"/>
+      <c r="C287" s="102"/>
+      <c r="D287" s="97"/>
       <c r="E287" s="54" t="s">
         <v>1007</v>
       </c>
@@ -12572,10 +12706,10 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="30">
-      <c r="A288" s="77"/>
-      <c r="B288" s="77"/>
-      <c r="C288" s="77"/>
-      <c r="D288" s="86"/>
+      <c r="A288" s="102"/>
+      <c r="B288" s="102"/>
+      <c r="C288" s="102"/>
+      <c r="D288" s="97"/>
       <c r="E288" s="54" t="s">
         <v>1009</v>
       </c>
@@ -12600,10 +12734,10 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="30">
-      <c r="A289" s="77"/>
-      <c r="B289" s="77"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="86"/>
+      <c r="A289" s="102"/>
+      <c r="B289" s="102"/>
+      <c r="C289" s="102"/>
+      <c r="D289" s="97"/>
       <c r="E289" s="54" t="s">
         <v>1011</v>
       </c>
@@ -12628,10 +12762,10 @@
       </c>
     </row>
     <row r="290" spans="1:12" ht="60">
-      <c r="A290" s="77"/>
-      <c r="B290" s="77"/>
-      <c r="C290" s="77"/>
-      <c r="D290" s="86"/>
+      <c r="A290" s="102"/>
+      <c r="B290" s="102"/>
+      <c r="C290" s="102"/>
+      <c r="D290" s="97"/>
       <c r="E290" s="54" t="s">
         <v>1013</v>
       </c>
@@ -12654,10 +12788,10 @@
       </c>
     </row>
     <row r="291" spans="1:12" ht="45">
-      <c r="A291" s="77"/>
-      <c r="B291" s="77"/>
-      <c r="C291" s="77"/>
-      <c r="D291" s="86"/>
+      <c r="A291" s="102"/>
+      <c r="B291" s="102"/>
+      <c r="C291" s="102"/>
+      <c r="D291" s="97"/>
       <c r="E291" s="54" t="s">
         <v>1015</v>
       </c>
@@ -12682,10 +12816,10 @@
       </c>
     </row>
     <row r="292" spans="1:12" ht="38.25">
-      <c r="A292" s="77"/>
-      <c r="B292" s="77"/>
-      <c r="C292" s="77"/>
-      <c r="D292" s="87"/>
+      <c r="A292" s="102"/>
+      <c r="B292" s="102"/>
+      <c r="C292" s="102"/>
+      <c r="D292" s="105"/>
       <c r="E292" s="54" t="s">
         <v>1021</v>
       </c>
@@ -12708,16 +12842,16 @@
       </c>
     </row>
     <row r="293" spans="1:12" ht="51">
-      <c r="A293" s="79" t="s">
+      <c r="A293" s="98" t="s">
         <v>1023</v>
       </c>
-      <c r="B293" s="79" t="s">
+      <c r="B293" s="98" t="s">
         <v>1024</v>
       </c>
-      <c r="C293" s="79" t="s">
+      <c r="C293" s="98" t="s">
         <v>1024</v>
       </c>
-      <c r="D293" s="80"/>
+      <c r="D293" s="104"/>
       <c r="E293" s="59" t="s">
         <v>12</v>
       </c>
@@ -12742,10 +12876,10 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="25.5">
-      <c r="A294" s="79"/>
-      <c r="B294" s="79"/>
-      <c r="C294" s="79"/>
-      <c r="D294" s="80"/>
+      <c r="A294" s="98"/>
+      <c r="B294" s="98"/>
+      <c r="C294" s="98"/>
+      <c r="D294" s="104"/>
       <c r="E294" s="59" t="s">
         <v>14</v>
       </c>
@@ -12768,10 +12902,10 @@
       </c>
     </row>
     <row r="295" spans="1:12" ht="30">
-      <c r="A295" s="79"/>
-      <c r="B295" s="79"/>
-      <c r="C295" s="79"/>
-      <c r="D295" s="80"/>
+      <c r="A295" s="98"/>
+      <c r="B295" s="98"/>
+      <c r="C295" s="98"/>
+      <c r="D295" s="104"/>
       <c r="E295" s="59" t="s">
         <v>16</v>
       </c>
@@ -12796,10 +12930,10 @@
       </c>
     </row>
     <row r="296" spans="1:12" ht="45">
-      <c r="A296" s="79"/>
-      <c r="B296" s="79"/>
-      <c r="C296" s="79"/>
-      <c r="D296" s="80"/>
+      <c r="A296" s="98"/>
+      <c r="B296" s="98"/>
+      <c r="C296" s="98"/>
+      <c r="D296" s="104"/>
       <c r="E296" s="59" t="s">
         <v>18</v>
       </c>
@@ -12824,10 +12958,10 @@
       </c>
     </row>
     <row r="297" spans="1:12" ht="60">
-      <c r="A297" s="79"/>
-      <c r="B297" s="79"/>
-      <c r="C297" s="79"/>
-      <c r="D297" s="80"/>
+      <c r="A297" s="98"/>
+      <c r="B297" s="98"/>
+      <c r="C297" s="98"/>
+      <c r="D297" s="104"/>
       <c r="E297" s="59" t="s">
         <v>20</v>
       </c>
@@ -12850,10 +12984,10 @@
       </c>
     </row>
     <row r="298" spans="1:12" ht="45">
-      <c r="A298" s="79"/>
-      <c r="B298" s="79"/>
-      <c r="C298" s="79"/>
-      <c r="D298" s="80"/>
+      <c r="A298" s="98"/>
+      <c r="B298" s="98"/>
+      <c r="C298" s="98"/>
+      <c r="D298" s="104"/>
       <c r="E298" s="59" t="s">
         <v>48</v>
       </c>
@@ -12878,10 +13012,10 @@
       </c>
     </row>
     <row r="299" spans="1:12" ht="38.25">
-      <c r="A299" s="79"/>
-      <c r="B299" s="79"/>
-      <c r="C299" s="79"/>
-      <c r="D299" s="80"/>
+      <c r="A299" s="98"/>
+      <c r="B299" s="98"/>
+      <c r="C299" s="98"/>
+      <c r="D299" s="104"/>
       <c r="E299" s="59" t="s">
         <v>53</v>
       </c>
@@ -12904,16 +13038,16 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="51">
-      <c r="A300" s="77" t="s">
+      <c r="A300" s="102" t="s">
         <v>1051</v>
       </c>
-      <c r="B300" s="77" t="s">
+      <c r="B300" s="102" t="s">
         <v>1052</v>
       </c>
-      <c r="C300" s="77" t="s">
+      <c r="C300" s="102" t="s">
         <v>1052</v>
       </c>
-      <c r="D300" s="78"/>
+      <c r="D300" s="103"/>
       <c r="E300" s="54" t="s">
         <v>12</v>
       </c>
@@ -12938,10 +13072,10 @@
       </c>
     </row>
     <row r="301" spans="1:12" ht="25.5">
-      <c r="A301" s="77"/>
-      <c r="B301" s="77"/>
-      <c r="C301" s="77"/>
-      <c r="D301" s="78"/>
+      <c r="A301" s="102"/>
+      <c r="B301" s="102"/>
+      <c r="C301" s="102"/>
+      <c r="D301" s="103"/>
       <c r="E301" s="54" t="s">
         <v>14</v>
       </c>
@@ -12964,10 +13098,10 @@
       </c>
     </row>
     <row r="302" spans="1:12" ht="60">
-      <c r="A302" s="77"/>
-      <c r="B302" s="77"/>
-      <c r="C302" s="77"/>
-      <c r="D302" s="78"/>
+      <c r="A302" s="102"/>
+      <c r="B302" s="102"/>
+      <c r="C302" s="102"/>
+      <c r="D302" s="103"/>
       <c r="E302" s="54" t="s">
         <v>16</v>
       </c>
@@ -12992,10 +13126,10 @@
       </c>
     </row>
     <row r="303" spans="1:12" ht="30">
-      <c r="A303" s="77"/>
-      <c r="B303" s="77"/>
-      <c r="C303" s="77"/>
-      <c r="D303" s="78"/>
+      <c r="A303" s="102"/>
+      <c r="B303" s="102"/>
+      <c r="C303" s="102"/>
+      <c r="D303" s="103"/>
       <c r="E303" s="54" t="s">
         <v>18</v>
       </c>
@@ -13018,10 +13152,10 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="45">
-      <c r="A304" s="77"/>
-      <c r="B304" s="77"/>
-      <c r="C304" s="77"/>
-      <c r="D304" s="78"/>
+      <c r="A304" s="102"/>
+      <c r="B304" s="102"/>
+      <c r="C304" s="102"/>
+      <c r="D304" s="103"/>
       <c r="E304" s="54" t="s">
         <v>20</v>
       </c>
@@ -13046,10 +13180,10 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="38.25">
-      <c r="A305" s="77"/>
-      <c r="B305" s="77"/>
-      <c r="C305" s="77"/>
-      <c r="D305" s="78"/>
+      <c r="A305" s="102"/>
+      <c r="B305" s="102"/>
+      <c r="C305" s="102"/>
+      <c r="D305" s="103"/>
       <c r="E305" s="54" t="s">
         <v>48</v>
       </c>
@@ -13072,16 +13206,16 @@
       </c>
     </row>
     <row r="306" spans="1:12" ht="51">
-      <c r="A306" s="79" t="s">
+      <c r="A306" s="98" t="s">
         <v>1064</v>
       </c>
-      <c r="B306" s="79" t="s">
+      <c r="B306" s="98" t="s">
         <v>1065</v>
       </c>
-      <c r="C306" s="79" t="s">
+      <c r="C306" s="98" t="s">
         <v>1065</v>
       </c>
-      <c r="D306" s="80"/>
+      <c r="D306" s="104"/>
       <c r="E306" s="59" t="s">
         <v>12</v>
       </c>
@@ -13106,10 +13240,10 @@
       </c>
     </row>
     <row r="307" spans="1:12" ht="25.5">
-      <c r="A307" s="79"/>
-      <c r="B307" s="79"/>
-      <c r="C307" s="79"/>
-      <c r="D307" s="80"/>
+      <c r="A307" s="98"/>
+      <c r="B307" s="98"/>
+      <c r="C307" s="98"/>
+      <c r="D307" s="104"/>
       <c r="E307" s="59" t="s">
         <v>14</v>
       </c>
@@ -13132,10 +13266,10 @@
       </c>
     </row>
     <row r="308" spans="1:12" ht="38.25">
-      <c r="A308" s="79"/>
-      <c r="B308" s="79"/>
-      <c r="C308" s="79"/>
-      <c r="D308" s="80"/>
+      <c r="A308" s="98"/>
+      <c r="B308" s="98"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="104"/>
       <c r="E308" s="59" t="s">
         <v>16</v>
       </c>
@@ -13160,10 +13294,10 @@
       </c>
     </row>
     <row r="309" spans="1:12" ht="30">
-      <c r="A309" s="79"/>
-      <c r="B309" s="79"/>
-      <c r="C309" s="79"/>
-      <c r="D309" s="80"/>
+      <c r="A309" s="98"/>
+      <c r="B309" s="98"/>
+      <c r="C309" s="98"/>
+      <c r="D309" s="104"/>
       <c r="E309" s="59" t="s">
         <v>18</v>
       </c>
@@ -13188,10 +13322,10 @@
       </c>
     </row>
     <row r="310" spans="1:12" ht="45">
-      <c r="A310" s="79"/>
-      <c r="B310" s="79"/>
-      <c r="C310" s="79"/>
-      <c r="D310" s="80"/>
+      <c r="A310" s="98"/>
+      <c r="B310" s="98"/>
+      <c r="C310" s="98"/>
+      <c r="D310" s="104"/>
       <c r="E310" s="59" t="s">
         <v>20</v>
       </c>
@@ -13216,10 +13350,10 @@
       </c>
     </row>
     <row r="311" spans="1:12" ht="60">
-      <c r="A311" s="79"/>
-      <c r="B311" s="79"/>
-      <c r="C311" s="79"/>
-      <c r="D311" s="80"/>
+      <c r="A311" s="98"/>
+      <c r="B311" s="98"/>
+      <c r="C311" s="98"/>
+      <c r="D311" s="104"/>
       <c r="E311" s="59" t="s">
         <v>48</v>
       </c>
@@ -13242,10 +13376,10 @@
       </c>
     </row>
     <row r="312" spans="1:12" ht="45">
-      <c r="A312" s="79"/>
-      <c r="B312" s="79"/>
-      <c r="C312" s="79"/>
-      <c r="D312" s="80"/>
+      <c r="A312" s="98"/>
+      <c r="B312" s="98"/>
+      <c r="C312" s="98"/>
+      <c r="D312" s="104"/>
       <c r="E312" s="59" t="s">
         <v>53</v>
       </c>
@@ -13270,10 +13404,10 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="38.25">
-      <c r="A313" s="79"/>
-      <c r="B313" s="79"/>
-      <c r="C313" s="79"/>
-      <c r="D313" s="80"/>
+      <c r="A313" s="98"/>
+      <c r="B313" s="98"/>
+      <c r="C313" s="98"/>
+      <c r="D313" s="104"/>
       <c r="E313" s="59" t="s">
         <v>58</v>
       </c>
@@ -13296,16 +13430,16 @@
       </c>
     </row>
     <row r="314" spans="1:12" ht="51">
-      <c r="A314" s="77" t="s">
+      <c r="A314" s="102" t="s">
         <v>1089</v>
       </c>
-      <c r="B314" s="77" t="s">
+      <c r="B314" s="102" t="s">
         <v>1090</v>
       </c>
-      <c r="C314" s="77" t="s">
+      <c r="C314" s="102" t="s">
         <v>1090</v>
       </c>
-      <c r="D314" s="78"/>
+      <c r="D314" s="103"/>
       <c r="E314" s="54" t="s">
         <v>12</v>
       </c>
@@ -13330,10 +13464,10 @@
       </c>
     </row>
     <row r="315" spans="1:12" ht="25.5">
-      <c r="A315" s="77"/>
-      <c r="B315" s="77"/>
-      <c r="C315" s="77"/>
-      <c r="D315" s="78"/>
+      <c r="A315" s="102"/>
+      <c r="B315" s="102"/>
+      <c r="C315" s="102"/>
+      <c r="D315" s="103"/>
       <c r="E315" s="54" t="s">
         <v>14</v>
       </c>
@@ -13356,10 +13490,10 @@
       </c>
     </row>
     <row r="316" spans="1:12" ht="45">
-      <c r="A316" s="77"/>
-      <c r="B316" s="77"/>
-      <c r="C316" s="77"/>
-      <c r="D316" s="78"/>
+      <c r="A316" s="102"/>
+      <c r="B316" s="102"/>
+      <c r="C316" s="102"/>
+      <c r="D316" s="103"/>
       <c r="E316" s="54" t="s">
         <v>16</v>
       </c>
@@ -13382,10 +13516,10 @@
       </c>
     </row>
     <row r="317" spans="1:12" ht="30">
-      <c r="A317" s="77"/>
-      <c r="B317" s="77"/>
-      <c r="C317" s="77"/>
-      <c r="D317" s="78"/>
+      <c r="A317" s="102"/>
+      <c r="B317" s="102"/>
+      <c r="C317" s="102"/>
+      <c r="D317" s="103"/>
       <c r="E317" s="54" t="s">
         <v>18</v>
       </c>
@@ -13410,10 +13544,10 @@
       </c>
     </row>
     <row r="318" spans="1:12" ht="38.25">
-      <c r="A318" s="77"/>
-      <c r="B318" s="77"/>
-      <c r="C318" s="77"/>
-      <c r="D318" s="78"/>
+      <c r="A318" s="102"/>
+      <c r="B318" s="102"/>
+      <c r="C318" s="102"/>
+      <c r="D318" s="103"/>
       <c r="E318" s="54" t="s">
         <v>20</v>
       </c>
@@ -13436,16 +13570,16 @@
       </c>
     </row>
     <row r="319" spans="1:12" ht="51">
-      <c r="A319" s="79" t="s">
+      <c r="A319" s="98" t="s">
         <v>1101</v>
       </c>
-      <c r="B319" s="79" t="s">
+      <c r="B319" s="98" t="s">
         <v>1102</v>
       </c>
-      <c r="C319" s="79" t="s">
+      <c r="C319" s="98" t="s">
         <v>1102</v>
       </c>
-      <c r="D319" s="80"/>
+      <c r="D319" s="104"/>
       <c r="E319" s="59" t="s">
         <v>12</v>
       </c>
@@ -13470,10 +13604,10 @@
       </c>
     </row>
     <row r="320" spans="1:12" ht="25.5">
-      <c r="A320" s="79"/>
-      <c r="B320" s="79"/>
-      <c r="C320" s="79"/>
-      <c r="D320" s="80"/>
+      <c r="A320" s="98"/>
+      <c r="B320" s="98"/>
+      <c r="C320" s="98"/>
+      <c r="D320" s="104"/>
       <c r="E320" s="59" t="s">
         <v>14</v>
       </c>
@@ -13496,10 +13630,10 @@
       </c>
     </row>
     <row r="321" spans="1:12" ht="45">
-      <c r="A321" s="79"/>
-      <c r="B321" s="79"/>
-      <c r="C321" s="79"/>
-      <c r="D321" s="80"/>
+      <c r="A321" s="98"/>
+      <c r="B321" s="98"/>
+      <c r="C321" s="98"/>
+      <c r="D321" s="104"/>
       <c r="E321" s="59" t="s">
         <v>16</v>
       </c>
@@ -13524,10 +13658,10 @@
       </c>
     </row>
     <row r="322" spans="1:12" ht="30">
-      <c r="A322" s="79"/>
-      <c r="B322" s="79"/>
-      <c r="C322" s="79"/>
-      <c r="D322" s="80"/>
+      <c r="A322" s="98"/>
+      <c r="B322" s="98"/>
+      <c r="C322" s="98"/>
+      <c r="D322" s="104"/>
       <c r="E322" s="59" t="s">
         <v>18</v>
       </c>
@@ -13552,10 +13686,10 @@
       </c>
     </row>
     <row r="323" spans="1:12" ht="45">
-      <c r="A323" s="79"/>
-      <c r="B323" s="79"/>
-      <c r="C323" s="79"/>
-      <c r="D323" s="80"/>
+      <c r="A323" s="98"/>
+      <c r="B323" s="98"/>
+      <c r="C323" s="98"/>
+      <c r="D323" s="104"/>
       <c r="E323" s="59" t="s">
         <v>20</v>
       </c>
@@ -13578,10 +13712,10 @@
       </c>
     </row>
     <row r="324" spans="1:12" ht="30">
-      <c r="A324" s="79"/>
-      <c r="B324" s="79"/>
-      <c r="C324" s="79"/>
-      <c r="D324" s="80"/>
+      <c r="A324" s="98"/>
+      <c r="B324" s="98"/>
+      <c r="C324" s="98"/>
+      <c r="D324" s="104"/>
       <c r="E324" s="59" t="s">
         <v>48</v>
       </c>
@@ -13604,10 +13738,10 @@
       </c>
     </row>
     <row r="325" spans="1:12" ht="60">
-      <c r="A325" s="79"/>
-      <c r="B325" s="79"/>
-      <c r="C325" s="79"/>
-      <c r="D325" s="80"/>
+      <c r="A325" s="98"/>
+      <c r="B325" s="98"/>
+      <c r="C325" s="98"/>
+      <c r="D325" s="104"/>
       <c r="E325" s="59" t="s">
         <v>53</v>
       </c>
@@ -13630,10 +13764,10 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="38.25">
-      <c r="A326" s="79"/>
-      <c r="B326" s="79"/>
-      <c r="C326" s="79"/>
-      <c r="D326" s="80"/>
+      <c r="A326" s="98"/>
+      <c r="B326" s="98"/>
+      <c r="C326" s="98"/>
+      <c r="D326" s="104"/>
       <c r="E326" s="59" t="s">
         <v>58</v>
       </c>
@@ -13656,16 +13790,16 @@
       </c>
     </row>
     <row r="327" spans="1:12" ht="51">
-      <c r="A327" s="77" t="s">
+      <c r="A327" s="102" t="s">
         <v>1130</v>
       </c>
-      <c r="B327" s="77" t="s">
+      <c r="B327" s="102" t="s">
         <v>1131</v>
       </c>
-      <c r="C327" s="77" t="s">
+      <c r="C327" s="102" t="s">
         <v>1131</v>
       </c>
-      <c r="D327" s="78"/>
+      <c r="D327" s="103"/>
       <c r="E327" s="54" t="s">
         <v>12</v>
       </c>
@@ -13690,10 +13824,10 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="25.5">
-      <c r="A328" s="77"/>
-      <c r="B328" s="77"/>
-      <c r="C328" s="77"/>
-      <c r="D328" s="78"/>
+      <c r="A328" s="102"/>
+      <c r="B328" s="102"/>
+      <c r="C328" s="102"/>
+      <c r="D328" s="103"/>
       <c r="E328" s="54" t="s">
         <v>14</v>
       </c>
@@ -13716,10 +13850,10 @@
       </c>
     </row>
     <row r="329" spans="1:12" ht="45">
-      <c r="A329" s="77"/>
-      <c r="B329" s="77"/>
-      <c r="C329" s="77"/>
-      <c r="D329" s="78"/>
+      <c r="A329" s="102"/>
+      <c r="B329" s="102"/>
+      <c r="C329" s="102"/>
+      <c r="D329" s="103"/>
       <c r="E329" s="54" t="s">
         <v>16</v>
       </c>
@@ -13744,10 +13878,10 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="45">
-      <c r="A330" s="77"/>
-      <c r="B330" s="77"/>
-      <c r="C330" s="77"/>
-      <c r="D330" s="78"/>
+      <c r="A330" s="102"/>
+      <c r="B330" s="102"/>
+      <c r="C330" s="102"/>
+      <c r="D330" s="103"/>
       <c r="E330" s="54" t="s">
         <v>18</v>
       </c>
@@ -13772,10 +13906,10 @@
       </c>
     </row>
     <row r="331" spans="1:12" ht="30">
-      <c r="A331" s="77"/>
-      <c r="B331" s="77"/>
-      <c r="C331" s="77"/>
-      <c r="D331" s="78"/>
+      <c r="A331" s="102"/>
+      <c r="B331" s="102"/>
+      <c r="C331" s="102"/>
+      <c r="D331" s="103"/>
       <c r="E331" s="54" t="s">
         <v>20</v>
       </c>
@@ -13800,10 +13934,10 @@
       </c>
     </row>
     <row r="332" spans="1:12" ht="45">
-      <c r="A332" s="77"/>
-      <c r="B332" s="77"/>
-      <c r="C332" s="77"/>
-      <c r="D332" s="78"/>
+      <c r="A332" s="102"/>
+      <c r="B332" s="102"/>
+      <c r="C332" s="102"/>
+      <c r="D332" s="103"/>
       <c r="E332" s="54" t="s">
         <v>48</v>
       </c>
@@ -13826,10 +13960,10 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="30">
-      <c r="A333" s="77"/>
-      <c r="B333" s="77"/>
-      <c r="C333" s="77"/>
-      <c r="D333" s="78"/>
+      <c r="A333" s="102"/>
+      <c r="B333" s="102"/>
+      <c r="C333" s="102"/>
+      <c r="D333" s="103"/>
       <c r="E333" s="54" t="s">
         <v>53</v>
       </c>
@@ -13852,10 +13986,10 @@
       </c>
     </row>
     <row r="334" spans="1:12" ht="60">
-      <c r="A334" s="77"/>
-      <c r="B334" s="77"/>
-      <c r="C334" s="77"/>
-      <c r="D334" s="78"/>
+      <c r="A334" s="102"/>
+      <c r="B334" s="102"/>
+      <c r="C334" s="102"/>
+      <c r="D334" s="103"/>
       <c r="E334" s="54" t="s">
         <v>58</v>
       </c>
@@ -13878,10 +14012,10 @@
       </c>
     </row>
     <row r="335" spans="1:12" ht="38.25">
-      <c r="A335" s="77"/>
-      <c r="B335" s="77"/>
-      <c r="C335" s="77"/>
-      <c r="D335" s="78"/>
+      <c r="A335" s="102"/>
+      <c r="B335" s="102"/>
+      <c r="C335" s="102"/>
+      <c r="D335" s="103"/>
       <c r="E335" s="54" t="s">
         <v>64</v>
       </c>
@@ -13904,16 +14038,16 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="51">
-      <c r="A336" s="79" t="s">
+      <c r="A336" s="98" t="s">
         <v>1144</v>
       </c>
-      <c r="B336" s="79" t="s">
+      <c r="B336" s="98" t="s">
         <v>1145</v>
       </c>
-      <c r="C336" s="79" t="s">
+      <c r="C336" s="98" t="s">
         <v>1145</v>
       </c>
-      <c r="D336" s="80"/>
+      <c r="D336" s="104"/>
       <c r="E336" s="59" t="s">
         <v>12</v>
       </c>
@@ -13938,10 +14072,10 @@
       </c>
     </row>
     <row r="337" spans="1:12" ht="25.5">
-      <c r="A337" s="79"/>
-      <c r="B337" s="79"/>
-      <c r="C337" s="79"/>
-      <c r="D337" s="80"/>
+      <c r="A337" s="98"/>
+      <c r="B337" s="98"/>
+      <c r="C337" s="98"/>
+      <c r="D337" s="104"/>
       <c r="E337" s="59" t="s">
         <v>14</v>
       </c>
@@ -13964,10 +14098,10 @@
       </c>
     </row>
     <row r="338" spans="1:12" ht="45">
-      <c r="A338" s="79"/>
-      <c r="B338" s="79"/>
-      <c r="C338" s="79"/>
-      <c r="D338" s="80"/>
+      <c r="A338" s="98"/>
+      <c r="B338" s="98"/>
+      <c r="C338" s="98"/>
+      <c r="D338" s="104"/>
       <c r="E338" s="59" t="s">
         <v>16</v>
       </c>
@@ -13992,10 +14126,10 @@
       </c>
     </row>
     <row r="339" spans="1:12" ht="45">
-      <c r="A339" s="79"/>
-      <c r="B339" s="79"/>
-      <c r="C339" s="79"/>
-      <c r="D339" s="80"/>
+      <c r="A339" s="98"/>
+      <c r="B339" s="98"/>
+      <c r="C339" s="98"/>
+      <c r="D339" s="104"/>
       <c r="E339" s="59" t="s">
         <v>18</v>
       </c>
@@ -14020,10 +14154,10 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="30">
-      <c r="A340" s="79"/>
-      <c r="B340" s="79"/>
-      <c r="C340" s="79"/>
-      <c r="D340" s="80"/>
+      <c r="A340" s="98"/>
+      <c r="B340" s="98"/>
+      <c r="C340" s="98"/>
+      <c r="D340" s="104"/>
       <c r="E340" s="59" t="s">
         <v>20</v>
       </c>
@@ -14048,10 +14182,10 @@
       </c>
     </row>
     <row r="341" spans="1:12" ht="45">
-      <c r="A341" s="79"/>
-      <c r="B341" s="79"/>
-      <c r="C341" s="79"/>
-      <c r="D341" s="80"/>
+      <c r="A341" s="98"/>
+      <c r="B341" s="98"/>
+      <c r="C341" s="98"/>
+      <c r="D341" s="104"/>
       <c r="E341" s="59" t="s">
         <v>48</v>
       </c>
@@ -14074,10 +14208,10 @@
       </c>
     </row>
     <row r="342" spans="1:12" ht="30">
-      <c r="A342" s="79"/>
-      <c r="B342" s="79"/>
-      <c r="C342" s="79"/>
-      <c r="D342" s="80"/>
+      <c r="A342" s="98"/>
+      <c r="B342" s="98"/>
+      <c r="C342" s="98"/>
+      <c r="D342" s="104"/>
       <c r="E342" s="59" t="s">
         <v>53</v>
       </c>
@@ -14100,10 +14234,10 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="60">
-      <c r="A343" s="79"/>
-      <c r="B343" s="79"/>
-      <c r="C343" s="79"/>
-      <c r="D343" s="80"/>
+      <c r="A343" s="98"/>
+      <c r="B343" s="98"/>
+      <c r="C343" s="98"/>
+      <c r="D343" s="104"/>
       <c r="E343" s="59" t="s">
         <v>58</v>
       </c>
@@ -14126,10 +14260,10 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="38.25">
-      <c r="A344" s="79"/>
-      <c r="B344" s="79"/>
-      <c r="C344" s="79"/>
-      <c r="D344" s="80"/>
+      <c r="A344" s="98"/>
+      <c r="B344" s="98"/>
+      <c r="C344" s="98"/>
+      <c r="D344" s="104"/>
       <c r="E344" s="59" t="s">
         <v>64</v>
       </c>
@@ -14152,16 +14286,16 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="51">
-      <c r="A345" s="77" t="s">
+      <c r="A345" s="102" t="s">
         <v>1159</v>
       </c>
-      <c r="B345" s="77" t="s">
+      <c r="B345" s="102" t="s">
         <v>1160</v>
       </c>
-      <c r="C345" s="77" t="s">
+      <c r="C345" s="102" t="s">
         <v>1160</v>
       </c>
-      <c r="D345" s="78"/>
+      <c r="D345" s="103"/>
       <c r="E345" s="54" t="s">
         <v>12</v>
       </c>
@@ -14186,10 +14320,10 @@
       </c>
     </row>
     <row r="346" spans="1:12" ht="25.5">
-      <c r="A346" s="77"/>
-      <c r="B346" s="77"/>
-      <c r="C346" s="77"/>
-      <c r="D346" s="78"/>
+      <c r="A346" s="102"/>
+      <c r="B346" s="102"/>
+      <c r="C346" s="102"/>
+      <c r="D346" s="103"/>
       <c r="E346" s="54" t="s">
         <v>14</v>
       </c>
@@ -14212,10 +14346,10 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="45">
-      <c r="A347" s="77"/>
-      <c r="B347" s="77"/>
-      <c r="C347" s="77"/>
-      <c r="D347" s="78"/>
+      <c r="A347" s="102"/>
+      <c r="B347" s="102"/>
+      <c r="C347" s="102"/>
+      <c r="D347" s="103"/>
       <c r="E347" s="54" t="s">
         <v>16</v>
       </c>
@@ -14240,10 +14374,10 @@
       </c>
     </row>
     <row r="348" spans="1:12" ht="60">
-      <c r="A348" s="77"/>
-      <c r="B348" s="77"/>
-      <c r="C348" s="77"/>
-      <c r="D348" s="78"/>
+      <c r="A348" s="102"/>
+      <c r="B348" s="102"/>
+      <c r="C348" s="102"/>
+      <c r="D348" s="103"/>
       <c r="E348" s="54" t="s">
         <v>18</v>
       </c>
@@ -14268,10 +14402,10 @@
       </c>
     </row>
     <row r="349" spans="1:12" ht="30">
-      <c r="A349" s="77"/>
-      <c r="B349" s="77"/>
-      <c r="C349" s="77"/>
-      <c r="D349" s="78"/>
+      <c r="A349" s="102"/>
+      <c r="B349" s="102"/>
+      <c r="C349" s="102"/>
+      <c r="D349" s="103"/>
       <c r="E349" s="54" t="s">
         <v>20</v>
       </c>
@@ -14296,10 +14430,10 @@
       </c>
     </row>
     <row r="350" spans="1:12" ht="45">
-      <c r="A350" s="77"/>
-      <c r="B350" s="77"/>
-      <c r="C350" s="77"/>
-      <c r="D350" s="78"/>
+      <c r="A350" s="102"/>
+      <c r="B350" s="102"/>
+      <c r="C350" s="102"/>
+      <c r="D350" s="103"/>
       <c r="E350" s="54" t="s">
         <v>48</v>
       </c>
@@ -14322,10 +14456,10 @@
       </c>
     </row>
     <row r="351" spans="1:12" ht="30">
-      <c r="A351" s="77"/>
-      <c r="B351" s="77"/>
-      <c r="C351" s="77"/>
-      <c r="D351" s="78"/>
+      <c r="A351" s="102"/>
+      <c r="B351" s="102"/>
+      <c r="C351" s="102"/>
+      <c r="D351" s="103"/>
       <c r="E351" s="54" t="s">
         <v>53</v>
       </c>
@@ -14348,10 +14482,10 @@
       </c>
     </row>
     <row r="352" spans="1:12" ht="60">
-      <c r="A352" s="77"/>
-      <c r="B352" s="77"/>
-      <c r="C352" s="77"/>
-      <c r="D352" s="78"/>
+      <c r="A352" s="102"/>
+      <c r="B352" s="102"/>
+      <c r="C352" s="102"/>
+      <c r="D352" s="103"/>
       <c r="E352" s="54" t="s">
         <v>58</v>
       </c>
@@ -14374,10 +14508,10 @@
       </c>
     </row>
     <row r="353" spans="1:12" ht="38.25">
-      <c r="A353" s="77"/>
-      <c r="B353" s="77"/>
-      <c r="C353" s="77"/>
-      <c r="D353" s="78"/>
+      <c r="A353" s="102"/>
+      <c r="B353" s="102"/>
+      <c r="C353" s="102"/>
+      <c r="D353" s="103"/>
       <c r="E353" s="54" t="s">
         <v>64</v>
       </c>
@@ -14400,16 +14534,16 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="51">
-      <c r="A354" s="79" t="s">
+      <c r="A354" s="98" t="s">
         <v>1174</v>
       </c>
-      <c r="B354" s="79" t="s">
+      <c r="B354" s="98" t="s">
         <v>1175</v>
       </c>
-      <c r="C354" s="79" t="s">
+      <c r="C354" s="98" t="s">
         <v>1176</v>
       </c>
-      <c r="D354" s="82"/>
+      <c r="D354" s="99"/>
       <c r="E354" s="59" t="s">
         <v>12</v>
       </c>
@@ -14434,10 +14568,10 @@
       </c>
     </row>
     <row r="355" spans="1:12" ht="25.5">
-      <c r="A355" s="79"/>
-      <c r="B355" s="81"/>
-      <c r="C355" s="81"/>
-      <c r="D355" s="83"/>
+      <c r="A355" s="98"/>
+      <c r="B355" s="101"/>
+      <c r="C355" s="101"/>
+      <c r="D355" s="100"/>
       <c r="E355" s="59" t="s">
         <v>14</v>
       </c>
@@ -14460,10 +14594,10 @@
       </c>
     </row>
     <row r="356" spans="1:12" ht="45">
-      <c r="A356" s="79"/>
-      <c r="B356" s="81"/>
-      <c r="C356" s="81"/>
-      <c r="D356" s="83"/>
+      <c r="A356" s="98"/>
+      <c r="B356" s="101"/>
+      <c r="C356" s="101"/>
+      <c r="D356" s="100"/>
       <c r="E356" s="59" t="s">
         <v>16</v>
       </c>
@@ -14488,10 +14622,10 @@
       </c>
     </row>
     <row r="357" spans="1:12" ht="45">
-      <c r="A357" s="79"/>
-      <c r="B357" s="81"/>
-      <c r="C357" s="81"/>
-      <c r="D357" s="83"/>
+      <c r="A357" s="98"/>
+      <c r="B357" s="101"/>
+      <c r="C357" s="101"/>
+      <c r="D357" s="100"/>
       <c r="E357" s="59" t="s">
         <v>18</v>
       </c>
@@ -14514,10 +14648,10 @@
       </c>
     </row>
     <row r="358" spans="1:12" ht="45">
-      <c r="A358" s="79"/>
-      <c r="B358" s="81"/>
-      <c r="C358" s="81"/>
-      <c r="D358" s="83"/>
+      <c r="A358" s="98"/>
+      <c r="B358" s="101"/>
+      <c r="C358" s="101"/>
+      <c r="D358" s="100"/>
       <c r="E358" s="59" t="s">
         <v>20</v>
       </c>
@@ -14542,10 +14676,10 @@
       </c>
     </row>
     <row r="359" spans="1:12" ht="45">
-      <c r="A359" s="79"/>
-      <c r="B359" s="81"/>
-      <c r="C359" s="81"/>
-      <c r="D359" s="83"/>
+      <c r="A359" s="98"/>
+      <c r="B359" s="101"/>
+      <c r="C359" s="101"/>
+      <c r="D359" s="100"/>
       <c r="E359" s="59" t="s">
         <v>48</v>
       </c>
@@ -14568,10 +14702,10 @@
       </c>
     </row>
     <row r="360" spans="1:12" ht="45">
-      <c r="A360" s="79"/>
-      <c r="B360" s="81"/>
-      <c r="C360" s="81"/>
-      <c r="D360" s="83"/>
+      <c r="A360" s="98"/>
+      <c r="B360" s="101"/>
+      <c r="C360" s="101"/>
+      <c r="D360" s="100"/>
       <c r="E360" s="59" t="s">
         <v>53</v>
       </c>
@@ -14594,10 +14728,10 @@
       </c>
     </row>
     <row r="361" spans="1:12" ht="45">
-      <c r="A361" s="79"/>
-      <c r="B361" s="81"/>
-      <c r="C361" s="81"/>
-      <c r="D361" s="83"/>
+      <c r="A361" s="98"/>
+      <c r="B361" s="101"/>
+      <c r="C361" s="101"/>
+      <c r="D361" s="100"/>
       <c r="E361" s="59" t="s">
         <v>58</v>
       </c>
@@ -14622,10 +14756,10 @@
       </c>
     </row>
     <row r="362" spans="1:12" ht="45">
-      <c r="A362" s="79"/>
-      <c r="B362" s="81"/>
-      <c r="C362" s="81"/>
-      <c r="D362" s="83"/>
+      <c r="A362" s="98"/>
+      <c r="B362" s="101"/>
+      <c r="C362" s="101"/>
+      <c r="D362" s="100"/>
       <c r="E362" s="59" t="s">
         <v>64</v>
       </c>
@@ -14648,10 +14782,10 @@
       </c>
     </row>
     <row r="363" spans="1:12" ht="60">
-      <c r="A363" s="79"/>
-      <c r="B363" s="81"/>
-      <c r="C363" s="81"/>
-      <c r="D363" s="83"/>
+      <c r="A363" s="98"/>
+      <c r="B363" s="101"/>
+      <c r="C363" s="101"/>
+      <c r="D363" s="100"/>
       <c r="E363" s="59" t="s">
         <v>69</v>
       </c>
@@ -14674,10 +14808,10 @@
       </c>
     </row>
     <row r="364" spans="1:12" ht="60">
-      <c r="A364" s="79"/>
-      <c r="B364" s="81"/>
-      <c r="C364" s="81"/>
-      <c r="D364" s="83"/>
+      <c r="A364" s="98"/>
+      <c r="B364" s="101"/>
+      <c r="C364" s="101"/>
+      <c r="D364" s="100"/>
       <c r="E364" s="59" t="s">
         <v>75</v>
       </c>
@@ -14702,10 +14836,10 @@
       </c>
     </row>
     <row r="365" spans="1:12" ht="60">
-      <c r="A365" s="79"/>
-      <c r="B365" s="81"/>
-      <c r="C365" s="81"/>
-      <c r="D365" s="83"/>
+      <c r="A365" s="98"/>
+      <c r="B365" s="101"/>
+      <c r="C365" s="101"/>
+      <c r="D365" s="100"/>
       <c r="E365" s="59" t="s">
         <v>80</v>
       </c>
@@ -14728,10 +14862,10 @@
       </c>
     </row>
     <row r="366" spans="1:12" ht="38.25">
-      <c r="A366" s="79"/>
-      <c r="B366" s="81"/>
-      <c r="C366" s="81"/>
-      <c r="D366" s="84"/>
+      <c r="A366" s="98"/>
+      <c r="B366" s="101"/>
+      <c r="C366" s="101"/>
+      <c r="D366" s="106"/>
       <c r="E366" s="59" t="s">
         <v>86</v>
       </c>
@@ -14754,16 +14888,16 @@
       </c>
     </row>
     <row r="367" spans="1:12" ht="51">
-      <c r="A367" s="77" t="s">
+      <c r="A367" s="102" t="s">
         <v>1205</v>
       </c>
-      <c r="B367" s="77" t="s">
+      <c r="B367" s="102" t="s">
         <v>1206</v>
       </c>
-      <c r="C367" s="77" t="s">
+      <c r="C367" s="102" t="s">
         <v>1206</v>
       </c>
-      <c r="D367" s="78"/>
+      <c r="D367" s="103"/>
       <c r="E367" s="54" t="s">
         <v>12</v>
       </c>
@@ -14788,10 +14922,10 @@
       </c>
     </row>
     <row r="368" spans="1:12" ht="25.5">
-      <c r="A368" s="77"/>
-      <c r="B368" s="77"/>
-      <c r="C368" s="77"/>
-      <c r="D368" s="78"/>
+      <c r="A368" s="102"/>
+      <c r="B368" s="102"/>
+      <c r="C368" s="102"/>
+      <c r="D368" s="103"/>
       <c r="E368" s="54" t="s">
         <v>14</v>
       </c>
@@ -14814,10 +14948,10 @@
       </c>
     </row>
     <row r="369" spans="1:12" ht="45">
-      <c r="A369" s="77"/>
-      <c r="B369" s="77"/>
-      <c r="C369" s="77"/>
-      <c r="D369" s="78"/>
+      <c r="A369" s="102"/>
+      <c r="B369" s="102"/>
+      <c r="C369" s="102"/>
+      <c r="D369" s="103"/>
       <c r="E369" s="54" t="s">
         <v>16</v>
       </c>
@@ -14840,10 +14974,10 @@
       </c>
     </row>
     <row r="370" spans="1:12" ht="30">
-      <c r="A370" s="77"/>
-      <c r="B370" s="77"/>
-      <c r="C370" s="77"/>
-      <c r="D370" s="78"/>
+      <c r="A370" s="102"/>
+      <c r="B370" s="102"/>
+      <c r="C370" s="102"/>
+      <c r="D370" s="103"/>
       <c r="E370" s="54" t="s">
         <v>18</v>
       </c>
@@ -14868,10 +15002,10 @@
       </c>
     </row>
     <row r="371" spans="1:12" ht="38.25">
-      <c r="A371" s="77"/>
-      <c r="B371" s="77"/>
-      <c r="C371" s="77"/>
-      <c r="D371" s="78"/>
+      <c r="A371" s="102"/>
+      <c r="B371" s="102"/>
+      <c r="C371" s="102"/>
+      <c r="D371" s="103"/>
       <c r="E371" s="54" t="s">
         <v>20</v>
       </c>
@@ -14893,18 +15027,20 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="51">
-      <c r="A372" s="79" t="s">
+    <row r="372" spans="1:12" ht="51" customHeight="1">
+      <c r="A372" s="107" t="s">
         <v>1218</v>
       </c>
-      <c r="B372" s="79" t="s">
+      <c r="B372" s="98" t="s">
         <v>1219</v>
       </c>
-      <c r="C372" s="79" t="s">
+      <c r="C372" s="98" t="s">
         <v>1219</v>
       </c>
-      <c r="D372" s="80"/>
-      <c r="E372" s="59" t="s">
+      <c r="D372" s="108" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E372" s="109" t="s">
         <v>12</v>
       </c>
       <c r="F372" s="60" t="s">
@@ -14922,17 +15058,19 @@
       <c r="J372" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="K372" s="60"/>
+      <c r="K372" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L372" s="62" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="373" spans="1:12" ht="25.5">
-      <c r="A373" s="79"/>
-      <c r="B373" s="79"/>
-      <c r="C373" s="79"/>
-      <c r="D373" s="80"/>
-      <c r="E373" s="59" t="s">
+      <c r="A373" s="107"/>
+      <c r="B373" s="98"/>
+      <c r="C373" s="98"/>
+      <c r="D373" s="108"/>
+      <c r="E373" s="109" t="s">
         <v>14</v>
       </c>
       <c r="F373" s="63" t="s">
@@ -14948,23 +15086,25 @@
       <c r="J373" s="63" t="s">
         <v>1211</v>
       </c>
-      <c r="K373" s="60"/>
+      <c r="K373" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L373" s="62" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="374" spans="1:12" ht="30">
-      <c r="A374" s="79"/>
-      <c r="B374" s="79"/>
-      <c r="C374" s="79"/>
-      <c r="D374" s="80"/>
-      <c r="E374" s="59" t="s">
+      <c r="A374" s="107"/>
+      <c r="B374" s="98"/>
+      <c r="C374" s="98"/>
+      <c r="D374" s="108"/>
+      <c r="E374" s="109" t="s">
         <v>16</v>
       </c>
       <c r="F374" s="62" t="s">
         <v>1222</v>
       </c>
-      <c r="G374" s="65"/>
+      <c r="G374" s="77"/>
       <c r="H374" s="62" t="s">
         <v>1223</v>
       </c>
@@ -14974,24 +15114,26 @@
       <c r="J374" s="62" t="s">
         <v>1225</v>
       </c>
-      <c r="K374" s="60"/>
+      <c r="K374" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L374" s="62" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="375" spans="1:12" ht="30">
-      <c r="A375" s="79"/>
-      <c r="B375" s="79"/>
-      <c r="C375" s="79"/>
-      <c r="D375" s="80"/>
-      <c r="E375" s="59" t="s">
+      <c r="A375" s="107"/>
+      <c r="B375" s="98"/>
+      <c r="C375" s="98"/>
+      <c r="D375" s="108"/>
+      <c r="E375" s="109" t="s">
         <v>18</v>
       </c>
       <c r="F375" s="62" t="s">
         <v>1227</v>
       </c>
       <c r="G375" s="75" t="s">
-        <v>1228</v>
+        <v>1279</v>
       </c>
       <c r="H375" s="62" t="s">
         <v>1229</v>
@@ -15002,23 +15144,25 @@
       <c r="J375" s="62" t="s">
         <v>1231</v>
       </c>
-      <c r="K375" s="60"/>
+      <c r="K375" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L375" s="62" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="376" spans="1:12" ht="60">
-      <c r="A376" s="79"/>
-      <c r="B376" s="79"/>
-      <c r="C376" s="79"/>
-      <c r="D376" s="80"/>
-      <c r="E376" s="59" t="s">
+      <c r="A376" s="107"/>
+      <c r="B376" s="98"/>
+      <c r="C376" s="98"/>
+      <c r="D376" s="108"/>
+      <c r="E376" s="109" t="s">
         <v>20</v>
       </c>
       <c r="F376" s="62" t="s">
         <v>1233</v>
       </c>
-      <c r="G376" s="65"/>
+      <c r="G376" s="77"/>
       <c r="H376" s="62" t="s">
         <v>1234</v>
       </c>
@@ -15028,23 +15172,25 @@
       <c r="J376" s="62" t="s">
         <v>1236</v>
       </c>
-      <c r="K376" s="60"/>
+      <c r="K376" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L376" s="62" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="377" spans="1:12" ht="45">
-      <c r="A377" s="79"/>
-      <c r="B377" s="79"/>
-      <c r="C377" s="79"/>
-      <c r="D377" s="80"/>
-      <c r="E377" s="59" t="s">
+      <c r="A377" s="107"/>
+      <c r="B377" s="98"/>
+      <c r="C377" s="98"/>
+      <c r="D377" s="108"/>
+      <c r="E377" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F377" s="62" t="s">
         <v>772</v>
       </c>
-      <c r="G377" s="75" t="s">
+      <c r="G377" s="110" t="s">
         <v>1228</v>
       </c>
       <c r="H377" s="62" t="s">
@@ -15056,51 +15202,55 @@
       <c r="J377" s="62" t="s">
         <v>1240</v>
       </c>
-      <c r="K377" s="60"/>
+      <c r="K377" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L377" s="62" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="378" spans="1:12" ht="38.25">
-      <c r="A378" s="79"/>
-      <c r="B378" s="79"/>
-      <c r="C378" s="79"/>
-      <c r="D378" s="80"/>
-      <c r="E378" s="59" t="s">
+      <c r="A378" s="107"/>
+      <c r="B378" s="98"/>
+      <c r="C378" s="98"/>
+      <c r="D378" s="108"/>
+      <c r="E378" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="F378" s="65" t="s">
+      <c r="F378" s="77" t="s">
         <v>662</v>
       </c>
-      <c r="G378" s="65"/>
-      <c r="H378" s="65" t="s">
+      <c r="G378" s="77"/>
+      <c r="H378" s="77" t="s">
         <v>663</v>
       </c>
-      <c r="I378" s="65" t="s">
+      <c r="I378" s="77" t="s">
         <v>664</v>
       </c>
-      <c r="J378" s="65" t="s">
+      <c r="J378" s="77" t="s">
         <v>665</v>
       </c>
-      <c r="K378" s="60"/>
+      <c r="K378" s="60" t="s">
+        <v>1245</v>
+      </c>
       <c r="L378" s="62" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="51">
-      <c r="A379" s="77" t="s">
+    <row r="379" spans="1:12" ht="51" customHeight="1">
+      <c r="A379" s="111" t="s">
         <v>1243</v>
       </c>
-      <c r="B379" s="77" t="s">
+      <c r="B379" s="102" t="s">
         <v>1244</v>
       </c>
-      <c r="C379" s="77" t="s">
+      <c r="C379" s="102" t="s">
         <v>1244</v>
       </c>
-      <c r="D379" s="78" t="s">
+      <c r="D379" s="112" t="s">
         <v>1245</v>
       </c>
-      <c r="E379" s="54" t="s">
+      <c r="E379" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F379" s="55" t="s">
@@ -15126,11 +15276,11 @@
       </c>
     </row>
     <row r="380" spans="1:12" ht="25.5">
-      <c r="A380" s="77"/>
-      <c r="B380" s="77"/>
-      <c r="C380" s="77"/>
-      <c r="D380" s="78"/>
-      <c r="E380" s="54" t="s">
+      <c r="A380" s="111"/>
+      <c r="B380" s="102"/>
+      <c r="C380" s="102"/>
+      <c r="D380" s="112"/>
+      <c r="E380" s="113" t="s">
         <v>14</v>
       </c>
       <c r="F380" s="67" t="s">
@@ -15154,17 +15304,17 @@
       </c>
     </row>
     <row r="381" spans="1:12" ht="30">
-      <c r="A381" s="77"/>
-      <c r="B381" s="77"/>
-      <c r="C381" s="77"/>
-      <c r="D381" s="78"/>
-      <c r="E381" s="54" t="s">
+      <c r="A381" s="111"/>
+      <c r="B381" s="102"/>
+      <c r="C381" s="102"/>
+      <c r="D381" s="112"/>
+      <c r="E381" s="113" t="s">
         <v>16</v>
       </c>
       <c r="F381" s="57" t="s">
         <v>1248</v>
       </c>
-      <c r="G381" s="56" t="s">
+      <c r="G381" s="114" t="s">
         <v>1228</v>
       </c>
       <c r="H381" s="57" t="s">
@@ -15184,159 +15334,159 @@
       </c>
     </row>
     <row r="382" spans="1:12" ht="30">
-      <c r="A382" s="77"/>
-      <c r="B382" s="77"/>
-      <c r="C382" s="77"/>
-      <c r="D382" s="78"/>
-      <c r="E382" s="54" t="s">
+      <c r="A382" s="111"/>
+      <c r="B382" s="102"/>
+      <c r="C382" s="102"/>
+      <c r="D382" s="112"/>
+      <c r="E382" s="113" t="s">
         <v>18</v>
       </c>
       <c r="F382" s="57" t="s">
         <v>1253</v>
       </c>
       <c r="G382" s="68" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H382" s="57" t="s">
         <v>1254</v>
       </c>
-      <c r="H382" s="57" t="s">
+      <c r="I382" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="I382" s="57" t="s">
+      <c r="J382" s="57" t="s">
         <v>1256</v>
-      </c>
-      <c r="J382" s="57" t="s">
-        <v>1257</v>
       </c>
       <c r="K382" s="55" t="s">
         <v>1245</v>
       </c>
       <c r="L382" s="57" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="30">
+      <c r="A383" s="111"/>
+      <c r="B383" s="102"/>
+      <c r="C383" s="102"/>
+      <c r="D383" s="112"/>
+      <c r="E383" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F383" s="57" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" ht="30">
-      <c r="A383" s="77"/>
-      <c r="B383" s="77"/>
-      <c r="C383" s="77"/>
-      <c r="D383" s="78"/>
-      <c r="E383" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F383" s="57" t="s">
+      <c r="G383" s="68" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H383" s="57" t="s">
         <v>1259</v>
       </c>
-      <c r="G383" s="68" t="s">
+      <c r="I383" s="57" t="s">
         <v>1260</v>
       </c>
-      <c r="H383" s="57" t="s">
+      <c r="J383" s="57" t="s">
         <v>1261</v>
-      </c>
-      <c r="I383" s="57" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J383" s="57" t="s">
-        <v>1263</v>
       </c>
       <c r="K383" s="55" t="s">
         <v>1245</v>
       </c>
       <c r="L383" s="57" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="30">
+      <c r="A384" s="111"/>
+      <c r="B384" s="102"/>
+      <c r="C384" s="102"/>
+      <c r="D384" s="112"/>
+      <c r="E384" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F384" s="57" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G384" s="68" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" ht="30">
-      <c r="A384" s="77"/>
-      <c r="B384" s="77"/>
-      <c r="C384" s="77"/>
-      <c r="D384" s="78"/>
-      <c r="E384" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F384" s="57" t="s">
+      <c r="H384" s="57" t="s">
         <v>1265</v>
       </c>
-      <c r="G384" s="68" t="s">
+      <c r="I384" s="57" t="s">
         <v>1266</v>
       </c>
-      <c r="H384" s="57" t="s">
+      <c r="J384" s="57" t="s">
         <v>1267</v>
-      </c>
-      <c r="I384" s="57" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J384" s="57" t="s">
-        <v>1269</v>
       </c>
       <c r="K384" s="55" t="s">
         <v>1245</v>
       </c>
       <c r="L384" s="57" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="75">
-      <c r="A385" s="77"/>
-      <c r="B385" s="77"/>
-      <c r="C385" s="77"/>
-      <c r="D385" s="78"/>
-      <c r="E385" s="54" t="s">
+      <c r="A385" s="111"/>
+      <c r="B385" s="102"/>
+      <c r="C385" s="102"/>
+      <c r="D385" s="112"/>
+      <c r="E385" s="113" t="s">
         <v>53</v>
       </c>
       <c r="F385" s="57" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G385" s="68"/>
       <c r="H385" s="76" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I385" s="76" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J385" s="76" t="s">
         <v>1272</v>
-      </c>
-      <c r="I385" s="76" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J385" s="76" t="s">
-        <v>1274</v>
       </c>
       <c r="K385" s="55" t="s">
         <v>1245</v>
       </c>
       <c r="L385" s="57" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="386" spans="1:12" ht="45">
-      <c r="A386" s="77"/>
-      <c r="B386" s="77"/>
-      <c r="C386" s="77"/>
-      <c r="D386" s="78"/>
-      <c r="E386" s="54" t="s">
+      <c r="A386" s="111"/>
+      <c r="B386" s="102"/>
+      <c r="C386" s="102"/>
+      <c r="D386" s="112"/>
+      <c r="E386" s="113" t="s">
         <v>58</v>
       </c>
       <c r="F386" s="57" t="s">
         <v>772</v>
       </c>
       <c r="G386" s="68" t="s">
-        <v>1254</v>
+        <v>1280</v>
       </c>
       <c r="H386" s="57" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I386" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J386" s="57" t="s">
         <v>1276</v>
-      </c>
-      <c r="I386" s="57" t="s">
-        <v>1277</v>
-      </c>
-      <c r="J386" s="57" t="s">
-        <v>1278</v>
       </c>
       <c r="K386" s="55" t="s">
         <v>1245</v>
       </c>
       <c r="L386" s="57" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="38.25">
-      <c r="A387" s="77"/>
-      <c r="B387" s="77"/>
-      <c r="C387" s="77"/>
-      <c r="D387" s="78"/>
-      <c r="E387" s="54" t="s">
+      <c r="A387" s="111"/>
+      <c r="B387" s="102"/>
+      <c r="C387" s="102"/>
+      <c r="D387" s="112"/>
+      <c r="E387" s="113" t="s">
         <v>64</v>
       </c>
       <c r="F387" s="68" t="s">
@@ -15356,145 +15506,464 @@
         <v>1245</v>
       </c>
       <c r="L387" s="57" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12">
-      <c r="A388" s="3"/>
-      <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="5"/>
-      <c r="G388" s="5"/>
-      <c r="H388" s="5"/>
-    </row>
-    <row r="389" spans="1:12">
-      <c r="A389" s="3"/>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
-      <c r="E389" s="4"/>
-      <c r="F389" s="5"/>
-      <c r="G389" s="5"/>
-      <c r="H389" s="5"/>
-    </row>
-    <row r="390" spans="1:12">
-      <c r="A390" s="3"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-      <c r="E390" s="4"/>
-      <c r="F390" s="5"/>
-      <c r="G390" s="5"/>
-      <c r="H390" s="5"/>
-    </row>
-    <row r="391" spans="1:12">
-      <c r="A391" s="3"/>
-      <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="5"/>
-      <c r="G391" s="5"/>
-      <c r="H391" s="5"/>
-    </row>
-    <row r="392" spans="1:12">
-      <c r="A392" s="3"/>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="5"/>
-      <c r="G392" s="5"/>
-      <c r="H392" s="5"/>
-    </row>
-    <row r="393" spans="1:12">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="5"/>
-      <c r="G393" s="5"/>
-      <c r="H393" s="5"/>
-    </row>
-    <row r="394" spans="1:12">
-      <c r="A394" s="3"/>
-      <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="5"/>
-      <c r="G394" s="5"/>
-      <c r="H394" s="5"/>
-    </row>
-    <row r="395" spans="1:12">
-      <c r="A395" s="3"/>
-      <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
-      <c r="E395" s="4"/>
-      <c r="F395" s="5"/>
-      <c r="G395" s="5"/>
-      <c r="H395" s="5"/>
-    </row>
-    <row r="396" spans="1:12">
-      <c r="A396" s="3"/>
-      <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="5"/>
-      <c r="G396" s="5"/>
-      <c r="H396" s="5"/>
-    </row>
-    <row r="397" spans="1:12">
-      <c r="A397" s="3"/>
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
-      <c r="E397" s="4"/>
-      <c r="F397" s="5"/>
-      <c r="G397" s="5"/>
-      <c r="H397" s="5"/>
-    </row>
-    <row r="398" spans="1:12">
-      <c r="A398" s="3"/>
-      <c r="B398" s="3"/>
-      <c r="C398" s="3"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="5"/>
-      <c r="G398" s="5"/>
-      <c r="H398" s="5"/>
-    </row>
-    <row r="399" spans="1:12">
-      <c r="A399" s="3"/>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
-      <c r="E399" s="4"/>
-      <c r="F399" s="5"/>
-      <c r="G399" s="5"/>
-      <c r="H399" s="5"/>
-    </row>
-    <row r="400" spans="1:12">
-      <c r="A400" s="3"/>
-      <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="5"/>
-      <c r="G400" s="5"/>
-      <c r="H400" s="5"/>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" s="3"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
-      <c r="E401" s="4"/>
-      <c r="F401" s="5"/>
-      <c r="G401" s="5"/>
-      <c r="H401" s="5"/>
-    </row>
-    <row r="402" spans="1:8">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="5"/>
-      <c r="G402" s="5"/>
-      <c r="H402" s="5"/>
-    </row>
-    <row r="403" spans="1:8">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="51">
+      <c r="A388" s="107" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B388" s="98" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C388" s="98" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D388" s="108" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E388" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F388" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="G388" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="H388" s="60" t="s">
+        <v>649</v>
+      </c>
+      <c r="I388" s="60" t="s">
+        <v>650</v>
+      </c>
+      <c r="J388" s="60" t="s">
+        <v>651</v>
+      </c>
+      <c r="K388" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L388" s="62" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="25.5">
+      <c r="A389" s="107"/>
+      <c r="B389" s="98"/>
+      <c r="C389" s="98"/>
+      <c r="D389" s="108"/>
+      <c r="E389" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F389" s="63" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G389" s="63"/>
+      <c r="H389" s="63" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I389" s="63" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J389" s="63" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K389" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L389" s="62" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="30">
+      <c r="A390" s="107"/>
+      <c r="B390" s="98"/>
+      <c r="C390" s="98"/>
+      <c r="D390" s="108"/>
+      <c r="E390" s="109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F390" s="62" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G390" s="75" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H390" s="62" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I390" s="62" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J390" s="62" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K390" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L390" s="62" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="30">
+      <c r="A391" s="107"/>
+      <c r="B391" s="98"/>
+      <c r="C391" s="98"/>
+      <c r="D391" s="108"/>
+      <c r="E391" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F391" s="62" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G391" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H391" s="62" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I391" s="62" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J391" s="62" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K391" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L391" s="62" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="30">
+      <c r="A392" s="107"/>
+      <c r="B392" s="98"/>
+      <c r="C392" s="98"/>
+      <c r="D392" s="108"/>
+      <c r="E392" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F392" s="62" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G392" s="77" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H392" s="62" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I392" s="62" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J392" s="62" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K392" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L392" s="62" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="30">
+      <c r="A393" s="107"/>
+      <c r="B393" s="98"/>
+      <c r="C393" s="98"/>
+      <c r="D393" s="108"/>
+      <c r="E393" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F393" s="62" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G393" s="77" t="s">
+        <v>880</v>
+      </c>
+      <c r="H393" s="62" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I393" s="62" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J393" s="62" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K393" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L393" s="62" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="75">
+      <c r="A394" s="107"/>
+      <c r="B394" s="98"/>
+      <c r="C394" s="98"/>
+      <c r="D394" s="108"/>
+      <c r="E394" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="F394" s="62" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G394" s="77"/>
+      <c r="H394" s="115" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I394" s="115" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J394" s="115" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K394" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L394" s="62" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="45">
+      <c r="A395" s="107"/>
+      <c r="B395" s="98"/>
+      <c r="C395" s="98"/>
+      <c r="D395" s="108"/>
+      <c r="E395" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F395" s="62" t="s">
+        <v>772</v>
+      </c>
+      <c r="G395" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H395" s="62" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I395" s="62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J395" s="62" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K395" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L395" s="62" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="60">
+      <c r="A396" s="107"/>
+      <c r="B396" s="98"/>
+      <c r="C396" s="98"/>
+      <c r="D396" s="108"/>
+      <c r="E396" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="F396" s="62" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G396" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H396" s="62" t="s">
+        <v>853</v>
+      </c>
+      <c r="I396" s="62" t="s">
+        <v>854</v>
+      </c>
+      <c r="J396" s="62" t="s">
+        <v>855</v>
+      </c>
+      <c r="K396" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L396" s="62" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="30">
+      <c r="A397" s="107"/>
+      <c r="B397" s="98"/>
+      <c r="C397" s="98"/>
+      <c r="D397" s="108"/>
+      <c r="E397" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F397" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="G397" s="61"/>
+      <c r="H397" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="I397" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="J397" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="K397" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L397" s="62" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="45">
+      <c r="A398" s="107"/>
+      <c r="B398" s="98"/>
+      <c r="C398" s="98"/>
+      <c r="D398" s="108"/>
+      <c r="E398" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F398" s="62" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G398" s="77" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H398" s="62" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I398" s="62" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J398" s="62" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K398" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L398" s="62" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="38.25">
+      <c r="A399" s="107"/>
+      <c r="B399" s="98"/>
+      <c r="C399" s="98"/>
+      <c r="D399" s="108"/>
+      <c r="E399" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="F399" s="77" t="s">
+        <v>662</v>
+      </c>
+      <c r="G399" s="77"/>
+      <c r="H399" s="77" t="s">
+        <v>663</v>
+      </c>
+      <c r="I399" s="77" t="s">
+        <v>664</v>
+      </c>
+      <c r="J399" s="77" t="s">
+        <v>665</v>
+      </c>
+      <c r="K399" s="60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L399" s="62" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="51">
+      <c r="A400" s="111" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B400" s="102" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C400" s="102" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D400" s="112" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E400" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F400" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="G400" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="H400" s="55" t="s">
+        <v>649</v>
+      </c>
+      <c r="I400" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="J400" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="K400" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L400" s="57" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="51">
+      <c r="A401" s="111"/>
+      <c r="B401" s="102"/>
+      <c r="C401" s="102"/>
+      <c r="D401" s="112"/>
+      <c r="E401" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F401" s="67" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G401" s="67"/>
+      <c r="H401" s="67" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I401" s="67" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J401" s="67" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K401" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L401" s="57" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="38.25">
+      <c r="A402" s="111"/>
+      <c r="B402" s="102"/>
+      <c r="C402" s="102"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="G402" s="68"/>
+      <c r="H402" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="I402" s="68" t="s">
+        <v>664</v>
+      </c>
+      <c r="J402" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="K402" s="55" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L402" s="57" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -15503,7 +15972,7 @@
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:12">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -15512,7 +15981,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:12">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -15521,7 +15990,7 @@
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:12">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -15530,7 +15999,7 @@
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:12">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -15539,7 +16008,7 @@
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:12">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -15548,7 +16017,7 @@
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:12">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -15557,7 +16026,7 @@
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:12">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -15566,7 +16035,7 @@
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:12">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -15575,7 +16044,7 @@
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:12">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -15584,7 +16053,7 @@
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:12">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -15593,7 +16062,7 @@
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:12">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -15602,7 +16071,7 @@
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:12">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -15611,7 +16080,7 @@
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:12">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -18321,79 +18790,91 @@
       <c r="E720" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="164">
-    <mergeCell ref="A145:A151"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="C145:C151"/>
-    <mergeCell ref="D145:D151"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="C152:C158"/>
-    <mergeCell ref="D152:D158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="B116:B130"/>
-    <mergeCell ref="C116:C130"/>
-    <mergeCell ref="D116:D130"/>
-    <mergeCell ref="A131:A137"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="C131:C137"/>
-    <mergeCell ref="D131:D137"/>
-    <mergeCell ref="A138:A144"/>
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="C138:C144"/>
-    <mergeCell ref="D138:D144"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="C96:C105"/>
-    <mergeCell ref="D96:D105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="D111:D115"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="C64:C72"/>
-    <mergeCell ref="D64:D72"/>
-    <mergeCell ref="A73:A88"/>
-    <mergeCell ref="B73:B88"/>
-    <mergeCell ref="C73:C88"/>
-    <mergeCell ref="D73:D88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="C45:C53"/>
-    <mergeCell ref="D45:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A24"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="C7:C24"/>
-    <mergeCell ref="D7:D24"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="B25:B44"/>
-    <mergeCell ref="C25:C44"/>
-    <mergeCell ref="D25:D44"/>
+  <mergeCells count="172">
+    <mergeCell ref="A388:A399"/>
+    <mergeCell ref="B388:B399"/>
+    <mergeCell ref="C388:C399"/>
+    <mergeCell ref="D388:D399"/>
+    <mergeCell ref="A400:A402"/>
+    <mergeCell ref="B400:B402"/>
+    <mergeCell ref="C400:C402"/>
+    <mergeCell ref="D400:D402"/>
+    <mergeCell ref="A379:A387"/>
+    <mergeCell ref="B379:B387"/>
+    <mergeCell ref="C379:C387"/>
+    <mergeCell ref="D379:D387"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="B367:B371"/>
+    <mergeCell ref="C367:C371"/>
+    <mergeCell ref="D367:D371"/>
+    <mergeCell ref="A372:A378"/>
+    <mergeCell ref="B372:B378"/>
+    <mergeCell ref="C372:C378"/>
+    <mergeCell ref="D372:D378"/>
+    <mergeCell ref="A345:A353"/>
+    <mergeCell ref="B345:B353"/>
+    <mergeCell ref="C345:C353"/>
+    <mergeCell ref="D345:D353"/>
+    <mergeCell ref="A354:A366"/>
+    <mergeCell ref="B354:B366"/>
+    <mergeCell ref="C354:C366"/>
+    <mergeCell ref="D354:D366"/>
+    <mergeCell ref="A327:A335"/>
+    <mergeCell ref="B327:B335"/>
+    <mergeCell ref="C327:C335"/>
+    <mergeCell ref="D327:D335"/>
+    <mergeCell ref="A336:A344"/>
+    <mergeCell ref="B336:B344"/>
+    <mergeCell ref="C336:C344"/>
+    <mergeCell ref="D336:D344"/>
+    <mergeCell ref="A314:A318"/>
+    <mergeCell ref="B314:B318"/>
+    <mergeCell ref="C314:C318"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="A319:A326"/>
+    <mergeCell ref="B319:B326"/>
+    <mergeCell ref="C319:C326"/>
+    <mergeCell ref="D319:D326"/>
+    <mergeCell ref="A300:A305"/>
+    <mergeCell ref="B300:B305"/>
+    <mergeCell ref="C300:C305"/>
+    <mergeCell ref="D300:D305"/>
+    <mergeCell ref="A306:A313"/>
+    <mergeCell ref="B306:B313"/>
+    <mergeCell ref="C306:C313"/>
+    <mergeCell ref="D306:D313"/>
+    <mergeCell ref="A262:A292"/>
+    <mergeCell ref="B262:B292"/>
+    <mergeCell ref="C262:C292"/>
+    <mergeCell ref="D262:D292"/>
+    <mergeCell ref="A293:A299"/>
+    <mergeCell ref="B293:B299"/>
+    <mergeCell ref="C293:C299"/>
+    <mergeCell ref="D293:D299"/>
+    <mergeCell ref="A240:A244"/>
+    <mergeCell ref="B240:B244"/>
+    <mergeCell ref="C240:C244"/>
+    <mergeCell ref="D240:D244"/>
+    <mergeCell ref="A245:A261"/>
+    <mergeCell ref="B245:B261"/>
+    <mergeCell ref="C245:C261"/>
+    <mergeCell ref="D245:D261"/>
+    <mergeCell ref="A226:A231"/>
+    <mergeCell ref="B226:B231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="A232:A239"/>
+    <mergeCell ref="B232:B239"/>
+    <mergeCell ref="C232:C239"/>
+    <mergeCell ref="D232:D239"/>
+    <mergeCell ref="A196:A218"/>
+    <mergeCell ref="B196:B218"/>
+    <mergeCell ref="C196:C218"/>
+    <mergeCell ref="D196:D218"/>
+    <mergeCell ref="A219:A225"/>
+    <mergeCell ref="B219:B225"/>
+    <mergeCell ref="C219:C225"/>
+    <mergeCell ref="D219:D225"/>
     <mergeCell ref="A177:A181"/>
     <mergeCell ref="B177:B181"/>
     <mergeCell ref="C177:C181"/>
@@ -18410,82 +18891,78 @@
     <mergeCell ref="B167:B176"/>
     <mergeCell ref="C167:C176"/>
     <mergeCell ref="D167:D176"/>
-    <mergeCell ref="A226:A231"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="A232:A239"/>
-    <mergeCell ref="B232:B239"/>
-    <mergeCell ref="C232:C239"/>
-    <mergeCell ref="D232:D239"/>
-    <mergeCell ref="A196:A218"/>
-    <mergeCell ref="B196:B218"/>
-    <mergeCell ref="C196:C218"/>
-    <mergeCell ref="D196:D218"/>
-    <mergeCell ref="A219:A225"/>
-    <mergeCell ref="B219:B225"/>
-    <mergeCell ref="C219:C225"/>
-    <mergeCell ref="D219:D225"/>
-    <mergeCell ref="A262:A292"/>
-    <mergeCell ref="B262:B292"/>
-    <mergeCell ref="C262:C292"/>
-    <mergeCell ref="D262:D292"/>
-    <mergeCell ref="A293:A299"/>
-    <mergeCell ref="B293:B299"/>
-    <mergeCell ref="C293:C299"/>
-    <mergeCell ref="D293:D299"/>
-    <mergeCell ref="A240:A244"/>
-    <mergeCell ref="B240:B244"/>
-    <mergeCell ref="C240:C244"/>
-    <mergeCell ref="D240:D244"/>
-    <mergeCell ref="A245:A261"/>
-    <mergeCell ref="B245:B261"/>
-    <mergeCell ref="C245:C261"/>
-    <mergeCell ref="D245:D261"/>
-    <mergeCell ref="A314:A318"/>
-    <mergeCell ref="B314:B318"/>
-    <mergeCell ref="C314:C318"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="A319:A326"/>
-    <mergeCell ref="B319:B326"/>
-    <mergeCell ref="C319:C326"/>
-    <mergeCell ref="D319:D326"/>
-    <mergeCell ref="A300:A305"/>
-    <mergeCell ref="B300:B305"/>
-    <mergeCell ref="C300:C305"/>
-    <mergeCell ref="D300:D305"/>
-    <mergeCell ref="A306:A313"/>
-    <mergeCell ref="B306:B313"/>
-    <mergeCell ref="C306:C313"/>
-    <mergeCell ref="D306:D313"/>
-    <mergeCell ref="A345:A353"/>
-    <mergeCell ref="B345:B353"/>
-    <mergeCell ref="C345:C353"/>
-    <mergeCell ref="D345:D353"/>
-    <mergeCell ref="A354:A366"/>
-    <mergeCell ref="B354:B366"/>
-    <mergeCell ref="C354:C366"/>
-    <mergeCell ref="D354:D366"/>
-    <mergeCell ref="A327:A335"/>
-    <mergeCell ref="B327:B335"/>
-    <mergeCell ref="C327:C335"/>
-    <mergeCell ref="D327:D335"/>
-    <mergeCell ref="A336:A344"/>
-    <mergeCell ref="B336:B344"/>
-    <mergeCell ref="C336:C344"/>
-    <mergeCell ref="D336:D344"/>
-    <mergeCell ref="A379:A387"/>
-    <mergeCell ref="B379:B387"/>
-    <mergeCell ref="C379:C387"/>
-    <mergeCell ref="D379:D387"/>
-    <mergeCell ref="A367:A371"/>
-    <mergeCell ref="B367:B371"/>
-    <mergeCell ref="C367:C371"/>
-    <mergeCell ref="D367:D371"/>
-    <mergeCell ref="A372:A378"/>
-    <mergeCell ref="B372:B378"/>
-    <mergeCell ref="C372:C378"/>
-    <mergeCell ref="D372:D378"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C7:C24"/>
+    <mergeCell ref="D7:D24"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="B25:B44"/>
+    <mergeCell ref="C25:C44"/>
+    <mergeCell ref="D25:D44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="D45:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="C64:C72"/>
+    <mergeCell ref="D64:D72"/>
+    <mergeCell ref="A73:A88"/>
+    <mergeCell ref="B73:B88"/>
+    <mergeCell ref="C73:C88"/>
+    <mergeCell ref="D73:D88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="C96:C105"/>
+    <mergeCell ref="D96:D105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="D111:D115"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="B116:B130"/>
+    <mergeCell ref="C116:C130"/>
+    <mergeCell ref="D116:D130"/>
+    <mergeCell ref="A131:A137"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="A138:A144"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="D138:D144"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1"/>

--- a/Data/Input/TestCases.xlsx
+++ b/Data/Input/TestCases.xlsx
@@ -5830,74 +5830,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5911,12 +5878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5929,20 +5890,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6235,16 +6235,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="51">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="107" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="107" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="33" t="s">
         <v>12</v>
       </c>
@@ -6269,10 +6269,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="33" t="s">
         <v>13</v>
       </c>
@@ -6295,10 +6295,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="133"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="33" t="s">
         <v>14</v>
       </c>
@@ -6321,10 +6321,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="133"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
@@ -6347,16 +6347,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="51">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="100" t="s">
         <v>490</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="100" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="132"/>
+      <c r="D6" s="104"/>
       <c r="E6" s="33" t="s">
         <v>12</v>
       </c>
@@ -6381,10 +6381,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="25.5">
-      <c r="A7" s="119"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="133"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
@@ -6407,10 +6407,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="45">
-      <c r="A8" s="119"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="133"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="40" t="s">
         <v>14</v>
       </c>
@@ -6433,10 +6433,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="45">
-      <c r="A9" s="119"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="133"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
@@ -6461,10 +6461,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
-      <c r="A10" s="119"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="133"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="40" t="s">
         <v>16</v>
       </c>
@@ -6487,10 +6487,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
-      <c r="A11" s="119"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="133"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="40" t="s">
         <v>44</v>
       </c>
@@ -6515,10 +6515,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
-      <c r="A12" s="119"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="133"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="40" t="s">
         <v>49</v>
       </c>
@@ -6541,10 +6541,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
-      <c r="A13" s="119"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="133"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="40" t="s">
         <v>54</v>
       </c>
@@ -6569,10 +6569,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
-      <c r="A14" s="119"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="133"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="105"/>
       <c r="E14" s="40" t="s">
         <v>60</v>
       </c>
@@ -6595,10 +6595,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="38.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="133"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="40" t="s">
         <v>65</v>
       </c>
@@ -6621,16 +6621,16 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="51">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="107" t="s">
         <v>523</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="107" t="s">
         <v>524</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="107" t="s">
         <v>524</v>
       </c>
-      <c r="D16" s="132"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="33" t="s">
         <v>12</v>
       </c>
@@ -6655,10 +6655,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="25.5">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="133"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="33" t="s">
         <v>13</v>
       </c>
@@ -6681,10 +6681,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="45">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="133"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="105"/>
       <c r="E18" s="33" t="s">
         <v>14</v>
       </c>
@@ -6707,10 +6707,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="30">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="133"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="33" t="s">
         <v>15</v>
       </c>
@@ -6735,10 +6735,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="38.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="133"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="33" t="s">
         <v>16</v>
       </c>
@@ -6761,16 +6761,16 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="51">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="100" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="100" t="s">
         <v>544</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="100" t="s">
         <v>544</v>
       </c>
-      <c r="D21" s="132"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="33" t="s">
         <v>12</v>
       </c>
@@ -6795,10 +6795,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="25.5">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="133"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="105"/>
       <c r="E22" s="33" t="s">
         <v>13</v>
       </c>
@@ -6821,10 +6821,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="25.5">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="133"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="33" t="s">
         <v>14</v>
       </c>
@@ -6847,10 +6847,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="133"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="33" t="s">
         <v>15</v>
       </c>
@@ -6875,10 +6875,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="133"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="33" t="s">
         <v>16</v>
       </c>
@@ -6903,10 +6903,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="133"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="33" t="s">
         <v>44</v>
       </c>
@@ -6931,10 +6931,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="133"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="33" t="s">
         <v>49</v>
       </c>
@@ -6959,10 +6959,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="45">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="133"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="33" t="s">
         <v>54</v>
       </c>
@@ -6987,10 +6987,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="45">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="133"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="33" t="s">
         <v>60</v>
       </c>
@@ -7015,10 +7015,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="45">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="133"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="33" t="s">
         <v>65</v>
       </c>
@@ -7041,10 +7041,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="60">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="133"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="33" t="s">
         <v>71</v>
       </c>
@@ -7067,10 +7067,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="133"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="105"/>
       <c r="E32" s="33" t="s">
         <v>76</v>
       </c>
@@ -7093,10 +7093,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="45">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="133"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="33" t="s">
         <v>82</v>
       </c>
@@ -7121,10 +7121,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="38.25">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="133"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="33" t="s">
         <v>84</v>
       </c>
@@ -7147,16 +7147,16 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="51">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="100" t="s">
         <v>605</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="D35" s="132"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="33" t="s">
         <v>12</v>
       </c>
@@ -7181,10 +7181,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="25.5">
-      <c r="A36" s="119"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="133"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="105"/>
       <c r="E36" s="33" t="s">
         <v>13</v>
       </c>
@@ -7207,10 +7207,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="25.5">
-      <c r="A37" s="119"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="133"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="33" t="s">
         <v>14</v>
       </c>
@@ -7233,10 +7233,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="30">
-      <c r="A38" s="119"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="133"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="33" t="s">
         <v>15</v>
       </c>
@@ -7261,10 +7261,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="119"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="133"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="33" t="s">
         <v>16</v>
       </c>
@@ -7289,10 +7289,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="30">
-      <c r="A40" s="119"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="133"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="105"/>
       <c r="E40" s="33" t="s">
         <v>44</v>
       </c>
@@ -7317,10 +7317,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30">
-      <c r="A41" s="119"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="133"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="33" t="s">
         <v>49</v>
       </c>
@@ -7345,10 +7345,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="45">
-      <c r="A42" s="119"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="133"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="105"/>
       <c r="E42" s="33" t="s">
         <v>54</v>
       </c>
@@ -7373,10 +7373,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="45">
-      <c r="A43" s="119"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="133"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="105"/>
       <c r="E43" s="33" t="s">
         <v>60</v>
       </c>
@@ -7401,10 +7401,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="45">
-      <c r="A44" s="119"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="133"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="33" t="s">
         <v>65</v>
       </c>
@@ -7427,10 +7427,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="60">
-      <c r="A45" s="119"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="133"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="33" t="s">
         <v>71</v>
       </c>
@@ -7453,10 +7453,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="45">
-      <c r="A46" s="119"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="133"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="105"/>
       <c r="E46" s="33" t="s">
         <v>76</v>
       </c>
@@ -7479,10 +7479,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="60">
-      <c r="A47" s="119"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="133"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="105"/>
       <c r="E47" s="33" t="s">
         <v>82</v>
       </c>
@@ -7505,10 +7505,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="119"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="133"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="105"/>
       <c r="E48" s="33" t="s">
         <v>84</v>
       </c>
@@ -7533,10 +7533,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30">
-      <c r="A49" s="119"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="133"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="33" t="s">
         <v>89</v>
       </c>
@@ -7561,10 +7561,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30">
-      <c r="A50" s="119"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="133"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="33" t="s">
         <v>106</v>
       </c>
@@ -7589,10 +7589,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="30">
-      <c r="A51" s="119"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="133"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="33" t="s">
         <v>107</v>
       </c>
@@ -7617,10 +7617,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="45">
-      <c r="A52" s="119"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="133"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="33" t="s">
         <v>128</v>
       </c>
@@ -7645,10 +7645,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="45">
-      <c r="A53" s="119"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="133"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="105"/>
       <c r="E53" s="33" t="s">
         <v>130</v>
       </c>
@@ -7673,10 +7673,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="45">
-      <c r="A54" s="119"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="133"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="105"/>
       <c r="E54" s="33" t="s">
         <v>414</v>
       </c>
@@ -7699,10 +7699,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="60">
-      <c r="A55" s="119"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="133"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="33" t="s">
         <v>637</v>
       </c>
@@ -7725,10 +7725,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="45">
-      <c r="A56" s="119"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="133"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="105"/>
       <c r="E56" s="33" t="s">
         <v>640</v>
       </c>
@@ -7753,10 +7753,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="38.25">
-      <c r="A57" s="119"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="135"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="33" t="s">
         <v>642</v>
       </c>
@@ -7779,16 +7779,16 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="51">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="100" t="s">
         <v>644</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="B58" s="100" t="s">
         <v>645</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="100" t="s">
         <v>645</v>
       </c>
-      <c r="D58" s="136"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="33" t="s">
         <v>12</v>
       </c>
@@ -7813,10 +7813,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="25.5">
-      <c r="A59" s="119"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="136"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="33" t="s">
         <v>13</v>
       </c>
@@ -7839,10 +7839,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="30">
-      <c r="A60" s="119"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="136"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="33" t="s">
         <v>14</v>
       </c>
@@ -7867,10 +7867,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="45">
-      <c r="A61" s="119"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="136"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="102"/>
       <c r="E61" s="33" t="s">
         <v>15</v>
       </c>
@@ -7895,10 +7895,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="60">
-      <c r="A62" s="119"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="136"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="33" t="s">
         <v>16</v>
       </c>
@@ -7921,10 +7921,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="45">
-      <c r="A63" s="119"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="136"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="33" t="s">
         <v>44</v>
       </c>
@@ -7949,10 +7949,10 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="38.25">
-      <c r="A64" s="119"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="136"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="33" t="s">
         <v>49</v>
       </c>
@@ -7975,16 +7975,16 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="51">
-      <c r="A65" s="119" t="s">
+      <c r="A65" s="100" t="s">
         <v>670</v>
       </c>
-      <c r="B65" s="119" t="s">
+      <c r="B65" s="100" t="s">
         <v>671</v>
       </c>
-      <c r="C65" s="119" t="s">
+      <c r="C65" s="100" t="s">
         <v>671</v>
       </c>
-      <c r="D65" s="136"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="33" t="s">
         <v>12</v>
       </c>
@@ -8009,10 +8009,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="25.5">
-      <c r="A66" s="119"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="136"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="33" t="s">
         <v>13</v>
       </c>
@@ -8035,10 +8035,10 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="60">
-      <c r="A67" s="119"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="136"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="33" t="s">
         <v>14</v>
       </c>
@@ -8063,10 +8063,10 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="119"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="136"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="102"/>
       <c r="E68" s="33" t="s">
         <v>15</v>
       </c>
@@ -8089,10 +8089,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="45">
-      <c r="A69" s="119"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="136"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="102"/>
       <c r="E69" s="33" t="s">
         <v>16</v>
       </c>
@@ -8117,10 +8117,10 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="38.25">
-      <c r="A70" s="119"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="136"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="102"/>
       <c r="E70" s="33" t="s">
         <v>44</v>
       </c>
@@ -8143,16 +8143,16 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="51">
-      <c r="A71" s="119" t="s">
+      <c r="A71" s="100" t="s">
         <v>690</v>
       </c>
-      <c r="B71" s="119" t="s">
+      <c r="B71" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="C71" s="119" t="s">
+      <c r="C71" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="D71" s="136"/>
+      <c r="D71" s="102"/>
       <c r="E71" s="33" t="s">
         <v>12</v>
       </c>
@@ -8177,10 +8177,10 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="25.5">
-      <c r="A72" s="119"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="136"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="102"/>
       <c r="E72" s="33" t="s">
         <v>13</v>
       </c>
@@ -8203,10 +8203,10 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="38.25">
-      <c r="A73" s="119"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="136"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="102"/>
       <c r="E73" s="33" t="s">
         <v>14</v>
       </c>
@@ -8231,10 +8231,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="30">
-      <c r="A74" s="119"/>
-      <c r="B74" s="119"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="136"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="102"/>
       <c r="E74" s="33" t="s">
         <v>15</v>
       </c>
@@ -8259,10 +8259,10 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="45">
-      <c r="A75" s="119"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="136"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="102"/>
       <c r="E75" s="33" t="s">
         <v>16</v>
       </c>
@@ -8287,10 +8287,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="60">
-      <c r="A76" s="119"/>
-      <c r="B76" s="119"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="136"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="102"/>
       <c r="E76" s="33" t="s">
         <v>44</v>
       </c>
@@ -8313,10 +8313,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="45">
-      <c r="A77" s="119"/>
-      <c r="B77" s="119"/>
-      <c r="C77" s="119"/>
-      <c r="D77" s="136"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="102"/>
       <c r="E77" s="33" t="s">
         <v>49</v>
       </c>
@@ -8341,10 +8341,10 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="38.25">
-      <c r="A78" s="119"/>
-      <c r="B78" s="119"/>
-      <c r="C78" s="119"/>
-      <c r="D78" s="136"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="33" t="s">
         <v>54</v>
       </c>
@@ -8367,16 +8367,16 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="51">
-      <c r="A79" s="119" t="s">
+      <c r="A79" s="100" t="s">
         <v>715</v>
       </c>
-      <c r="B79" s="119" t="s">
+      <c r="B79" s="100" t="s">
         <v>716</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="100" t="s">
         <v>716</v>
       </c>
-      <c r="D79" s="136"/>
+      <c r="D79" s="102"/>
       <c r="E79" s="33" t="s">
         <v>12</v>
       </c>
@@ -8401,10 +8401,10 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="25.5">
-      <c r="A80" s="119"/>
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="136"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="102"/>
       <c r="E80" s="33" t="s">
         <v>13</v>
       </c>
@@ -8427,10 +8427,10 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="45">
-      <c r="A81" s="119"/>
-      <c r="B81" s="119"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="136"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="102"/>
       <c r="E81" s="33" t="s">
         <v>14</v>
       </c>
@@ -8453,10 +8453,10 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="30">
-      <c r="A82" s="119"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="136"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="102"/>
       <c r="E82" s="33" t="s">
         <v>15</v>
       </c>
@@ -8481,10 +8481,10 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="38.25">
-      <c r="A83" s="119"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="136"/>
+      <c r="A83" s="100"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="102"/>
       <c r="E83" s="33" t="s">
         <v>16</v>
       </c>
@@ -8507,16 +8507,16 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="51">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="100" t="s">
         <v>728</v>
       </c>
-      <c r="B84" s="119" t="s">
+      <c r="B84" s="100" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="119" t="s">
+      <c r="C84" s="100" t="s">
         <v>729</v>
       </c>
-      <c r="D84" s="132"/>
+      <c r="D84" s="104"/>
       <c r="E84" s="33" t="s">
         <v>12</v>
       </c>
@@ -8541,10 +8541,10 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="25.5">
-      <c r="A85" s="119"/>
-      <c r="B85" s="119"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="133"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="105"/>
       <c r="E85" s="33" t="s">
         <v>13</v>
       </c>
@@ -8567,10 +8567,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="25.5">
-      <c r="A86" s="119"/>
-      <c r="B86" s="119"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="133"/>
+      <c r="A86" s="100"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="105"/>
       <c r="E86" s="33" t="s">
         <v>14</v>
       </c>
@@ -8593,10 +8593,10 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="30">
-      <c r="A87" s="119"/>
-      <c r="B87" s="119"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="133"/>
+      <c r="A87" s="100"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="105"/>
       <c r="E87" s="33" t="s">
         <v>15</v>
       </c>
@@ -8621,10 +8621,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="30">
-      <c r="A88" s="119"/>
-      <c r="B88" s="119"/>
-      <c r="C88" s="119"/>
-      <c r="D88" s="133"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="105"/>
       <c r="E88" s="33" t="s">
         <v>16</v>
       </c>
@@ -8649,10 +8649,10 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="30">
-      <c r="A89" s="119"/>
-      <c r="B89" s="119"/>
-      <c r="C89" s="119"/>
-      <c r="D89" s="133"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="105"/>
       <c r="E89" s="33" t="s">
         <v>44</v>
       </c>
@@ -8677,10 +8677,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="45">
-      <c r="A90" s="119"/>
-      <c r="B90" s="119"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="133"/>
+      <c r="A90" s="100"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="105"/>
       <c r="E90" s="33" t="s">
         <v>49</v>
       </c>
@@ -8705,10 +8705,10 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="60">
-      <c r="A91" s="119"/>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="133"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="105"/>
       <c r="E91" s="33" t="s">
         <v>54</v>
       </c>
@@ -8731,10 +8731,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="30">
-      <c r="A92" s="119"/>
-      <c r="B92" s="119"/>
-      <c r="C92" s="119"/>
-      <c r="D92" s="133"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="105"/>
       <c r="E92" s="33" t="s">
         <v>60</v>
       </c>
@@ -8759,10 +8759,10 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="60">
-      <c r="A93" s="119"/>
-      <c r="B93" s="119"/>
-      <c r="C93" s="119"/>
-      <c r="D93" s="133"/>
+      <c r="A93" s="100"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="105"/>
       <c r="E93" s="33" t="s">
         <v>65</v>
       </c>
@@ -8787,10 +8787,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="119"/>
-      <c r="B94" s="119"/>
-      <c r="C94" s="119"/>
-      <c r="D94" s="133"/>
+      <c r="A94" s="100"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="105"/>
       <c r="E94" s="33" t="s">
         <v>71</v>
       </c>
@@ -8815,10 +8815,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="60">
-      <c r="A95" s="119"/>
-      <c r="B95" s="119"/>
-      <c r="C95" s="119"/>
-      <c r="D95" s="133"/>
+      <c r="A95" s="100"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="105"/>
       <c r="E95" s="33" t="s">
         <v>76</v>
       </c>
@@ -8843,10 +8843,10 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="30">
-      <c r="A96" s="119"/>
-      <c r="B96" s="119"/>
-      <c r="C96" s="119"/>
-      <c r="D96" s="133"/>
+      <c r="A96" s="100"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="105"/>
       <c r="E96" s="33" t="s">
         <v>82</v>
       </c>
@@ -8871,10 +8871,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="30">
-      <c r="A97" s="119"/>
-      <c r="B97" s="119"/>
-      <c r="C97" s="119"/>
-      <c r="D97" s="133"/>
+      <c r="A97" s="100"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="105"/>
       <c r="E97" s="33" t="s">
         <v>84</v>
       </c>
@@ -8899,10 +8899,10 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="60">
-      <c r="A98" s="119"/>
-      <c r="B98" s="119"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="133"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="105"/>
       <c r="E98" s="33" t="s">
         <v>89</v>
       </c>
@@ -8925,10 +8925,10 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="45">
-      <c r="A99" s="119"/>
-      <c r="B99" s="119"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="133"/>
+      <c r="A99" s="100"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="105"/>
       <c r="E99" s="33" t="s">
         <v>106</v>
       </c>
@@ -8953,10 +8953,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="38.25">
-      <c r="A100" s="119"/>
-      <c r="B100" s="119"/>
-      <c r="C100" s="119"/>
-      <c r="D100" s="135"/>
+      <c r="A100" s="100"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="106"/>
       <c r="E100" s="33" t="s">
         <v>107</v>
       </c>
@@ -8979,16 +8979,16 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="51">
-      <c r="A101" s="119" t="s">
+      <c r="A101" s="100" t="s">
         <v>787</v>
       </c>
-      <c r="B101" s="119" t="s">
+      <c r="B101" s="100" t="s">
         <v>788</v>
       </c>
-      <c r="C101" s="119" t="s">
+      <c r="C101" s="100" t="s">
         <v>788</v>
       </c>
-      <c r="D101" s="132"/>
+      <c r="D101" s="104"/>
       <c r="E101" s="33" t="s">
         <v>12</v>
       </c>
@@ -9013,10 +9013,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="25.5">
-      <c r="A102" s="119"/>
-      <c r="B102" s="119"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="133"/>
+      <c r="A102" s="100"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="105"/>
       <c r="E102" s="33" t="s">
         <v>13</v>
       </c>
@@ -9039,10 +9039,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="25.5">
-      <c r="A103" s="119"/>
-      <c r="B103" s="119"/>
-      <c r="C103" s="119"/>
-      <c r="D103" s="133"/>
+      <c r="A103" s="100"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="105"/>
       <c r="E103" s="33" t="s">
         <v>14</v>
       </c>
@@ -9065,10 +9065,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="30">
-      <c r="A104" s="119"/>
-      <c r="B104" s="119"/>
-      <c r="C104" s="119"/>
-      <c r="D104" s="133"/>
+      <c r="A104" s="100"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="105"/>
       <c r="E104" s="33" t="s">
         <v>15</v>
       </c>
@@ -9093,10 +9093,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="30">
-      <c r="A105" s="119"/>
-      <c r="B105" s="119"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="133"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="105"/>
       <c r="E105" s="33" t="s">
         <v>16</v>
       </c>
@@ -9121,10 +9121,10 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="30">
-      <c r="A106" s="119"/>
-      <c r="B106" s="119"/>
-      <c r="C106" s="119"/>
-      <c r="D106" s="133"/>
+      <c r="A106" s="100"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="105"/>
       <c r="E106" s="33" t="s">
         <v>44</v>
       </c>
@@ -9149,10 +9149,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="45">
-      <c r="A107" s="119"/>
-      <c r="B107" s="119"/>
-      <c r="C107" s="119"/>
-      <c r="D107" s="133"/>
+      <c r="A107" s="100"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="105"/>
       <c r="E107" s="33" t="s">
         <v>49</v>
       </c>
@@ -9177,10 +9177,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="60">
-      <c r="A108" s="119"/>
-      <c r="B108" s="119"/>
-      <c r="C108" s="119"/>
-      <c r="D108" s="133"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="105"/>
       <c r="E108" s="33" t="s">
         <v>54</v>
       </c>
@@ -9203,10 +9203,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="119"/>
-      <c r="B109" s="119"/>
-      <c r="C109" s="119"/>
-      <c r="D109" s="133"/>
+      <c r="A109" s="100"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="105"/>
       <c r="E109" s="33" t="s">
         <v>60</v>
       </c>
@@ -9231,10 +9231,10 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="60">
-      <c r="A110" s="119"/>
-      <c r="B110" s="119"/>
-      <c r="C110" s="119"/>
-      <c r="D110" s="133"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="105"/>
       <c r="E110" s="33" t="s">
         <v>65</v>
       </c>
@@ -9259,10 +9259,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="30">
-      <c r="A111" s="119"/>
-      <c r="B111" s="119"/>
-      <c r="C111" s="119"/>
-      <c r="D111" s="133"/>
+      <c r="A111" s="100"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="105"/>
       <c r="E111" s="33" t="s">
         <v>71</v>
       </c>
@@ -9287,10 +9287,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="60">
-      <c r="A112" s="119"/>
-      <c r="B112" s="119"/>
-      <c r="C112" s="119"/>
-      <c r="D112" s="133"/>
+      <c r="A112" s="100"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="105"/>
       <c r="E112" s="33" t="s">
         <v>76</v>
       </c>
@@ -9315,10 +9315,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="30">
-      <c r="A113" s="119"/>
-      <c r="B113" s="119"/>
-      <c r="C113" s="119"/>
-      <c r="D113" s="133"/>
+      <c r="A113" s="100"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="100"/>
+      <c r="D113" s="105"/>
       <c r="E113" s="33" t="s">
         <v>82</v>
       </c>
@@ -9343,10 +9343,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="30">
-      <c r="A114" s="119"/>
-      <c r="B114" s="119"/>
-      <c r="C114" s="119"/>
-      <c r="D114" s="133"/>
+      <c r="A114" s="100"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="100"/>
+      <c r="D114" s="105"/>
       <c r="E114" s="33" t="s">
         <v>84</v>
       </c>
@@ -9371,10 +9371,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="60">
-      <c r="A115" s="119"/>
-      <c r="B115" s="119"/>
-      <c r="C115" s="119"/>
-      <c r="D115" s="133"/>
+      <c r="A115" s="100"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="105"/>
       <c r="E115" s="33" t="s">
         <v>89</v>
       </c>
@@ -9397,10 +9397,10 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="30">
-      <c r="A116" s="119"/>
-      <c r="B116" s="119"/>
-      <c r="C116" s="119"/>
-      <c r="D116" s="133"/>
+      <c r="A116" s="100"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="100"/>
+      <c r="D116" s="105"/>
       <c r="E116" s="33" t="s">
         <v>106</v>
       </c>
@@ -9425,10 +9425,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="45">
-      <c r="A117" s="119"/>
-      <c r="B117" s="119"/>
-      <c r="C117" s="119"/>
-      <c r="D117" s="133"/>
+      <c r="A117" s="100"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="105"/>
       <c r="E117" s="33" t="s">
         <v>107</v>
       </c>
@@ -9451,10 +9451,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="30">
-      <c r="A118" s="119"/>
-      <c r="B118" s="119"/>
-      <c r="C118" s="119"/>
-      <c r="D118" s="133"/>
+      <c r="A118" s="100"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="100"/>
+      <c r="D118" s="105"/>
       <c r="E118" s="33" t="s">
         <v>128</v>
       </c>
@@ -9479,10 +9479,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="30">
-      <c r="A119" s="119"/>
-      <c r="B119" s="119"/>
-      <c r="C119" s="119"/>
-      <c r="D119" s="133"/>
+      <c r="A119" s="100"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="100"/>
+      <c r="D119" s="105"/>
       <c r="E119" s="33" t="s">
         <v>130</v>
       </c>
@@ -9507,10 +9507,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="30">
-      <c r="A120" s="119"/>
-      <c r="B120" s="119"/>
-      <c r="C120" s="119"/>
-      <c r="D120" s="133"/>
+      <c r="A120" s="100"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="100"/>
+      <c r="D120" s="105"/>
       <c r="E120" s="33" t="s">
         <v>414</v>
       </c>
@@ -9535,10 +9535,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="45">
-      <c r="A121" s="119"/>
-      <c r="B121" s="119"/>
-      <c r="C121" s="119"/>
-      <c r="D121" s="133"/>
+      <c r="A121" s="100"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="100"/>
+      <c r="D121" s="105"/>
       <c r="E121" s="33" t="s">
         <v>637</v>
       </c>
@@ -9563,10 +9563,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="60">
-      <c r="A122" s="119"/>
-      <c r="B122" s="119"/>
-      <c r="C122" s="119"/>
-      <c r="D122" s="133"/>
+      <c r="A122" s="100"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="100"/>
+      <c r="D122" s="105"/>
       <c r="E122" s="33" t="s">
         <v>640</v>
       </c>
@@ -9589,10 +9589,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="30">
-      <c r="A123" s="119"/>
-      <c r="B123" s="119"/>
-      <c r="C123" s="119"/>
-      <c r="D123" s="133"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="100"/>
+      <c r="D123" s="105"/>
       <c r="E123" s="33" t="s">
         <v>642</v>
       </c>
@@ -9617,10 +9617,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="60">
-      <c r="A124" s="119"/>
-      <c r="B124" s="119"/>
-      <c r="C124" s="119"/>
-      <c r="D124" s="133"/>
+      <c r="A124" s="100"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="100"/>
+      <c r="D124" s="105"/>
       <c r="E124" s="33" t="s">
         <v>825</v>
       </c>
@@ -9645,10 +9645,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="30">
-      <c r="A125" s="119"/>
-      <c r="B125" s="119"/>
-      <c r="C125" s="119"/>
-      <c r="D125" s="133"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="105"/>
       <c r="E125" s="33" t="s">
         <v>827</v>
       </c>
@@ -9673,10 +9673,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="60">
-      <c r="A126" s="119"/>
-      <c r="B126" s="119"/>
-      <c r="C126" s="119"/>
-      <c r="D126" s="133"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="100"/>
+      <c r="D126" s="105"/>
       <c r="E126" s="33" t="s">
         <v>829</v>
       </c>
@@ -9701,10 +9701,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="30">
-      <c r="A127" s="119"/>
-      <c r="B127" s="119"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="133"/>
+      <c r="A127" s="100"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="105"/>
       <c r="E127" s="33" t="s">
         <v>831</v>
       </c>
@@ -9729,10 +9729,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="30">
-      <c r="A128" s="119"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="119"/>
-      <c r="D128" s="133"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="100"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="105"/>
       <c r="E128" s="33" t="s">
         <v>833</v>
       </c>
@@ -9757,10 +9757,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="60">
-      <c r="A129" s="119"/>
-      <c r="B129" s="119"/>
-      <c r="C129" s="119"/>
-      <c r="D129" s="133"/>
+      <c r="A129" s="100"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="105"/>
       <c r="E129" s="33" t="s">
         <v>835</v>
       </c>
@@ -9783,10 +9783,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="45">
-      <c r="A130" s="119"/>
-      <c r="B130" s="119"/>
-      <c r="C130" s="119"/>
-      <c r="D130" s="133"/>
+      <c r="A130" s="100"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="105"/>
       <c r="E130" s="33" t="s">
         <v>837</v>
       </c>
@@ -9811,10 +9811,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="38.25">
-      <c r="A131" s="119"/>
-      <c r="B131" s="119"/>
-      <c r="C131" s="119"/>
-      <c r="D131" s="135"/>
+      <c r="A131" s="100"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="106"/>
       <c r="E131" s="33" t="s">
         <v>843</v>
       </c>
@@ -9837,16 +9837,16 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="51">
-      <c r="A132" s="119" t="s">
+      <c r="A132" s="100" t="s">
         <v>845</v>
       </c>
-      <c r="B132" s="119" t="s">
+      <c r="B132" s="100" t="s">
         <v>846</v>
       </c>
-      <c r="C132" s="119" t="s">
+      <c r="C132" s="100" t="s">
         <v>846</v>
       </c>
-      <c r="D132" s="136"/>
+      <c r="D132" s="102"/>
       <c r="E132" s="33" t="s">
         <v>12</v>
       </c>
@@ -9871,10 +9871,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="25.5">
-      <c r="A133" s="119"/>
-      <c r="B133" s="119"/>
-      <c r="C133" s="119"/>
-      <c r="D133" s="136"/>
+      <c r="A133" s="100"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="102"/>
       <c r="E133" s="33" t="s">
         <v>13</v>
       </c>
@@ -9897,10 +9897,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="30">
-      <c r="A134" s="119"/>
-      <c r="B134" s="119"/>
-      <c r="C134" s="119"/>
-      <c r="D134" s="136"/>
+      <c r="A134" s="100"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="100"/>
+      <c r="D134" s="102"/>
       <c r="E134" s="33" t="s">
         <v>14</v>
       </c>
@@ -9925,10 +9925,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="45">
-      <c r="A135" s="119"/>
-      <c r="B135" s="119"/>
-      <c r="C135" s="119"/>
-      <c r="D135" s="136"/>
+      <c r="A135" s="100"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="102"/>
       <c r="E135" s="33" t="s">
         <v>15</v>
       </c>
@@ -9953,10 +9953,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="60">
-      <c r="A136" s="119"/>
-      <c r="B136" s="119"/>
-      <c r="C136" s="119"/>
-      <c r="D136" s="136"/>
+      <c r="A136" s="100"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="100"/>
+      <c r="D136" s="102"/>
       <c r="E136" s="33" t="s">
         <v>16</v>
       </c>
@@ -9979,10 +9979,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="45">
-      <c r="A137" s="119"/>
-      <c r="B137" s="119"/>
-      <c r="C137" s="119"/>
-      <c r="D137" s="136"/>
+      <c r="A137" s="100"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="102"/>
       <c r="E137" s="33" t="s">
         <v>44</v>
       </c>
@@ -10007,10 +10007,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="38.25">
-      <c r="A138" s="119"/>
-      <c r="B138" s="119"/>
-      <c r="C138" s="119"/>
-      <c r="D138" s="136"/>
+      <c r="A138" s="100"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="102"/>
       <c r="E138" s="33" t="s">
         <v>49</v>
       </c>
@@ -10033,16 +10033,16 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="51">
-      <c r="A139" s="119" t="s">
+      <c r="A139" s="100" t="s">
         <v>873</v>
       </c>
-      <c r="B139" s="119" t="s">
+      <c r="B139" s="100" t="s">
         <v>874</v>
       </c>
-      <c r="C139" s="119" t="s">
+      <c r="C139" s="100" t="s">
         <v>874</v>
       </c>
-      <c r="D139" s="136"/>
+      <c r="D139" s="102"/>
       <c r="E139" s="33" t="s">
         <v>12</v>
       </c>
@@ -10067,10 +10067,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="25.5">
-      <c r="A140" s="119"/>
-      <c r="B140" s="119"/>
-      <c r="C140" s="119"/>
-      <c r="D140" s="136"/>
+      <c r="A140" s="100"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="102"/>
       <c r="E140" s="33" t="s">
         <v>13</v>
       </c>
@@ -10093,10 +10093,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="60">
-      <c r="A141" s="119"/>
-      <c r="B141" s="119"/>
-      <c r="C141" s="119"/>
-      <c r="D141" s="136"/>
+      <c r="A141" s="100"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="100"/>
+      <c r="D141" s="102"/>
       <c r="E141" s="33" t="s">
         <v>14</v>
       </c>
@@ -10121,10 +10121,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="30">
-      <c r="A142" s="119"/>
-      <c r="B142" s="119"/>
-      <c r="C142" s="119"/>
-      <c r="D142" s="136"/>
+      <c r="A142" s="100"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="100"/>
+      <c r="D142" s="102"/>
       <c r="E142" s="33" t="s">
         <v>15</v>
       </c>
@@ -10147,10 +10147,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="45">
-      <c r="A143" s="119"/>
-      <c r="B143" s="119"/>
-      <c r="C143" s="119"/>
-      <c r="D143" s="136"/>
+      <c r="A143" s="100"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="100"/>
+      <c r="D143" s="102"/>
       <c r="E143" s="33" t="s">
         <v>16</v>
       </c>
@@ -10175,10 +10175,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="38.25">
-      <c r="A144" s="119"/>
-      <c r="B144" s="119"/>
-      <c r="C144" s="119"/>
-      <c r="D144" s="136"/>
+      <c r="A144" s="100"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="100"/>
+      <c r="D144" s="102"/>
       <c r="E144" s="33" t="s">
         <v>44</v>
       </c>
@@ -10201,16 +10201,16 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="51">
-      <c r="A145" s="119" t="s">
+      <c r="A145" s="100" t="s">
         <v>886</v>
       </c>
-      <c r="B145" s="119" t="s">
+      <c r="B145" s="100" t="s">
         <v>887</v>
       </c>
-      <c r="C145" s="119" t="s">
+      <c r="C145" s="100" t="s">
         <v>887</v>
       </c>
-      <c r="D145" s="136"/>
+      <c r="D145" s="102"/>
       <c r="E145" s="33" t="s">
         <v>12</v>
       </c>
@@ -10235,10 +10235,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="25.5">
-      <c r="A146" s="119"/>
-      <c r="B146" s="119"/>
-      <c r="C146" s="119"/>
-      <c r="D146" s="136"/>
+      <c r="A146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="102"/>
       <c r="E146" s="33" t="s">
         <v>13</v>
       </c>
@@ -10261,10 +10261,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="38.25">
-      <c r="A147" s="119"/>
-      <c r="B147" s="119"/>
-      <c r="C147" s="119"/>
-      <c r="D147" s="136"/>
+      <c r="A147" s="100"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="100"/>
+      <c r="D147" s="102"/>
       <c r="E147" s="33" t="s">
         <v>14</v>
       </c>
@@ -10289,10 +10289,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="30">
-      <c r="A148" s="119"/>
-      <c r="B148" s="119"/>
-      <c r="C148" s="119"/>
-      <c r="D148" s="136"/>
+      <c r="A148" s="100"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="100"/>
+      <c r="D148" s="102"/>
       <c r="E148" s="33" t="s">
         <v>15</v>
       </c>
@@ -10317,10 +10317,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="45">
-      <c r="A149" s="119"/>
-      <c r="B149" s="119"/>
-      <c r="C149" s="119"/>
-      <c r="D149" s="136"/>
+      <c r="A149" s="100"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="102"/>
       <c r="E149" s="33" t="s">
         <v>16</v>
       </c>
@@ -10345,10 +10345,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="60">
-      <c r="A150" s="119"/>
-      <c r="B150" s="119"/>
-      <c r="C150" s="119"/>
-      <c r="D150" s="136"/>
+      <c r="A150" s="100"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="100"/>
+      <c r="D150" s="102"/>
       <c r="E150" s="33" t="s">
         <v>44</v>
       </c>
@@ -10371,10 +10371,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="45">
-      <c r="A151" s="119"/>
-      <c r="B151" s="119"/>
-      <c r="C151" s="119"/>
-      <c r="D151" s="136"/>
+      <c r="A151" s="100"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="100"/>
+      <c r="D151" s="102"/>
       <c r="E151" s="33" t="s">
         <v>49</v>
       </c>
@@ -10399,10 +10399,10 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="38.25">
-      <c r="A152" s="119"/>
-      <c r="B152" s="119"/>
-      <c r="C152" s="119"/>
-      <c r="D152" s="136"/>
+      <c r="A152" s="100"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="100"/>
+      <c r="D152" s="102"/>
       <c r="E152" s="33" t="s">
         <v>54</v>
       </c>
@@ -10425,16 +10425,16 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="51">
-      <c r="A153" s="119" t="s">
+      <c r="A153" s="100" t="s">
         <v>911</v>
       </c>
-      <c r="B153" s="119" t="s">
+      <c r="B153" s="100" t="s">
         <v>912</v>
       </c>
-      <c r="C153" s="119" t="s">
+      <c r="C153" s="100" t="s">
         <v>912</v>
       </c>
-      <c r="D153" s="136" t="s">
+      <c r="D153" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E153" s="33" t="s">
@@ -10463,10 +10463,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="25.5">
-      <c r="A154" s="119"/>
-      <c r="B154" s="119"/>
-      <c r="C154" s="119"/>
-      <c r="D154" s="136"/>
+      <c r="A154" s="100"/>
+      <c r="B154" s="100"/>
+      <c r="C154" s="100"/>
+      <c r="D154" s="102"/>
       <c r="E154" s="33" t="s">
         <v>13</v>
       </c>
@@ -10491,10 +10491,10 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="45">
-      <c r="A155" s="119"/>
-      <c r="B155" s="119"/>
-      <c r="C155" s="119"/>
-      <c r="D155" s="136"/>
+      <c r="A155" s="100"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="100"/>
+      <c r="D155" s="102"/>
       <c r="E155" s="33" t="s">
         <v>14</v>
       </c>
@@ -10519,10 +10519,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="30">
-      <c r="A156" s="119"/>
-      <c r="B156" s="119"/>
-      <c r="C156" s="119"/>
-      <c r="D156" s="136"/>
+      <c r="A156" s="100"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="100"/>
+      <c r="D156" s="102"/>
       <c r="E156" s="33" t="s">
         <v>15</v>
       </c>
@@ -10549,10 +10549,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="38.25">
-      <c r="A157" s="119"/>
-      <c r="B157" s="119"/>
-      <c r="C157" s="119"/>
-      <c r="D157" s="136"/>
+      <c r="A157" s="100"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="100"/>
+      <c r="D157" s="102"/>
       <c r="E157" s="33" t="s">
         <v>16</v>
       </c>
@@ -10577,16 +10577,16 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="51">
-      <c r="A158" s="119" t="s">
+      <c r="A158" s="100" t="s">
         <v>923</v>
       </c>
-      <c r="B158" s="119" t="s">
+      <c r="B158" s="100" t="s">
         <v>924</v>
       </c>
-      <c r="C158" s="119" t="s">
+      <c r="C158" s="100" t="s">
         <v>924</v>
       </c>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E158" s="33" t="s">
@@ -10615,10 +10615,10 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="25.5">
-      <c r="A159" s="119"/>
-      <c r="B159" s="119"/>
-      <c r="C159" s="119"/>
-      <c r="D159" s="136"/>
+      <c r="A159" s="100"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="100"/>
+      <c r="D159" s="102"/>
       <c r="E159" s="33" t="s">
         <v>13</v>
       </c>
@@ -10643,10 +10643,10 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="45">
-      <c r="A160" s="119"/>
-      <c r="B160" s="119"/>
-      <c r="C160" s="119"/>
-      <c r="D160" s="136"/>
+      <c r="A160" s="100"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="100"/>
+      <c r="D160" s="102"/>
       <c r="E160" s="33" t="s">
         <v>14</v>
       </c>
@@ -10673,10 +10673,10 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="30">
-      <c r="A161" s="119"/>
-      <c r="B161" s="119"/>
-      <c r="C161" s="119"/>
-      <c r="D161" s="136"/>
+      <c r="A161" s="100"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="102"/>
       <c r="E161" s="33" t="s">
         <v>15</v>
       </c>
@@ -10703,10 +10703,10 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="45">
-      <c r="A162" s="119"/>
-      <c r="B162" s="119"/>
-      <c r="C162" s="119"/>
-      <c r="D162" s="136"/>
+      <c r="A162" s="100"/>
+      <c r="B162" s="100"/>
+      <c r="C162" s="100"/>
+      <c r="D162" s="102"/>
       <c r="E162" s="33" t="s">
         <v>16</v>
       </c>
@@ -10731,10 +10731,10 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="30">
-      <c r="A163" s="119"/>
-      <c r="B163" s="119"/>
-      <c r="C163" s="119"/>
-      <c r="D163" s="136"/>
+      <c r="A163" s="100"/>
+      <c r="B163" s="100"/>
+      <c r="C163" s="100"/>
+      <c r="D163" s="102"/>
       <c r="E163" s="33" t="s">
         <v>44</v>
       </c>
@@ -10759,10 +10759,10 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="60">
-      <c r="A164" s="119"/>
-      <c r="B164" s="119"/>
-      <c r="C164" s="119"/>
-      <c r="D164" s="136"/>
+      <c r="A164" s="100"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="102"/>
       <c r="E164" s="33" t="s">
         <v>49</v>
       </c>
@@ -10787,10 +10787,10 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="38.25">
-      <c r="A165" s="119"/>
-      <c r="B165" s="119"/>
-      <c r="C165" s="119"/>
-      <c r="D165" s="136"/>
+      <c r="A165" s="100"/>
+      <c r="B165" s="100"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="102"/>
       <c r="E165" s="33" t="s">
         <v>54</v>
       </c>
@@ -10815,16 +10815,16 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="51">
-      <c r="A166" s="119" t="s">
+      <c r="A166" s="100" t="s">
         <v>952</v>
       </c>
-      <c r="B166" s="119" t="s">
+      <c r="B166" s="100" t="s">
         <v>953</v>
       </c>
-      <c r="C166" s="119" t="s">
+      <c r="C166" s="100" t="s">
         <v>953</v>
       </c>
-      <c r="D166" s="136" t="s">
+      <c r="D166" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E166" s="33" t="s">
@@ -10853,10 +10853,10 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="25.5">
-      <c r="A167" s="119"/>
-      <c r="B167" s="119"/>
-      <c r="C167" s="119"/>
-      <c r="D167" s="136"/>
+      <c r="A167" s="100"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="100"/>
+      <c r="D167" s="102"/>
       <c r="E167" s="33" t="s">
         <v>13</v>
       </c>
@@ -10881,10 +10881,10 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="45">
-      <c r="A168" s="119"/>
-      <c r="B168" s="119"/>
-      <c r="C168" s="119"/>
-      <c r="D168" s="136"/>
+      <c r="A168" s="100"/>
+      <c r="B168" s="100"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="102"/>
       <c r="E168" s="33" t="s">
         <v>14</v>
       </c>
@@ -10911,10 +10911,10 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="45">
-      <c r="A169" s="119"/>
-      <c r="B169" s="119"/>
-      <c r="C169" s="119"/>
-      <c r="D169" s="136"/>
+      <c r="A169" s="100"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="100"/>
+      <c r="D169" s="102"/>
       <c r="E169" s="33" t="s">
         <v>15</v>
       </c>
@@ -10941,10 +10941,10 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="30">
-      <c r="A170" s="119"/>
-      <c r="B170" s="119"/>
-      <c r="C170" s="119"/>
-      <c r="D170" s="136"/>
+      <c r="A170" s="100"/>
+      <c r="B170" s="100"/>
+      <c r="C170" s="100"/>
+      <c r="D170" s="102"/>
       <c r="E170" s="33" t="s">
         <v>16</v>
       </c>
@@ -10971,10 +10971,10 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="45">
-      <c r="A171" s="119"/>
-      <c r="B171" s="119"/>
-      <c r="C171" s="119"/>
-      <c r="D171" s="136"/>
+      <c r="A171" s="100"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="100"/>
+      <c r="D171" s="102"/>
       <c r="E171" s="33" t="s">
         <v>44</v>
       </c>
@@ -10999,10 +10999,10 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="30">
-      <c r="A172" s="119"/>
-      <c r="B172" s="119"/>
-      <c r="C172" s="119"/>
-      <c r="D172" s="136"/>
+      <c r="A172" s="100"/>
+      <c r="B172" s="100"/>
+      <c r="C172" s="100"/>
+      <c r="D172" s="102"/>
       <c r="E172" s="33" t="s">
         <v>49</v>
       </c>
@@ -11027,10 +11027,10 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="60">
-      <c r="A173" s="119"/>
-      <c r="B173" s="119"/>
-      <c r="C173" s="119"/>
-      <c r="D173" s="136"/>
+      <c r="A173" s="100"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="100"/>
+      <c r="D173" s="102"/>
       <c r="E173" s="33" t="s">
         <v>54</v>
       </c>
@@ -11055,10 +11055,10 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="38.25">
-      <c r="A174" s="119"/>
-      <c r="B174" s="119"/>
-      <c r="C174" s="119"/>
-      <c r="D174" s="136"/>
+      <c r="A174" s="100"/>
+      <c r="B174" s="100"/>
+      <c r="C174" s="100"/>
+      <c r="D174" s="102"/>
       <c r="E174" s="33" t="s">
         <v>60</v>
       </c>
@@ -11083,16 +11083,16 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="51">
-      <c r="A175" s="119" t="s">
+      <c r="A175" s="100" t="s">
         <v>966</v>
       </c>
-      <c r="B175" s="119" t="s">
+      <c r="B175" s="100" t="s">
         <v>967</v>
       </c>
-      <c r="C175" s="119" t="s">
+      <c r="C175" s="100" t="s">
         <v>967</v>
       </c>
-      <c r="D175" s="136" t="s">
+      <c r="D175" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E175" s="33" t="s">
@@ -11121,10 +11121,10 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="25.5">
-      <c r="A176" s="119"/>
-      <c r="B176" s="119"/>
-      <c r="C176" s="119"/>
-      <c r="D176" s="136"/>
+      <c r="A176" s="100"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="100"/>
+      <c r="D176" s="102"/>
       <c r="E176" s="33" t="s">
         <v>13</v>
       </c>
@@ -11149,10 +11149,10 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="45">
-      <c r="A177" s="119"/>
-      <c r="B177" s="119"/>
-      <c r="C177" s="119"/>
-      <c r="D177" s="136"/>
+      <c r="A177" s="100"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="102"/>
       <c r="E177" s="33" t="s">
         <v>14</v>
       </c>
@@ -11179,10 +11179,10 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="45">
-      <c r="A178" s="119"/>
-      <c r="B178" s="119"/>
-      <c r="C178" s="119"/>
-      <c r="D178" s="136"/>
+      <c r="A178" s="100"/>
+      <c r="B178" s="100"/>
+      <c r="C178" s="100"/>
+      <c r="D178" s="102"/>
       <c r="E178" s="33" t="s">
         <v>15</v>
       </c>
@@ -11209,10 +11209,10 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="30">
-      <c r="A179" s="119"/>
-      <c r="B179" s="119"/>
-      <c r="C179" s="119"/>
-      <c r="D179" s="136"/>
+      <c r="A179" s="100"/>
+      <c r="B179" s="100"/>
+      <c r="C179" s="100"/>
+      <c r="D179" s="102"/>
       <c r="E179" s="33" t="s">
         <v>16</v>
       </c>
@@ -11239,10 +11239,10 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="45">
-      <c r="A180" s="119"/>
-      <c r="B180" s="119"/>
-      <c r="C180" s="119"/>
-      <c r="D180" s="136"/>
+      <c r="A180" s="100"/>
+      <c r="B180" s="100"/>
+      <c r="C180" s="100"/>
+      <c r="D180" s="102"/>
       <c r="E180" s="33" t="s">
         <v>44</v>
       </c>
@@ -11267,10 +11267,10 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="30">
-      <c r="A181" s="119"/>
-      <c r="B181" s="119"/>
-      <c r="C181" s="119"/>
-      <c r="D181" s="136"/>
+      <c r="A181" s="100"/>
+      <c r="B181" s="100"/>
+      <c r="C181" s="100"/>
+      <c r="D181" s="102"/>
       <c r="E181" s="33" t="s">
         <v>49</v>
       </c>
@@ -11295,10 +11295,10 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="60">
-      <c r="A182" s="119"/>
-      <c r="B182" s="119"/>
-      <c r="C182" s="119"/>
-      <c r="D182" s="136"/>
+      <c r="A182" s="100"/>
+      <c r="B182" s="100"/>
+      <c r="C182" s="100"/>
+      <c r="D182" s="102"/>
       <c r="E182" s="33" t="s">
         <v>54</v>
       </c>
@@ -11323,10 +11323,10 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="38.25">
-      <c r="A183" s="119"/>
-      <c r="B183" s="119"/>
-      <c r="C183" s="119"/>
-      <c r="D183" s="136"/>
+      <c r="A183" s="100"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="100"/>
+      <c r="D183" s="102"/>
       <c r="E183" s="33" t="s">
         <v>60</v>
       </c>
@@ -11351,16 +11351,16 @@
       </c>
     </row>
     <row r="184" spans="1:12" ht="51">
-      <c r="A184" s="119" t="s">
+      <c r="A184" s="100" t="s">
         <v>981</v>
       </c>
-      <c r="B184" s="119" t="s">
+      <c r="B184" s="100" t="s">
         <v>982</v>
       </c>
-      <c r="C184" s="119" t="s">
+      <c r="C184" s="100" t="s">
         <v>982</v>
       </c>
-      <c r="D184" s="136" t="s">
+      <c r="D184" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E184" s="33" t="s">
@@ -11389,10 +11389,10 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="25.5">
-      <c r="A185" s="119"/>
-      <c r="B185" s="119"/>
-      <c r="C185" s="119"/>
-      <c r="D185" s="136"/>
+      <c r="A185" s="100"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="100"/>
+      <c r="D185" s="102"/>
       <c r="E185" s="33" t="s">
         <v>13</v>
       </c>
@@ -11417,10 +11417,10 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="45">
-      <c r="A186" s="119"/>
-      <c r="B186" s="119"/>
-      <c r="C186" s="119"/>
-      <c r="D186" s="136"/>
+      <c r="A186" s="100"/>
+      <c r="B186" s="100"/>
+      <c r="C186" s="100"/>
+      <c r="D186" s="102"/>
       <c r="E186" s="33" t="s">
         <v>14</v>
       </c>
@@ -11447,10 +11447,10 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="60">
-      <c r="A187" s="119"/>
-      <c r="B187" s="119"/>
-      <c r="C187" s="119"/>
-      <c r="D187" s="136"/>
+      <c r="A187" s="100"/>
+      <c r="B187" s="100"/>
+      <c r="C187" s="100"/>
+      <c r="D187" s="102"/>
       <c r="E187" s="33" t="s">
         <v>15</v>
       </c>
@@ -11477,10 +11477,10 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="30">
-      <c r="A188" s="119"/>
-      <c r="B188" s="119"/>
-      <c r="C188" s="119"/>
-      <c r="D188" s="136"/>
+      <c r="A188" s="100"/>
+      <c r="B188" s="100"/>
+      <c r="C188" s="100"/>
+      <c r="D188" s="102"/>
       <c r="E188" s="33" t="s">
         <v>16</v>
       </c>
@@ -11507,10 +11507,10 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="45">
-      <c r="A189" s="119"/>
-      <c r="B189" s="119"/>
-      <c r="C189" s="119"/>
-      <c r="D189" s="136"/>
+      <c r="A189" s="100"/>
+      <c r="B189" s="100"/>
+      <c r="C189" s="100"/>
+      <c r="D189" s="102"/>
       <c r="E189" s="33" t="s">
         <v>44</v>
       </c>
@@ -11535,10 +11535,10 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
-      <c r="A190" s="119"/>
-      <c r="B190" s="119"/>
-      <c r="C190" s="119"/>
-      <c r="D190" s="136"/>
+      <c r="A190" s="100"/>
+      <c r="B190" s="100"/>
+      <c r="C190" s="100"/>
+      <c r="D190" s="102"/>
       <c r="E190" s="33" t="s">
         <v>49</v>
       </c>
@@ -11563,10 +11563,10 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="60">
-      <c r="A191" s="119"/>
-      <c r="B191" s="119"/>
-      <c r="C191" s="119"/>
-      <c r="D191" s="136"/>
+      <c r="A191" s="100"/>
+      <c r="B191" s="100"/>
+      <c r="C191" s="100"/>
+      <c r="D191" s="102"/>
       <c r="E191" s="33" t="s">
         <v>54</v>
       </c>
@@ -11591,10 +11591,10 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="38.25">
-      <c r="A192" s="119"/>
-      <c r="B192" s="119"/>
-      <c r="C192" s="119"/>
-      <c r="D192" s="136"/>
+      <c r="A192" s="100"/>
+      <c r="B192" s="100"/>
+      <c r="C192" s="100"/>
+      <c r="D192" s="102"/>
       <c r="E192" s="33" t="s">
         <v>60</v>
       </c>
@@ -11619,16 +11619,16 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="51">
-      <c r="A193" s="119" t="s">
+      <c r="A193" s="100" t="s">
         <v>996</v>
       </c>
-      <c r="B193" s="119" t="s">
+      <c r="B193" s="100" t="s">
         <v>997</v>
       </c>
-      <c r="C193" s="119" t="s">
+      <c r="C193" s="100" t="s">
         <v>998</v>
       </c>
-      <c r="D193" s="132" t="s">
+      <c r="D193" s="104" t="s">
         <v>1067</v>
       </c>
       <c r="E193" s="33" t="s">
@@ -11657,10 +11657,10 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="25.5">
-      <c r="A194" s="119"/>
-      <c r="B194" s="134"/>
-      <c r="C194" s="134"/>
-      <c r="D194" s="133"/>
+      <c r="A194" s="100"/>
+      <c r="B194" s="103"/>
+      <c r="C194" s="103"/>
+      <c r="D194" s="105"/>
       <c r="E194" s="33" t="s">
         <v>13</v>
       </c>
@@ -11685,10 +11685,10 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="45">
-      <c r="A195" s="119"/>
-      <c r="B195" s="134"/>
-      <c r="C195" s="134"/>
-      <c r="D195" s="133"/>
+      <c r="A195" s="100"/>
+      <c r="B195" s="103"/>
+      <c r="C195" s="103"/>
+      <c r="D195" s="105"/>
       <c r="E195" s="33" t="s">
         <v>14</v>
       </c>
@@ -11715,10 +11715,10 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="45">
-      <c r="A196" s="119"/>
-      <c r="B196" s="134"/>
-      <c r="C196" s="134"/>
-      <c r="D196" s="133"/>
+      <c r="A196" s="100"/>
+      <c r="B196" s="103"/>
+      <c r="C196" s="103"/>
+      <c r="D196" s="105"/>
       <c r="E196" s="33" t="s">
         <v>15</v>
       </c>
@@ -11743,10 +11743,10 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="45">
-      <c r="A197" s="119"/>
-      <c r="B197" s="134"/>
-      <c r="C197" s="134"/>
-      <c r="D197" s="133"/>
+      <c r="A197" s="100"/>
+      <c r="B197" s="103"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="105"/>
       <c r="E197" s="33" t="s">
         <v>16</v>
       </c>
@@ -11773,10 +11773,10 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="45">
-      <c r="A198" s="119"/>
-      <c r="B198" s="134"/>
-      <c r="C198" s="134"/>
-      <c r="D198" s="133"/>
+      <c r="A198" s="100"/>
+      <c r="B198" s="103"/>
+      <c r="C198" s="103"/>
+      <c r="D198" s="105"/>
       <c r="E198" s="33" t="s">
         <v>44</v>
       </c>
@@ -11801,10 +11801,10 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="45">
-      <c r="A199" s="119"/>
-      <c r="B199" s="134"/>
-      <c r="C199" s="134"/>
-      <c r="D199" s="133"/>
+      <c r="A199" s="100"/>
+      <c r="B199" s="103"/>
+      <c r="C199" s="103"/>
+      <c r="D199" s="105"/>
       <c r="E199" s="33" t="s">
         <v>49</v>
       </c>
@@ -11829,10 +11829,10 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="45">
-      <c r="A200" s="119"/>
-      <c r="B200" s="134"/>
-      <c r="C200" s="134"/>
-      <c r="D200" s="133"/>
+      <c r="A200" s="100"/>
+      <c r="B200" s="103"/>
+      <c r="C200" s="103"/>
+      <c r="D200" s="105"/>
       <c r="E200" s="33" t="s">
         <v>54</v>
       </c>
@@ -11859,10 +11859,10 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="45">
-      <c r="A201" s="119"/>
-      <c r="B201" s="134"/>
-      <c r="C201" s="134"/>
-      <c r="D201" s="133"/>
+      <c r="A201" s="100"/>
+      <c r="B201" s="103"/>
+      <c r="C201" s="103"/>
+      <c r="D201" s="105"/>
       <c r="E201" s="33" t="s">
         <v>60</v>
       </c>
@@ -11887,10 +11887,10 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="60">
-      <c r="A202" s="119"/>
-      <c r="B202" s="134"/>
-      <c r="C202" s="134"/>
-      <c r="D202" s="133"/>
+      <c r="A202" s="100"/>
+      <c r="B202" s="103"/>
+      <c r="C202" s="103"/>
+      <c r="D202" s="105"/>
       <c r="E202" s="33" t="s">
         <v>65</v>
       </c>
@@ -11915,10 +11915,10 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="60">
-      <c r="A203" s="119"/>
-      <c r="B203" s="134"/>
-      <c r="C203" s="134"/>
-      <c r="D203" s="133"/>
+      <c r="A203" s="100"/>
+      <c r="B203" s="103"/>
+      <c r="C203" s="103"/>
+      <c r="D203" s="105"/>
       <c r="E203" s="33" t="s">
         <v>71</v>
       </c>
@@ -11945,10 +11945,10 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="60">
-      <c r="A204" s="119"/>
-      <c r="B204" s="134"/>
-      <c r="C204" s="134"/>
-      <c r="D204" s="133"/>
+      <c r="A204" s="100"/>
+      <c r="B204" s="103"/>
+      <c r="C204" s="103"/>
+      <c r="D204" s="105"/>
       <c r="E204" s="33" t="s">
         <v>76</v>
       </c>
@@ -11973,10 +11973,10 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="38.25">
-      <c r="A205" s="119"/>
-      <c r="B205" s="134"/>
-      <c r="C205" s="134"/>
-      <c r="D205" s="135"/>
+      <c r="A205" s="100"/>
+      <c r="B205" s="103"/>
+      <c r="C205" s="103"/>
+      <c r="D205" s="106"/>
       <c r="E205" s="33" t="s">
         <v>82</v>
       </c>
@@ -12001,16 +12001,16 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="51">
-      <c r="A206" s="119" t="s">
+      <c r="A206" s="100" t="s">
         <v>1027</v>
       </c>
-      <c r="B206" s="119" t="s">
+      <c r="B206" s="100" t="s">
         <v>1028</v>
       </c>
-      <c r="C206" s="119" t="s">
+      <c r="C206" s="100" t="s">
         <v>1028</v>
       </c>
-      <c r="D206" s="136" t="s">
+      <c r="D206" s="102" t="s">
         <v>1067</v>
       </c>
       <c r="E206" s="33" t="s">
@@ -12039,10 +12039,10 @@
       </c>
     </row>
     <row r="207" spans="1:12" ht="25.5">
-      <c r="A207" s="119"/>
-      <c r="B207" s="119"/>
-      <c r="C207" s="119"/>
-      <c r="D207" s="136"/>
+      <c r="A207" s="100"/>
+      <c r="B207" s="100"/>
+      <c r="C207" s="100"/>
+      <c r="D207" s="102"/>
       <c r="E207" s="33" t="s">
         <v>13</v>
       </c>
@@ -12067,10 +12067,10 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="45">
-      <c r="A208" s="119"/>
-      <c r="B208" s="119"/>
-      <c r="C208" s="119"/>
-      <c r="D208" s="136"/>
+      <c r="A208" s="100"/>
+      <c r="B208" s="100"/>
+      <c r="C208" s="100"/>
+      <c r="D208" s="102"/>
       <c r="E208" s="33" t="s">
         <v>14</v>
       </c>
@@ -12095,10 +12095,10 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="30">
-      <c r="A209" s="119"/>
-      <c r="B209" s="119"/>
-      <c r="C209" s="119"/>
-      <c r="D209" s="136"/>
+      <c r="A209" s="100"/>
+      <c r="B209" s="100"/>
+      <c r="C209" s="100"/>
+      <c r="D209" s="102"/>
       <c r="E209" s="33" t="s">
         <v>15</v>
       </c>
@@ -12125,10 +12125,10 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="38.25">
-      <c r="A210" s="119"/>
-      <c r="B210" s="119"/>
-      <c r="C210" s="119"/>
-      <c r="D210" s="136"/>
+      <c r="A210" s="100"/>
+      <c r="B210" s="100"/>
+      <c r="C210" s="100"/>
+      <c r="D210" s="102"/>
       <c r="E210" s="33" t="s">
         <v>16</v>
       </c>
@@ -12153,16 +12153,16 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="51" customHeight="1">
-      <c r="A211" s="117" t="s">
+      <c r="A211" s="99" t="s">
         <v>1040</v>
       </c>
-      <c r="B211" s="119" t="s">
+      <c r="B211" s="100" t="s">
         <v>1041</v>
       </c>
-      <c r="C211" s="119" t="s">
+      <c r="C211" s="100" t="s">
         <v>1041</v>
       </c>
-      <c r="D211" s="121" t="s">
+      <c r="D211" s="101" t="s">
         <v>1067</v>
       </c>
       <c r="E211" s="45" t="s">
@@ -12191,10 +12191,10 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="25.5">
-      <c r="A212" s="117"/>
-      <c r="B212" s="119"/>
-      <c r="C212" s="119"/>
-      <c r="D212" s="121"/>
+      <c r="A212" s="99"/>
+      <c r="B212" s="100"/>
+      <c r="C212" s="100"/>
+      <c r="D212" s="101"/>
       <c r="E212" s="45" t="s">
         <v>13</v>
       </c>
@@ -12219,10 +12219,10 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="30">
-      <c r="A213" s="117"/>
-      <c r="B213" s="119"/>
-      <c r="C213" s="119"/>
-      <c r="D213" s="121"/>
+      <c r="A213" s="99"/>
+      <c r="B213" s="100"/>
+      <c r="C213" s="100"/>
+      <c r="D213" s="101"/>
       <c r="E213" s="45" t="s">
         <v>14</v>
       </c>
@@ -12247,10 +12247,10 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="30">
-      <c r="A214" s="117"/>
-      <c r="B214" s="119"/>
-      <c r="C214" s="119"/>
-      <c r="D214" s="121"/>
+      <c r="A214" s="99"/>
+      <c r="B214" s="100"/>
+      <c r="C214" s="100"/>
+      <c r="D214" s="101"/>
       <c r="E214" s="45" t="s">
         <v>15</v>
       </c>
@@ -12277,10 +12277,10 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="60">
-      <c r="A215" s="117"/>
-      <c r="B215" s="119"/>
-      <c r="C215" s="119"/>
-      <c r="D215" s="121"/>
+      <c r="A215" s="99"/>
+      <c r="B215" s="100"/>
+      <c r="C215" s="100"/>
+      <c r="D215" s="101"/>
       <c r="E215" s="45" t="s">
         <v>16</v>
       </c>
@@ -12305,10 +12305,10 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="45">
-      <c r="A216" s="117"/>
-      <c r="B216" s="119"/>
-      <c r="C216" s="119"/>
-      <c r="D216" s="121"/>
+      <c r="A216" s="99"/>
+      <c r="B216" s="100"/>
+      <c r="C216" s="100"/>
+      <c r="D216" s="101"/>
       <c r="E216" s="45" t="s">
         <v>44</v>
       </c>
@@ -12335,10 +12335,10 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="38.25">
-      <c r="A217" s="117"/>
-      <c r="B217" s="119"/>
-      <c r="C217" s="119"/>
-      <c r="D217" s="121"/>
+      <c r="A217" s="99"/>
+      <c r="B217" s="100"/>
+      <c r="C217" s="100"/>
+      <c r="D217" s="101"/>
       <c r="E217" s="45" t="s">
         <v>49</v>
       </c>
@@ -12363,16 +12363,16 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="51" customHeight="1">
-      <c r="A218" s="117" t="s">
+      <c r="A218" s="99" t="s">
         <v>1065</v>
       </c>
-      <c r="B218" s="119" t="s">
+      <c r="B218" s="100" t="s">
         <v>1066</v>
       </c>
-      <c r="C218" s="119" t="s">
+      <c r="C218" s="100" t="s">
         <v>1066</v>
       </c>
-      <c r="D218" s="121" t="s">
+      <c r="D218" s="101" t="s">
         <v>1067</v>
       </c>
       <c r="E218" s="45" t="s">
@@ -12401,10 +12401,10 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="25.5">
-      <c r="A219" s="117"/>
-      <c r="B219" s="119"/>
-      <c r="C219" s="119"/>
-      <c r="D219" s="121"/>
+      <c r="A219" s="99"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="101"/>
       <c r="E219" s="45" t="s">
         <v>13</v>
       </c>
@@ -12429,10 +12429,10 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="30">
-      <c r="A220" s="117"/>
-      <c r="B220" s="119"/>
-      <c r="C220" s="119"/>
-      <c r="D220" s="121"/>
+      <c r="A220" s="99"/>
+      <c r="B220" s="100"/>
+      <c r="C220" s="100"/>
+      <c r="D220" s="101"/>
       <c r="E220" s="45" t="s">
         <v>14</v>
       </c>
@@ -12459,10 +12459,10 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="30">
-      <c r="A221" s="117"/>
-      <c r="B221" s="119"/>
-      <c r="C221" s="119"/>
-      <c r="D221" s="121"/>
+      <c r="A221" s="99"/>
+      <c r="B221" s="100"/>
+      <c r="C221" s="100"/>
+      <c r="D221" s="101"/>
       <c r="E221" s="45" t="s">
         <v>15</v>
       </c>
@@ -12489,10 +12489,10 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="30">
-      <c r="A222" s="117"/>
-      <c r="B222" s="119"/>
-      <c r="C222" s="119"/>
-      <c r="D222" s="121"/>
+      <c r="A222" s="99"/>
+      <c r="B222" s="100"/>
+      <c r="C222" s="100"/>
+      <c r="D222" s="101"/>
       <c r="E222" s="45" t="s">
         <v>16</v>
       </c>
@@ -12519,10 +12519,10 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="30">
-      <c r="A223" s="117"/>
-      <c r="B223" s="119"/>
-      <c r="C223" s="119"/>
-      <c r="D223" s="121"/>
+      <c r="A223" s="99"/>
+      <c r="B223" s="100"/>
+      <c r="C223" s="100"/>
+      <c r="D223" s="101"/>
       <c r="E223" s="45" t="s">
         <v>44</v>
       </c>
@@ -12549,10 +12549,10 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="75">
-      <c r="A224" s="117"/>
-      <c r="B224" s="119"/>
-      <c r="C224" s="119"/>
-      <c r="D224" s="121"/>
+      <c r="A224" s="99"/>
+      <c r="B224" s="100"/>
+      <c r="C224" s="100"/>
+      <c r="D224" s="101"/>
       <c r="E224" s="45" t="s">
         <v>49</v>
       </c>
@@ -12577,10 +12577,10 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="45">
-      <c r="A225" s="117"/>
-      <c r="B225" s="119"/>
-      <c r="C225" s="119"/>
-      <c r="D225" s="121"/>
+      <c r="A225" s="99"/>
+      <c r="B225" s="100"/>
+      <c r="C225" s="100"/>
+      <c r="D225" s="101"/>
       <c r="E225" s="45" t="s">
         <v>54</v>
       </c>
@@ -12607,10 +12607,10 @@
       </c>
     </row>
     <row r="226" spans="1:12" ht="38.25">
-      <c r="A226" s="117"/>
-      <c r="B226" s="119"/>
-      <c r="C226" s="119"/>
-      <c r="D226" s="121"/>
+      <c r="A226" s="99"/>
+      <c r="B226" s="100"/>
+      <c r="C226" s="100"/>
+      <c r="D226" s="101"/>
       <c r="E226" s="45" t="s">
         <v>60</v>
       </c>
@@ -12635,16 +12635,16 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="51">
-      <c r="A227" s="117" t="s">
+      <c r="A227" s="99" t="s">
         <v>1104</v>
       </c>
-      <c r="B227" s="119" t="s">
+      <c r="B227" s="100" t="s">
         <v>1105</v>
       </c>
-      <c r="C227" s="119" t="s">
+      <c r="C227" s="100" t="s">
         <v>1105</v>
       </c>
-      <c r="D227" s="121" t="s">
+      <c r="D227" s="101" t="s">
         <v>1067</v>
       </c>
       <c r="E227" s="45" t="s">
@@ -12673,10 +12673,10 @@
       </c>
     </row>
     <row r="228" spans="1:12" ht="25.5">
-      <c r="A228" s="117"/>
-      <c r="B228" s="119"/>
-      <c r="C228" s="119"/>
-      <c r="D228" s="121"/>
+      <c r="A228" s="99"/>
+      <c r="B228" s="100"/>
+      <c r="C228" s="100"/>
+      <c r="D228" s="101"/>
       <c r="E228" s="45" t="s">
         <v>13</v>
       </c>
@@ -12701,10 +12701,10 @@
       </c>
     </row>
     <row r="229" spans="1:12" ht="30">
-      <c r="A229" s="117"/>
-      <c r="B229" s="119"/>
-      <c r="C229" s="119"/>
-      <c r="D229" s="121"/>
+      <c r="A229" s="99"/>
+      <c r="B229" s="100"/>
+      <c r="C229" s="100"/>
+      <c r="D229" s="101"/>
       <c r="E229" s="45" t="s">
         <v>14</v>
       </c>
@@ -12731,10 +12731,10 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="30">
-      <c r="A230" s="117"/>
-      <c r="B230" s="119"/>
-      <c r="C230" s="119"/>
-      <c r="D230" s="121"/>
+      <c r="A230" s="99"/>
+      <c r="B230" s="100"/>
+      <c r="C230" s="100"/>
+      <c r="D230" s="101"/>
       <c r="E230" s="45" t="s">
         <v>15</v>
       </c>
@@ -12761,10 +12761,10 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="30">
-      <c r="A231" s="117"/>
-      <c r="B231" s="119"/>
-      <c r="C231" s="119"/>
-      <c r="D231" s="121"/>
+      <c r="A231" s="99"/>
+      <c r="B231" s="100"/>
+      <c r="C231" s="100"/>
+      <c r="D231" s="101"/>
       <c r="E231" s="45" t="s">
         <v>16</v>
       </c>
@@ -12791,10 +12791,10 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="30">
-      <c r="A232" s="117"/>
-      <c r="B232" s="119"/>
-      <c r="C232" s="119"/>
-      <c r="D232" s="121"/>
+      <c r="A232" s="99"/>
+      <c r="B232" s="100"/>
+      <c r="C232" s="100"/>
+      <c r="D232" s="101"/>
       <c r="E232" s="45" t="s">
         <v>44</v>
       </c>
@@ -12821,10 +12821,10 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="75">
-      <c r="A233" s="117"/>
-      <c r="B233" s="119"/>
-      <c r="C233" s="119"/>
-      <c r="D233" s="121"/>
+      <c r="A233" s="99"/>
+      <c r="B233" s="100"/>
+      <c r="C233" s="100"/>
+      <c r="D233" s="101"/>
       <c r="E233" s="45" t="s">
         <v>49</v>
       </c>
@@ -12849,10 +12849,10 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="45">
-      <c r="A234" s="117"/>
-      <c r="B234" s="119"/>
-      <c r="C234" s="119"/>
-      <c r="D234" s="121"/>
+      <c r="A234" s="99"/>
+      <c r="B234" s="100"/>
+      <c r="C234" s="100"/>
+      <c r="D234" s="101"/>
       <c r="E234" s="45" t="s">
         <v>54</v>
       </c>
@@ -12879,10 +12879,10 @@
       </c>
     </row>
     <row r="235" spans="1:12" ht="60">
-      <c r="A235" s="117"/>
-      <c r="B235" s="119"/>
-      <c r="C235" s="119"/>
-      <c r="D235" s="121"/>
+      <c r="A235" s="99"/>
+      <c r="B235" s="100"/>
+      <c r="C235" s="100"/>
+      <c r="D235" s="101"/>
       <c r="E235" s="45" t="s">
         <v>60</v>
       </c>
@@ -12909,10 +12909,10 @@
       </c>
     </row>
     <row r="236" spans="1:12" ht="30">
-      <c r="A236" s="117"/>
-      <c r="B236" s="119"/>
-      <c r="C236" s="119"/>
-      <c r="D236" s="121"/>
+      <c r="A236" s="99"/>
+      <c r="B236" s="100"/>
+      <c r="C236" s="100"/>
+      <c r="D236" s="101"/>
       <c r="E236" s="45" t="s">
         <v>65</v>
       </c>
@@ -12937,10 +12937,10 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="45">
-      <c r="A237" s="117"/>
-      <c r="B237" s="119"/>
-      <c r="C237" s="119"/>
-      <c r="D237" s="121"/>
+      <c r="A237" s="99"/>
+      <c r="B237" s="100"/>
+      <c r="C237" s="100"/>
+      <c r="D237" s="101"/>
       <c r="E237" s="45" t="s">
         <v>71</v>
       </c>
@@ -12967,10 +12967,10 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="38.25">
-      <c r="A238" s="117"/>
-      <c r="B238" s="119"/>
-      <c r="C238" s="119"/>
-      <c r="D238" s="121"/>
+      <c r="A238" s="99"/>
+      <c r="B238" s="100"/>
+      <c r="C238" s="100"/>
+      <c r="D238" s="101"/>
       <c r="E238" s="45" t="s">
         <v>76</v>
       </c>
@@ -12995,16 +12995,16 @@
       </c>
     </row>
     <row r="239" spans="1:12" ht="51">
-      <c r="A239" s="117" t="s">
+      <c r="A239" s="99" t="s">
         <v>1130</v>
       </c>
-      <c r="B239" s="119" t="s">
+      <c r="B239" s="100" t="s">
         <v>1131</v>
       </c>
-      <c r="C239" s="119" t="s">
+      <c r="C239" s="100" t="s">
         <v>1131</v>
       </c>
-      <c r="D239" s="121" t="s">
+      <c r="D239" s="101" t="s">
         <v>1067</v>
       </c>
       <c r="E239" s="45" t="s">
@@ -13033,10 +13033,10 @@
       </c>
     </row>
     <row r="240" spans="1:12" ht="51">
-      <c r="A240" s="117"/>
-      <c r="B240" s="119"/>
-      <c r="C240" s="119"/>
-      <c r="D240" s="121"/>
+      <c r="A240" s="99"/>
+      <c r="B240" s="100"/>
+      <c r="C240" s="100"/>
+      <c r="D240" s="101"/>
       <c r="E240" s="45" t="s">
         <v>13</v>
       </c>
@@ -13061,10 +13061,10 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="38.25">
-      <c r="A241" s="117"/>
-      <c r="B241" s="119"/>
-      <c r="C241" s="119"/>
-      <c r="D241" s="121"/>
+      <c r="A241" s="99"/>
+      <c r="B241" s="100"/>
+      <c r="C241" s="100"/>
+      <c r="D241" s="101"/>
       <c r="E241" s="45" t="s">
         <v>14</v>
       </c>
@@ -13089,16 +13089,16 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="51">
-      <c r="A242" s="123" t="s">
+      <c r="A242" s="112" t="s">
         <v>1139</v>
       </c>
-      <c r="B242" s="126" t="s">
+      <c r="B242" s="107" t="s">
         <v>1140</v>
       </c>
-      <c r="C242" s="126" t="s">
+      <c r="C242" s="107" t="s">
         <v>1141</v>
       </c>
-      <c r="D242" s="129" t="s">
+      <c r="D242" s="116" t="s">
         <v>1067</v>
       </c>
       <c r="E242" s="45" t="s">
@@ -13127,10 +13127,10 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="30">
-      <c r="A243" s="124"/>
-      <c r="B243" s="127"/>
-      <c r="C243" s="127"/>
-      <c r="D243" s="130"/>
+      <c r="A243" s="113"/>
+      <c r="B243" s="108"/>
+      <c r="C243" s="108"/>
+      <c r="D243" s="117"/>
       <c r="E243" s="45" t="s">
         <v>13</v>
       </c>
@@ -13155,10 +13155,10 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="25.5">
-      <c r="A244" s="124"/>
-      <c r="B244" s="127"/>
-      <c r="C244" s="127"/>
-      <c r="D244" s="130"/>
+      <c r="A244" s="113"/>
+      <c r="B244" s="108"/>
+      <c r="C244" s="108"/>
+      <c r="D244" s="117"/>
       <c r="E244" s="45" t="s">
         <v>14</v>
       </c>
@@ -13183,10 +13183,10 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="38.25">
-      <c r="A245" s="125"/>
-      <c r="B245" s="128"/>
-      <c r="C245" s="128"/>
-      <c r="D245" s="131"/>
+      <c r="A245" s="114"/>
+      <c r="B245" s="115"/>
+      <c r="C245" s="115"/>
+      <c r="D245" s="118"/>
       <c r="E245" s="45" t="s">
         <v>15</v>
       </c>
@@ -13211,16 +13211,16 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="51">
-      <c r="A246" s="117" t="s">
+      <c r="A246" s="99" t="s">
         <v>1154</v>
       </c>
-      <c r="B246" s="119" t="s">
+      <c r="B246" s="100" t="s">
         <v>1155</v>
       </c>
-      <c r="C246" s="119" t="s">
+      <c r="C246" s="100" t="s">
         <v>1156</v>
       </c>
-      <c r="D246" s="121" t="s">
+      <c r="D246" s="101" t="s">
         <v>1067</v>
       </c>
       <c r="E246" s="45" t="s">
@@ -13249,10 +13249,10 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="30">
-      <c r="A247" s="117"/>
-      <c r="B247" s="119"/>
-      <c r="C247" s="119"/>
-      <c r="D247" s="121"/>
+      <c r="A247" s="99"/>
+      <c r="B247" s="100"/>
+      <c r="C247" s="100"/>
+      <c r="D247" s="101"/>
       <c r="E247" s="45" t="s">
         <v>13</v>
       </c>
@@ -13277,10 +13277,10 @@
       </c>
     </row>
     <row r="248" spans="1:12" ht="51">
-      <c r="A248" s="117"/>
-      <c r="B248" s="119"/>
-      <c r="C248" s="119"/>
-      <c r="D248" s="121"/>
+      <c r="A248" s="99"/>
+      <c r="B248" s="100"/>
+      <c r="C248" s="100"/>
+      <c r="D248" s="101"/>
       <c r="E248" s="45" t="s">
         <v>14</v>
       </c>
@@ -13305,10 +13305,10 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="39" thickBot="1">
-      <c r="A249" s="118"/>
-      <c r="B249" s="120"/>
-      <c r="C249" s="120"/>
-      <c r="D249" s="122"/>
+      <c r="A249" s="109"/>
+      <c r="B249" s="110"/>
+      <c r="C249" s="110"/>
+      <c r="D249" s="111"/>
       <c r="E249" s="95" t="s">
         <v>15</v>
       </c>
@@ -13333,16 +13333,16 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="51">
-      <c r="A250" s="101" t="s">
+      <c r="A250" s="119" t="s">
         <v>1166</v>
       </c>
-      <c r="B250" s="114" t="s">
+      <c r="B250" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C250" s="114" t="s">
+      <c r="C250" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D250" s="115"/>
+      <c r="D250" s="123"/>
       <c r="E250" s="29" t="s">
         <v>12</v>
       </c>
@@ -13367,10 +13367,10 @@
       </c>
     </row>
     <row r="251" spans="1:12" ht="45">
-      <c r="A251" s="106"/>
-      <c r="B251" s="107"/>
-      <c r="C251" s="107"/>
-      <c r="D251" s="108"/>
+      <c r="A251" s="120"/>
+      <c r="B251" s="122"/>
+      <c r="C251" s="122"/>
+      <c r="D251" s="124"/>
       <c r="E251" s="30" t="s">
         <v>13</v>
       </c>
@@ -13395,10 +13395,10 @@
       </c>
     </row>
     <row r="252" spans="1:12" ht="45">
-      <c r="A252" s="106"/>
-      <c r="B252" s="107"/>
-      <c r="C252" s="107"/>
-      <c r="D252" s="108"/>
+      <c r="A252" s="120"/>
+      <c r="B252" s="122"/>
+      <c r="C252" s="122"/>
+      <c r="D252" s="124"/>
       <c r="E252" s="30" t="s">
         <v>14</v>
       </c>
@@ -13423,10 +13423,10 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="25.5">
-      <c r="A253" s="106"/>
-      <c r="B253" s="107"/>
-      <c r="C253" s="107"/>
-      <c r="D253" s="108"/>
+      <c r="A253" s="120"/>
+      <c r="B253" s="122"/>
+      <c r="C253" s="122"/>
+      <c r="D253" s="124"/>
       <c r="E253" s="30" t="s">
         <v>15</v>
       </c>
@@ -13449,10 +13449,10 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="25.5">
-      <c r="A254" s="106"/>
-      <c r="B254" s="107"/>
-      <c r="C254" s="107"/>
-      <c r="D254" s="108"/>
+      <c r="A254" s="120"/>
+      <c r="B254" s="122"/>
+      <c r="C254" s="122"/>
+      <c r="D254" s="124"/>
       <c r="E254" s="30" t="s">
         <v>16</v>
       </c>
@@ -13475,16 +13475,16 @@
       </c>
     </row>
     <row r="255" spans="1:12" ht="45">
-      <c r="A255" s="116" t="s">
+      <c r="A255" s="125" t="s">
         <v>1172</v>
       </c>
-      <c r="B255" s="110" t="s">
+      <c r="B255" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C255" s="110" t="s">
+      <c r="C255" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="D255" s="103"/>
+      <c r="D255" s="127"/>
       <c r="E255" s="15" t="s">
         <v>12</v>
       </c>
@@ -13509,10 +13509,10 @@
       </c>
     </row>
     <row r="256" spans="1:12" ht="60">
-      <c r="A256" s="116"/>
-      <c r="B256" s="110"/>
-      <c r="C256" s="110"/>
-      <c r="D256" s="104"/>
+      <c r="A256" s="125"/>
+      <c r="B256" s="126"/>
+      <c r="C256" s="126"/>
+      <c r="D256" s="128"/>
       <c r="E256" s="15" t="s">
         <v>13</v>
       </c>
@@ -13535,10 +13535,10 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="75">
-      <c r="A257" s="116"/>
-      <c r="B257" s="110"/>
-      <c r="C257" s="110"/>
-      <c r="D257" s="104"/>
+      <c r="A257" s="125"/>
+      <c r="B257" s="126"/>
+      <c r="C257" s="126"/>
+      <c r="D257" s="128"/>
       <c r="E257" s="15" t="s">
         <v>14</v>
       </c>
@@ -13561,10 +13561,10 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="45">
-      <c r="A258" s="116"/>
-      <c r="B258" s="110"/>
-      <c r="C258" s="110"/>
-      <c r="D258" s="104"/>
+      <c r="A258" s="125"/>
+      <c r="B258" s="126"/>
+      <c r="C258" s="126"/>
+      <c r="D258" s="128"/>
       <c r="E258" s="15" t="s">
         <v>15</v>
       </c>
@@ -13589,10 +13589,10 @@
       </c>
     </row>
     <row r="259" spans="1:12" ht="45">
-      <c r="A259" s="116"/>
-      <c r="B259" s="110"/>
-      <c r="C259" s="110"/>
-      <c r="D259" s="104"/>
+      <c r="A259" s="125"/>
+      <c r="B259" s="126"/>
+      <c r="C259" s="126"/>
+      <c r="D259" s="128"/>
       <c r="E259" s="15" t="s">
         <v>16</v>
       </c>
@@ -13617,10 +13617,10 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="45">
-      <c r="A260" s="116"/>
-      <c r="B260" s="110"/>
-      <c r="C260" s="110"/>
-      <c r="D260" s="104"/>
+      <c r="A260" s="125"/>
+      <c r="B260" s="126"/>
+      <c r="C260" s="126"/>
+      <c r="D260" s="128"/>
       <c r="E260" s="15" t="s">
         <v>44</v>
       </c>
@@ -13645,10 +13645,10 @@
       </c>
     </row>
     <row r="261" spans="1:12" ht="45">
-      <c r="A261" s="116"/>
-      <c r="B261" s="110"/>
-      <c r="C261" s="110"/>
-      <c r="D261" s="104"/>
+      <c r="A261" s="125"/>
+      <c r="B261" s="126"/>
+      <c r="C261" s="126"/>
+      <c r="D261" s="128"/>
       <c r="E261" s="15" t="s">
         <v>49</v>
       </c>
@@ -13673,10 +13673,10 @@
       </c>
     </row>
     <row r="262" spans="1:12" ht="30">
-      <c r="A262" s="116"/>
-      <c r="B262" s="110"/>
-      <c r="C262" s="110"/>
-      <c r="D262" s="104"/>
+      <c r="A262" s="125"/>
+      <c r="B262" s="126"/>
+      <c r="C262" s="126"/>
+      <c r="D262" s="128"/>
       <c r="E262" s="15" t="s">
         <v>54</v>
       </c>
@@ -13701,10 +13701,10 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="30">
-      <c r="A263" s="116"/>
-      <c r="B263" s="110"/>
-      <c r="C263" s="110"/>
-      <c r="D263" s="104"/>
+      <c r="A263" s="125"/>
+      <c r="B263" s="126"/>
+      <c r="C263" s="126"/>
+      <c r="D263" s="128"/>
       <c r="E263" s="15" t="s">
         <v>60</v>
       </c>
@@ -13729,10 +13729,10 @@
       </c>
     </row>
     <row r="264" spans="1:12" ht="30">
-      <c r="A264" s="116"/>
-      <c r="B264" s="110"/>
-      <c r="C264" s="110"/>
-      <c r="D264" s="104"/>
+      <c r="A264" s="125"/>
+      <c r="B264" s="126"/>
+      <c r="C264" s="126"/>
+      <c r="D264" s="128"/>
       <c r="E264" s="15" t="s">
         <v>65</v>
       </c>
@@ -13755,10 +13755,10 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="45">
-      <c r="A265" s="116"/>
-      <c r="B265" s="110"/>
-      <c r="C265" s="110"/>
-      <c r="D265" s="104"/>
+      <c r="A265" s="125"/>
+      <c r="B265" s="126"/>
+      <c r="C265" s="126"/>
+      <c r="D265" s="128"/>
       <c r="E265" s="15" t="s">
         <v>71</v>
       </c>
@@ -13781,10 +13781,10 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="45">
-      <c r="A266" s="116"/>
-      <c r="B266" s="110"/>
-      <c r="C266" s="110"/>
-      <c r="D266" s="104"/>
+      <c r="A266" s="125"/>
+      <c r="B266" s="126"/>
+      <c r="C266" s="126"/>
+      <c r="D266" s="128"/>
       <c r="E266" s="15" t="s">
         <v>76</v>
       </c>
@@ -13807,10 +13807,10 @@
       </c>
     </row>
     <row r="267" spans="1:12" ht="45">
-      <c r="A267" s="116"/>
-      <c r="B267" s="110"/>
-      <c r="C267" s="110"/>
-      <c r="D267" s="104"/>
+      <c r="A267" s="125"/>
+      <c r="B267" s="126"/>
+      <c r="C267" s="126"/>
+      <c r="D267" s="128"/>
       <c r="E267" s="15" t="s">
         <v>82</v>
       </c>
@@ -13833,10 +13833,10 @@
       </c>
     </row>
     <row r="268" spans="1:12" ht="30">
-      <c r="A268" s="116"/>
-      <c r="B268" s="110"/>
-      <c r="C268" s="110"/>
-      <c r="D268" s="104"/>
+      <c r="A268" s="125"/>
+      <c r="B268" s="126"/>
+      <c r="C268" s="126"/>
+      <c r="D268" s="128"/>
       <c r="E268" s="15" t="s">
         <v>84</v>
       </c>
@@ -13859,10 +13859,10 @@
       </c>
     </row>
     <row r="269" spans="1:12" ht="30">
-      <c r="A269" s="116"/>
-      <c r="B269" s="110"/>
-      <c r="C269" s="110"/>
-      <c r="D269" s="104"/>
+      <c r="A269" s="125"/>
+      <c r="B269" s="126"/>
+      <c r="C269" s="126"/>
+      <c r="D269" s="128"/>
       <c r="E269" s="15" t="s">
         <v>89</v>
       </c>
@@ -13887,10 +13887,10 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="45">
-      <c r="A270" s="116"/>
-      <c r="B270" s="110"/>
-      <c r="C270" s="110"/>
-      <c r="D270" s="104"/>
+      <c r="A270" s="125"/>
+      <c r="B270" s="126"/>
+      <c r="C270" s="126"/>
+      <c r="D270" s="128"/>
       <c r="E270" s="15" t="s">
         <v>106</v>
       </c>
@@ -13913,10 +13913,10 @@
       </c>
     </row>
     <row r="271" spans="1:12" ht="30">
-      <c r="A271" s="116"/>
-      <c r="B271" s="110"/>
-      <c r="C271" s="110"/>
-      <c r="D271" s="104"/>
+      <c r="A271" s="125"/>
+      <c r="B271" s="126"/>
+      <c r="C271" s="126"/>
+      <c r="D271" s="128"/>
       <c r="E271" s="15" t="s">
         <v>107</v>
       </c>
@@ -13942,10 +13942,10 @@
       </c>
     </row>
     <row r="272" spans="1:12" ht="30">
-      <c r="A272" s="116"/>
-      <c r="B272" s="110"/>
-      <c r="C272" s="110"/>
-      <c r="D272" s="105"/>
+      <c r="A272" s="125"/>
+      <c r="B272" s="126"/>
+      <c r="C272" s="126"/>
+      <c r="D272" s="129"/>
       <c r="E272" s="15" t="s">
         <v>128</v>
       </c>
@@ -13968,16 +13968,16 @@
       </c>
     </row>
     <row r="273" spans="1:12" ht="45">
-      <c r="A273" s="116" t="s">
+      <c r="A273" s="125" t="s">
         <v>1191</v>
       </c>
-      <c r="B273" s="110" t="s">
+      <c r="B273" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="C273" s="110" t="s">
+      <c r="C273" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D273" s="103"/>
+      <c r="D273" s="127"/>
       <c r="E273" s="15" t="s">
         <v>12</v>
       </c>
@@ -14002,10 +14002,10 @@
       </c>
     </row>
     <row r="274" spans="1:12" ht="60">
-      <c r="A274" s="116"/>
-      <c r="B274" s="110"/>
-      <c r="C274" s="110"/>
-      <c r="D274" s="104"/>
+      <c r="A274" s="125"/>
+      <c r="B274" s="126"/>
+      <c r="C274" s="126"/>
+      <c r="D274" s="128"/>
       <c r="E274" s="15" t="s">
         <v>13</v>
       </c>
@@ -14028,10 +14028,10 @@
       </c>
     </row>
     <row r="275" spans="1:12" ht="60">
-      <c r="A275" s="116"/>
-      <c r="B275" s="110"/>
-      <c r="C275" s="110"/>
-      <c r="D275" s="104"/>
+      <c r="A275" s="125"/>
+      <c r="B275" s="126"/>
+      <c r="C275" s="126"/>
+      <c r="D275" s="128"/>
       <c r="E275" s="15" t="s">
         <v>14</v>
       </c>
@@ -14054,10 +14054,10 @@
       </c>
     </row>
     <row r="276" spans="1:12" ht="45">
-      <c r="A276" s="116"/>
-      <c r="B276" s="110"/>
-      <c r="C276" s="110"/>
-      <c r="D276" s="104"/>
+      <c r="A276" s="125"/>
+      <c r="B276" s="126"/>
+      <c r="C276" s="126"/>
+      <c r="D276" s="128"/>
       <c r="E276" s="15" t="s">
         <v>15</v>
       </c>
@@ -14082,10 +14082,10 @@
       </c>
     </row>
     <row r="277" spans="1:12" ht="45">
-      <c r="A277" s="116"/>
-      <c r="B277" s="110"/>
-      <c r="C277" s="110"/>
-      <c r="D277" s="104"/>
+      <c r="A277" s="125"/>
+      <c r="B277" s="126"/>
+      <c r="C277" s="126"/>
+      <c r="D277" s="128"/>
       <c r="E277" s="15" t="s">
         <v>16</v>
       </c>
@@ -14110,10 +14110,10 @@
       </c>
     </row>
     <row r="278" spans="1:12" ht="45">
-      <c r="A278" s="116"/>
-      <c r="B278" s="110"/>
-      <c r="C278" s="110"/>
-      <c r="D278" s="104"/>
+      <c r="A278" s="125"/>
+      <c r="B278" s="126"/>
+      <c r="C278" s="126"/>
+      <c r="D278" s="128"/>
       <c r="E278" s="15" t="s">
         <v>44</v>
       </c>
@@ -14138,10 +14138,10 @@
       </c>
     </row>
     <row r="279" spans="1:12" ht="30">
-      <c r="A279" s="116"/>
-      <c r="B279" s="110"/>
-      <c r="C279" s="110"/>
-      <c r="D279" s="104"/>
+      <c r="A279" s="125"/>
+      <c r="B279" s="126"/>
+      <c r="C279" s="126"/>
+      <c r="D279" s="128"/>
       <c r="E279" s="15" t="s">
         <v>49</v>
       </c>
@@ -14166,10 +14166,10 @@
       </c>
     </row>
     <row r="280" spans="1:12" ht="45">
-      <c r="A280" s="116"/>
-      <c r="B280" s="110"/>
-      <c r="C280" s="110"/>
-      <c r="D280" s="104"/>
+      <c r="A280" s="125"/>
+      <c r="B280" s="126"/>
+      <c r="C280" s="126"/>
+      <c r="D280" s="128"/>
       <c r="E280" s="15" t="s">
         <v>54</v>
       </c>
@@ -14194,10 +14194,10 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="30">
-      <c r="A281" s="116"/>
-      <c r="B281" s="110"/>
-      <c r="C281" s="110"/>
-      <c r="D281" s="104"/>
+      <c r="A281" s="125"/>
+      <c r="B281" s="126"/>
+      <c r="C281" s="126"/>
+      <c r="D281" s="128"/>
       <c r="E281" s="15" t="s">
         <v>60</v>
       </c>
@@ -14222,10 +14222,10 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="45">
-      <c r="A282" s="116"/>
-      <c r="B282" s="110"/>
-      <c r="C282" s="110"/>
-      <c r="D282" s="104"/>
+      <c r="A282" s="125"/>
+      <c r="B282" s="126"/>
+      <c r="C282" s="126"/>
+      <c r="D282" s="128"/>
       <c r="E282" s="15" t="s">
         <v>65</v>
       </c>
@@ -14248,10 +14248,10 @@
       </c>
     </row>
     <row r="283" spans="1:12" ht="30">
-      <c r="A283" s="116"/>
-      <c r="B283" s="110"/>
-      <c r="C283" s="110"/>
-      <c r="D283" s="104"/>
+      <c r="A283" s="125"/>
+      <c r="B283" s="126"/>
+      <c r="C283" s="126"/>
+      <c r="D283" s="128"/>
       <c r="E283" s="15" t="s">
         <v>71</v>
       </c>
@@ -14276,10 +14276,10 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="60">
-      <c r="A284" s="116"/>
-      <c r="B284" s="110"/>
-      <c r="C284" s="110"/>
-      <c r="D284" s="104"/>
+      <c r="A284" s="125"/>
+      <c r="B284" s="126"/>
+      <c r="C284" s="126"/>
+      <c r="D284" s="128"/>
       <c r="E284" s="15" t="s">
         <v>76</v>
       </c>
@@ -14302,10 +14302,10 @@
       </c>
     </row>
     <row r="285" spans="1:12" ht="45">
-      <c r="A285" s="116"/>
-      <c r="B285" s="110"/>
-      <c r="C285" s="110"/>
-      <c r="D285" s="104"/>
+      <c r="A285" s="125"/>
+      <c r="B285" s="126"/>
+      <c r="C285" s="126"/>
+      <c r="D285" s="128"/>
       <c r="E285" s="15" t="s">
         <v>82</v>
       </c>
@@ -14328,10 +14328,10 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="45">
-      <c r="A286" s="116"/>
-      <c r="B286" s="110"/>
-      <c r="C286" s="110"/>
-      <c r="D286" s="104"/>
+      <c r="A286" s="125"/>
+      <c r="B286" s="126"/>
+      <c r="C286" s="126"/>
+      <c r="D286" s="128"/>
       <c r="E286" s="15" t="s">
         <v>84</v>
       </c>
@@ -14354,10 +14354,10 @@
       </c>
     </row>
     <row r="287" spans="1:12" ht="45">
-      <c r="A287" s="116"/>
-      <c r="B287" s="110"/>
-      <c r="C287" s="110"/>
-      <c r="D287" s="104"/>
+      <c r="A287" s="125"/>
+      <c r="B287" s="126"/>
+      <c r="C287" s="126"/>
+      <c r="D287" s="128"/>
       <c r="E287" s="15" t="s">
         <v>89</v>
       </c>
@@ -14380,10 +14380,10 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="45">
-      <c r="A288" s="116"/>
-      <c r="B288" s="110"/>
-      <c r="C288" s="110"/>
-      <c r="D288" s="104"/>
+      <c r="A288" s="125"/>
+      <c r="B288" s="126"/>
+      <c r="C288" s="126"/>
+      <c r="D288" s="128"/>
       <c r="E288" s="15" t="s">
         <v>106</v>
       </c>
@@ -14406,10 +14406,10 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="30">
-      <c r="A289" s="116"/>
-      <c r="B289" s="110"/>
-      <c r="C289" s="110"/>
-      <c r="D289" s="104"/>
+      <c r="A289" s="125"/>
+      <c r="B289" s="126"/>
+      <c r="C289" s="126"/>
+      <c r="D289" s="128"/>
       <c r="E289" s="15" t="s">
         <v>107</v>
       </c>
@@ -14434,10 +14434,10 @@
       </c>
     </row>
     <row r="290" spans="1:12" ht="45">
-      <c r="A290" s="116"/>
-      <c r="B290" s="110"/>
-      <c r="C290" s="110"/>
-      <c r="D290" s="104"/>
+      <c r="A290" s="125"/>
+      <c r="B290" s="126"/>
+      <c r="C290" s="126"/>
+      <c r="D290" s="128"/>
       <c r="E290" s="15" t="s">
         <v>128</v>
       </c>
@@ -14460,10 +14460,10 @@
       </c>
     </row>
     <row r="291" spans="1:12" ht="15">
-      <c r="A291" s="116"/>
-      <c r="B291" s="110"/>
-      <c r="C291" s="110"/>
-      <c r="D291" s="104"/>
+      <c r="A291" s="125"/>
+      <c r="B291" s="126"/>
+      <c r="C291" s="126"/>
+      <c r="D291" s="128"/>
       <c r="E291" s="15" t="s">
         <v>130</v>
       </c>
@@ -14489,10 +14489,10 @@
       </c>
     </row>
     <row r="292" spans="1:12" ht="30">
-      <c r="A292" s="116"/>
-      <c r="B292" s="110"/>
-      <c r="C292" s="110"/>
-      <c r="D292" s="105"/>
+      <c r="A292" s="125"/>
+      <c r="B292" s="126"/>
+      <c r="C292" s="126"/>
+      <c r="D292" s="129"/>
       <c r="E292" s="15" t="s">
         <v>414</v>
       </c>
@@ -14515,16 +14515,16 @@
       </c>
     </row>
     <row r="293" spans="1:12" ht="51">
-      <c r="A293" s="106" t="s">
+      <c r="A293" s="120" t="s">
         <v>1040</v>
       </c>
-      <c r="B293" s="107" t="s">
+      <c r="B293" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="C293" s="107" t="s">
+      <c r="C293" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="D293" s="108"/>
+      <c r="D293" s="124"/>
       <c r="E293" s="30" t="s">
         <v>12</v>
       </c>
@@ -14549,10 +14549,10 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="30">
-      <c r="A294" s="106"/>
-      <c r="B294" s="107"/>
-      <c r="C294" s="107"/>
-      <c r="D294" s="108"/>
+      <c r="A294" s="120"/>
+      <c r="B294" s="122"/>
+      <c r="C294" s="122"/>
+      <c r="D294" s="124"/>
       <c r="E294" s="30" t="s">
         <v>13</v>
       </c>
@@ -14575,10 +14575,10 @@
       </c>
     </row>
     <row r="295" spans="1:12" ht="30">
-      <c r="A295" s="106"/>
-      <c r="B295" s="107"/>
-      <c r="C295" s="107"/>
-      <c r="D295" s="108"/>
+      <c r="A295" s="120"/>
+      <c r="B295" s="122"/>
+      <c r="C295" s="122"/>
+      <c r="D295" s="124"/>
       <c r="E295" s="30" t="s">
         <v>14</v>
       </c>
@@ -14603,10 +14603,10 @@
       </c>
     </row>
     <row r="296" spans="1:12" ht="30">
-      <c r="A296" s="106"/>
-      <c r="B296" s="107"/>
-      <c r="C296" s="107"/>
-      <c r="D296" s="108"/>
+      <c r="A296" s="120"/>
+      <c r="B296" s="122"/>
+      <c r="C296" s="122"/>
+      <c r="D296" s="124"/>
       <c r="E296" s="30" t="s">
         <v>15</v>
       </c>
@@ -14629,10 +14629,10 @@
       </c>
     </row>
     <row r="297" spans="1:12" ht="30">
-      <c r="A297" s="106"/>
-      <c r="B297" s="107"/>
-      <c r="C297" s="107"/>
-      <c r="D297" s="108"/>
+      <c r="A297" s="120"/>
+      <c r="B297" s="122"/>
+      <c r="C297" s="122"/>
+      <c r="D297" s="124"/>
       <c r="E297" s="30" t="s">
         <v>16</v>
       </c>
@@ -14657,10 +14657,10 @@
       </c>
     </row>
     <row r="298" spans="1:12" ht="30">
-      <c r="A298" s="106"/>
-      <c r="B298" s="107"/>
-      <c r="C298" s="107"/>
-      <c r="D298" s="108"/>
+      <c r="A298" s="120"/>
+      <c r="B298" s="122"/>
+      <c r="C298" s="122"/>
+      <c r="D298" s="124"/>
       <c r="E298" s="30" t="s">
         <v>44</v>
       </c>
@@ -14685,10 +14685,10 @@
       </c>
     </row>
     <row r="299" spans="1:12" ht="45">
-      <c r="A299" s="106"/>
-      <c r="B299" s="107"/>
-      <c r="C299" s="107"/>
-      <c r="D299" s="108"/>
+      <c r="A299" s="120"/>
+      <c r="B299" s="122"/>
+      <c r="C299" s="122"/>
+      <c r="D299" s="124"/>
       <c r="E299" s="30" t="s">
         <v>49</v>
       </c>
@@ -14711,10 +14711,10 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="38.25">
-      <c r="A300" s="106"/>
-      <c r="B300" s="107"/>
-      <c r="C300" s="107"/>
-      <c r="D300" s="108"/>
+      <c r="A300" s="120"/>
+      <c r="B300" s="122"/>
+      <c r="C300" s="122"/>
+      <c r="D300" s="124"/>
       <c r="E300" s="28" t="s">
         <v>54</v>
       </c>
@@ -14739,10 +14739,10 @@
       </c>
     </row>
     <row r="301" spans="1:12" ht="30">
-      <c r="A301" s="106"/>
-      <c r="B301" s="107"/>
-      <c r="C301" s="107"/>
-      <c r="D301" s="108"/>
+      <c r="A301" s="120"/>
+      <c r="B301" s="122"/>
+      <c r="C301" s="122"/>
+      <c r="D301" s="124"/>
       <c r="E301" s="30" t="s">
         <v>60</v>
       </c>
@@ -14765,16 +14765,16 @@
       </c>
     </row>
     <row r="302" spans="1:12" ht="51">
-      <c r="A302" s="106" t="s">
+      <c r="A302" s="120" t="s">
         <v>1214</v>
       </c>
-      <c r="B302" s="107" t="s">
+      <c r="B302" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="C302" s="107" t="s">
+      <c r="C302" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="D302" s="108"/>
+      <c r="D302" s="124"/>
       <c r="E302" s="30" t="s">
         <v>12</v>
       </c>
@@ -14799,10 +14799,10 @@
       </c>
     </row>
     <row r="303" spans="1:12" ht="60">
-      <c r="A303" s="106"/>
-      <c r="B303" s="107"/>
-      <c r="C303" s="107"/>
-      <c r="D303" s="108"/>
+      <c r="A303" s="120"/>
+      <c r="B303" s="122"/>
+      <c r="C303" s="122"/>
+      <c r="D303" s="124"/>
       <c r="E303" s="30" t="s">
         <v>13</v>
       </c>
@@ -14825,10 +14825,10 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="45">
-      <c r="A304" s="106"/>
-      <c r="B304" s="107"/>
-      <c r="C304" s="107"/>
-      <c r="D304" s="108"/>
+      <c r="A304" s="120"/>
+      <c r="B304" s="122"/>
+      <c r="C304" s="122"/>
+      <c r="D304" s="124"/>
       <c r="E304" s="30" t="s">
         <v>14</v>
       </c>
@@ -14853,10 +14853,10 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="30">
-      <c r="A305" s="106"/>
-      <c r="B305" s="107"/>
-      <c r="C305" s="107"/>
-      <c r="D305" s="108"/>
+      <c r="A305" s="120"/>
+      <c r="B305" s="122"/>
+      <c r="C305" s="122"/>
+      <c r="D305" s="124"/>
       <c r="E305" s="30" t="s">
         <v>15</v>
       </c>
@@ -14881,10 +14881,10 @@
       </c>
     </row>
     <row r="306" spans="1:12" ht="30">
-      <c r="A306" s="106"/>
-      <c r="B306" s="107"/>
-      <c r="C306" s="107"/>
-      <c r="D306" s="108"/>
+      <c r="A306" s="120"/>
+      <c r="B306" s="122"/>
+      <c r="C306" s="122"/>
+      <c r="D306" s="124"/>
       <c r="E306" s="30" t="s">
         <v>16</v>
       </c>
@@ -14907,16 +14907,16 @@
       </c>
     </row>
     <row r="307" spans="1:12" ht="51">
-      <c r="A307" s="106" t="s">
+      <c r="A307" s="120" t="s">
         <v>1220</v>
       </c>
-      <c r="B307" s="107" t="s">
+      <c r="B307" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="C307" s="107" t="s">
+      <c r="C307" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="D307" s="108"/>
+      <c r="D307" s="124"/>
       <c r="E307" s="30" t="s">
         <v>12</v>
       </c>
@@ -14941,10 +14941,10 @@
       </c>
     </row>
     <row r="308" spans="1:12" ht="45">
-      <c r="A308" s="106"/>
-      <c r="B308" s="107"/>
-      <c r="C308" s="107"/>
-      <c r="D308" s="108"/>
+      <c r="A308" s="120"/>
+      <c r="B308" s="122"/>
+      <c r="C308" s="122"/>
+      <c r="D308" s="124"/>
       <c r="E308" s="30" t="s">
         <v>13</v>
       </c>
@@ -14967,10 +14967,10 @@
       </c>
     </row>
     <row r="309" spans="1:12" ht="45">
-      <c r="A309" s="106"/>
-      <c r="B309" s="107"/>
-      <c r="C309" s="107"/>
-      <c r="D309" s="108"/>
+      <c r="A309" s="120"/>
+      <c r="B309" s="122"/>
+      <c r="C309" s="122"/>
+      <c r="D309" s="124"/>
       <c r="E309" s="30" t="s">
         <v>14</v>
       </c>
@@ -14995,10 +14995,10 @@
       </c>
     </row>
     <row r="310" spans="1:12" ht="30">
-      <c r="A310" s="106"/>
-      <c r="B310" s="107"/>
-      <c r="C310" s="107"/>
-      <c r="D310" s="108"/>
+      <c r="A310" s="120"/>
+      <c r="B310" s="122"/>
+      <c r="C310" s="122"/>
+      <c r="D310" s="124"/>
       <c r="E310" s="30" t="s">
         <v>15</v>
       </c>
@@ -15023,10 +15023,10 @@
       </c>
     </row>
     <row r="311" spans="1:12" ht="30">
-      <c r="A311" s="106"/>
-      <c r="B311" s="107"/>
-      <c r="C311" s="107"/>
-      <c r="D311" s="108"/>
+      <c r="A311" s="120"/>
+      <c r="B311" s="122"/>
+      <c r="C311" s="122"/>
+      <c r="D311" s="124"/>
       <c r="E311" s="30" t="s">
         <v>16</v>
       </c>
@@ -15049,16 +15049,16 @@
       </c>
     </row>
     <row r="312" spans="1:12" ht="51">
-      <c r="A312" s="106" t="s">
+      <c r="A312" s="120" t="s">
         <v>1226</v>
       </c>
-      <c r="B312" s="107" t="s">
+      <c r="B312" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="C312" s="107" t="s">
+      <c r="C312" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="D312" s="108"/>
+      <c r="D312" s="124"/>
       <c r="E312" s="30" t="s">
         <v>12</v>
       </c>
@@ -15083,10 +15083,10 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="45">
-      <c r="A313" s="106"/>
-      <c r="B313" s="107"/>
-      <c r="C313" s="107"/>
-      <c r="D313" s="108"/>
+      <c r="A313" s="120"/>
+      <c r="B313" s="122"/>
+      <c r="C313" s="122"/>
+      <c r="D313" s="124"/>
       <c r="E313" s="30" t="s">
         <v>13</v>
       </c>
@@ -15109,10 +15109,10 @@
       </c>
     </row>
     <row r="314" spans="1:12" ht="45">
-      <c r="A314" s="106"/>
-      <c r="B314" s="107"/>
-      <c r="C314" s="107"/>
-      <c r="D314" s="108"/>
+      <c r="A314" s="120"/>
+      <c r="B314" s="122"/>
+      <c r="C314" s="122"/>
+      <c r="D314" s="124"/>
       <c r="E314" s="30" t="s">
         <v>14</v>
       </c>
@@ -15137,10 +15137,10 @@
       </c>
     </row>
     <row r="315" spans="1:12" ht="30">
-      <c r="A315" s="106"/>
-      <c r="B315" s="107"/>
-      <c r="C315" s="107"/>
-      <c r="D315" s="108"/>
+      <c r="A315" s="120"/>
+      <c r="B315" s="122"/>
+      <c r="C315" s="122"/>
+      <c r="D315" s="124"/>
       <c r="E315" s="30" t="s">
         <v>15</v>
       </c>
@@ -15165,10 +15165,10 @@
       </c>
     </row>
     <row r="316" spans="1:12" ht="45">
-      <c r="A316" s="106"/>
-      <c r="B316" s="107"/>
-      <c r="C316" s="107"/>
-      <c r="D316" s="108"/>
+      <c r="A316" s="120"/>
+      <c r="B316" s="122"/>
+      <c r="C316" s="122"/>
+      <c r="D316" s="124"/>
       <c r="E316" s="30" t="s">
         <v>16</v>
       </c>
@@ -15191,10 +15191,10 @@
       </c>
     </row>
     <row r="317" spans="1:12" ht="30">
-      <c r="A317" s="106"/>
-      <c r="B317" s="107"/>
-      <c r="C317" s="107"/>
-      <c r="D317" s="108"/>
+      <c r="A317" s="120"/>
+      <c r="B317" s="122"/>
+      <c r="C317" s="122"/>
+      <c r="D317" s="124"/>
       <c r="E317" s="30" t="s">
         <v>44</v>
       </c>
@@ -15217,10 +15217,10 @@
       </c>
     </row>
     <row r="318" spans="1:12" ht="30">
-      <c r="A318" s="106"/>
-      <c r="B318" s="107"/>
-      <c r="C318" s="107"/>
-      <c r="D318" s="108"/>
+      <c r="A318" s="120"/>
+      <c r="B318" s="122"/>
+      <c r="C318" s="122"/>
+      <c r="D318" s="124"/>
       <c r="E318" s="30" t="s">
         <v>49</v>
       </c>
@@ -15243,10 +15243,10 @@
       </c>
     </row>
     <row r="319" spans="1:12" ht="30">
-      <c r="A319" s="106"/>
-      <c r="B319" s="107"/>
-      <c r="C319" s="107"/>
-      <c r="D319" s="108"/>
+      <c r="A319" s="120"/>
+      <c r="B319" s="122"/>
+      <c r="C319" s="122"/>
+      <c r="D319" s="124"/>
       <c r="E319" s="30" t="s">
         <v>54</v>
       </c>
@@ -15269,10 +15269,10 @@
       </c>
     </row>
     <row r="320" spans="1:12" ht="30">
-      <c r="A320" s="106"/>
-      <c r="B320" s="107"/>
-      <c r="C320" s="107"/>
-      <c r="D320" s="108"/>
+      <c r="A320" s="120"/>
+      <c r="B320" s="122"/>
+      <c r="C320" s="122"/>
+      <c r="D320" s="124"/>
       <c r="E320" s="30" t="s">
         <v>60</v>
       </c>
@@ -15295,16 +15295,16 @@
       </c>
     </row>
     <row r="321" spans="1:12" ht="45">
-      <c r="A321" s="109" t="s">
+      <c r="A321" s="130" t="s">
         <v>1236</v>
       </c>
-      <c r="B321" s="110" t="s">
+      <c r="B321" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="C321" s="110" t="s">
+      <c r="C321" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="D321" s="103"/>
+      <c r="D321" s="127"/>
       <c r="E321" s="15" t="s">
         <v>12</v>
       </c>
@@ -15329,10 +15329,10 @@
       </c>
     </row>
     <row r="322" spans="1:12" ht="30">
-      <c r="A322" s="109"/>
-      <c r="B322" s="110"/>
-      <c r="C322" s="110"/>
-      <c r="D322" s="104"/>
+      <c r="A322" s="130"/>
+      <c r="B322" s="126"/>
+      <c r="C322" s="126"/>
+      <c r="D322" s="128"/>
       <c r="E322" s="15" t="s">
         <v>13</v>
       </c>
@@ -15357,10 +15357,10 @@
       </c>
     </row>
     <row r="323" spans="1:12" ht="45">
-      <c r="A323" s="109"/>
-      <c r="B323" s="110"/>
-      <c r="C323" s="110"/>
-      <c r="D323" s="104"/>
+      <c r="A323" s="130"/>
+      <c r="B323" s="126"/>
+      <c r="C323" s="126"/>
+      <c r="D323" s="128"/>
       <c r="E323" s="15" t="s">
         <v>14</v>
       </c>
@@ -15383,10 +15383,10 @@
       </c>
     </row>
     <row r="324" spans="1:12" ht="30">
-      <c r="A324" s="109"/>
-      <c r="B324" s="110"/>
-      <c r="C324" s="110"/>
-      <c r="D324" s="104"/>
+      <c r="A324" s="130"/>
+      <c r="B324" s="126"/>
+      <c r="C324" s="126"/>
+      <c r="D324" s="128"/>
       <c r="E324" s="15" t="s">
         <v>15</v>
       </c>
@@ -15411,10 +15411,10 @@
       </c>
     </row>
     <row r="325" spans="1:12" ht="45">
-      <c r="A325" s="109"/>
-      <c r="B325" s="110"/>
-      <c r="C325" s="110"/>
-      <c r="D325" s="104"/>
+      <c r="A325" s="130"/>
+      <c r="B325" s="126"/>
+      <c r="C325" s="126"/>
+      <c r="D325" s="128"/>
       <c r="E325" s="15" t="s">
         <v>16</v>
       </c>
@@ -15439,10 +15439,10 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="30">
-      <c r="A326" s="109"/>
-      <c r="B326" s="110"/>
-      <c r="C326" s="110"/>
-      <c r="D326" s="104"/>
+      <c r="A326" s="130"/>
+      <c r="B326" s="126"/>
+      <c r="C326" s="126"/>
+      <c r="D326" s="128"/>
       <c r="E326" s="15" t="s">
         <v>44</v>
       </c>
@@ -15467,10 +15467,10 @@
       </c>
     </row>
     <row r="327" spans="1:12" ht="30">
-      <c r="A327" s="109"/>
-      <c r="B327" s="110"/>
-      <c r="C327" s="110"/>
-      <c r="D327" s="104"/>
+      <c r="A327" s="130"/>
+      <c r="B327" s="126"/>
+      <c r="C327" s="126"/>
+      <c r="D327" s="128"/>
       <c r="E327" s="15" t="s">
         <v>49</v>
       </c>
@@ -15495,10 +15495,10 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="30">
-      <c r="A328" s="109"/>
-      <c r="B328" s="110"/>
-      <c r="C328" s="110"/>
-      <c r="D328" s="104"/>
+      <c r="A328" s="130"/>
+      <c r="B328" s="126"/>
+      <c r="C328" s="126"/>
+      <c r="D328" s="128"/>
       <c r="E328" s="15" t="s">
         <v>54</v>
       </c>
@@ -15523,10 +15523,10 @@
       </c>
     </row>
     <row r="329" spans="1:12" ht="30">
-      <c r="A329" s="109"/>
-      <c r="B329" s="110"/>
-      <c r="C329" s="110"/>
-      <c r="D329" s="104"/>
+      <c r="A329" s="130"/>
+      <c r="B329" s="126"/>
+      <c r="C329" s="126"/>
+      <c r="D329" s="128"/>
       <c r="E329" s="15" t="s">
         <v>60</v>
       </c>
@@ -15551,10 +15551,10 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="45">
-      <c r="A330" s="109"/>
-      <c r="B330" s="110"/>
-      <c r="C330" s="110"/>
-      <c r="D330" s="104"/>
+      <c r="A330" s="130"/>
+      <c r="B330" s="126"/>
+      <c r="C330" s="126"/>
+      <c r="D330" s="128"/>
       <c r="E330" s="15" t="s">
         <v>65</v>
       </c>
@@ -15579,10 +15579,10 @@
       </c>
     </row>
     <row r="331" spans="1:12" ht="45">
-      <c r="A331" s="109"/>
-      <c r="B331" s="110"/>
-      <c r="C331" s="110"/>
-      <c r="D331" s="104"/>
+      <c r="A331" s="130"/>
+      <c r="B331" s="126"/>
+      <c r="C331" s="126"/>
+      <c r="D331" s="128"/>
       <c r="E331" s="15" t="s">
         <v>71</v>
       </c>
@@ -15607,10 +15607,10 @@
       </c>
     </row>
     <row r="332" spans="1:12" ht="45">
-      <c r="A332" s="109"/>
-      <c r="B332" s="110"/>
-      <c r="C332" s="110"/>
-      <c r="D332" s="104"/>
+      <c r="A332" s="130"/>
+      <c r="B332" s="126"/>
+      <c r="C332" s="126"/>
+      <c r="D332" s="128"/>
       <c r="E332" s="15" t="s">
         <v>76</v>
       </c>
@@ -15635,10 +15635,10 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="30">
-      <c r="A333" s="109"/>
-      <c r="B333" s="110"/>
-      <c r="C333" s="110"/>
-      <c r="D333" s="104"/>
+      <c r="A333" s="130"/>
+      <c r="B333" s="126"/>
+      <c r="C333" s="126"/>
+      <c r="D333" s="128"/>
       <c r="E333" s="15" t="s">
         <v>82</v>
       </c>
@@ -15663,10 +15663,10 @@
       </c>
     </row>
     <row r="334" spans="1:12" ht="45">
-      <c r="A334" s="109"/>
-      <c r="B334" s="110"/>
-      <c r="C334" s="110"/>
-      <c r="D334" s="104"/>
+      <c r="A334" s="130"/>
+      <c r="B334" s="126"/>
+      <c r="C334" s="126"/>
+      <c r="D334" s="128"/>
       <c r="E334" s="15" t="s">
         <v>84</v>
       </c>
@@ -15689,10 +15689,10 @@
       </c>
     </row>
     <row r="335" spans="1:12" ht="45">
-      <c r="A335" s="109"/>
-      <c r="B335" s="110"/>
-      <c r="C335" s="110"/>
-      <c r="D335" s="104"/>
+      <c r="A335" s="130"/>
+      <c r="B335" s="126"/>
+      <c r="C335" s="126"/>
+      <c r="D335" s="128"/>
       <c r="E335" s="15" t="s">
         <v>89</v>
       </c>
@@ -15718,10 +15718,10 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="30">
-      <c r="A336" s="109"/>
-      <c r="B336" s="110"/>
-      <c r="C336" s="110"/>
-      <c r="D336" s="105"/>
+      <c r="A336" s="130"/>
+      <c r="B336" s="126"/>
+      <c r="C336" s="126"/>
+      <c r="D336" s="129"/>
       <c r="E336" s="15" t="s">
         <v>106</v>
       </c>
@@ -15744,16 +15744,16 @@
       </c>
     </row>
     <row r="337" spans="1:12" ht="51">
-      <c r="A337" s="106" t="s">
+      <c r="A337" s="120" t="s">
         <v>1253</v>
       </c>
-      <c r="B337" s="107" t="s">
+      <c r="B337" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="C337" s="107" t="s">
+      <c r="C337" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="D337" s="108"/>
+      <c r="D337" s="124"/>
       <c r="E337" s="30" t="s">
         <v>12</v>
       </c>
@@ -15778,10 +15778,10 @@
       </c>
     </row>
     <row r="338" spans="1:12" ht="30">
-      <c r="A338" s="106"/>
-      <c r="B338" s="107"/>
-      <c r="C338" s="107"/>
-      <c r="D338" s="108"/>
+      <c r="A338" s="120"/>
+      <c r="B338" s="122"/>
+      <c r="C338" s="122"/>
+      <c r="D338" s="124"/>
       <c r="E338" s="30" t="s">
         <v>13</v>
       </c>
@@ -15806,10 +15806,10 @@
       </c>
     </row>
     <row r="339" spans="1:12" ht="45">
-      <c r="A339" s="106"/>
-      <c r="B339" s="107"/>
-      <c r="C339" s="107"/>
-      <c r="D339" s="108"/>
+      <c r="A339" s="120"/>
+      <c r="B339" s="122"/>
+      <c r="C339" s="122"/>
+      <c r="D339" s="124"/>
       <c r="E339" s="30" t="s">
         <v>14</v>
       </c>
@@ -15832,10 +15832,10 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="30">
-      <c r="A340" s="106"/>
-      <c r="B340" s="107"/>
-      <c r="C340" s="107"/>
-      <c r="D340" s="108"/>
+      <c r="A340" s="120"/>
+      <c r="B340" s="122"/>
+      <c r="C340" s="122"/>
+      <c r="D340" s="124"/>
       <c r="E340" s="30" t="s">
         <v>15</v>
       </c>
@@ -15858,10 +15858,10 @@
       </c>
     </row>
     <row r="341" spans="1:12" ht="30">
-      <c r="A341" s="106"/>
-      <c r="B341" s="107"/>
-      <c r="C341" s="107"/>
-      <c r="D341" s="108"/>
+      <c r="A341" s="120"/>
+      <c r="B341" s="122"/>
+      <c r="C341" s="122"/>
+      <c r="D341" s="124"/>
       <c r="E341" s="30" t="s">
         <v>16</v>
       </c>
@@ -15884,10 +15884,10 @@
       </c>
     </row>
     <row r="342" spans="1:12" ht="30">
-      <c r="A342" s="106"/>
-      <c r="B342" s="107"/>
-      <c r="C342" s="107"/>
-      <c r="D342" s="108"/>
+      <c r="A342" s="120"/>
+      <c r="B342" s="122"/>
+      <c r="C342" s="122"/>
+      <c r="D342" s="124"/>
       <c r="E342" s="30" t="s">
         <v>44</v>
       </c>
@@ -15910,10 +15910,10 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="30">
-      <c r="A343" s="106"/>
-      <c r="B343" s="107"/>
-      <c r="C343" s="107"/>
-      <c r="D343" s="108"/>
+      <c r="A343" s="120"/>
+      <c r="B343" s="122"/>
+      <c r="C343" s="122"/>
+      <c r="D343" s="124"/>
       <c r="E343" s="30" t="s">
         <v>49</v>
       </c>
@@ -15936,16 +15936,16 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="51">
-      <c r="A344" s="106" t="s">
+      <c r="A344" s="120" t="s">
         <v>1261</v>
       </c>
-      <c r="B344" s="107" t="s">
+      <c r="B344" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="C344" s="107" t="s">
+      <c r="C344" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="D344" s="108"/>
+      <c r="D344" s="124"/>
       <c r="E344" s="30" t="s">
         <v>12</v>
       </c>
@@ -15970,10 +15970,10 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="30">
-      <c r="A345" s="106"/>
-      <c r="B345" s="107"/>
-      <c r="C345" s="107"/>
-      <c r="D345" s="108"/>
+      <c r="A345" s="120"/>
+      <c r="B345" s="122"/>
+      <c r="C345" s="122"/>
+      <c r="D345" s="124"/>
       <c r="E345" s="30" t="s">
         <v>13</v>
       </c>
@@ -15998,10 +15998,10 @@
       </c>
     </row>
     <row r="346" spans="1:12" ht="45">
-      <c r="A346" s="106"/>
-      <c r="B346" s="107"/>
-      <c r="C346" s="107"/>
-      <c r="D346" s="108"/>
+      <c r="A346" s="120"/>
+      <c r="B346" s="122"/>
+      <c r="C346" s="122"/>
+      <c r="D346" s="124"/>
       <c r="E346" s="30" t="s">
         <v>14</v>
       </c>
@@ -16024,10 +16024,10 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="45">
-      <c r="A347" s="106"/>
-      <c r="B347" s="107"/>
-      <c r="C347" s="107"/>
-      <c r="D347" s="108"/>
+      <c r="A347" s="120"/>
+      <c r="B347" s="122"/>
+      <c r="C347" s="122"/>
+      <c r="D347" s="124"/>
       <c r="E347" s="30" t="s">
         <v>15</v>
       </c>
@@ -16052,10 +16052,10 @@
       </c>
     </row>
     <row r="348" spans="1:12" ht="45">
-      <c r="A348" s="106"/>
-      <c r="B348" s="107"/>
-      <c r="C348" s="107"/>
-      <c r="D348" s="108"/>
+      <c r="A348" s="120"/>
+      <c r="B348" s="122"/>
+      <c r="C348" s="122"/>
+      <c r="D348" s="124"/>
       <c r="E348" s="30" t="s">
         <v>16</v>
       </c>
@@ -16080,10 +16080,10 @@
       </c>
     </row>
     <row r="349" spans="1:12" ht="30">
-      <c r="A349" s="106"/>
-      <c r="B349" s="107"/>
-      <c r="C349" s="107"/>
-      <c r="D349" s="108"/>
+      <c r="A349" s="120"/>
+      <c r="B349" s="122"/>
+      <c r="C349" s="122"/>
+      <c r="D349" s="124"/>
       <c r="E349" s="30" t="s">
         <v>44</v>
       </c>
@@ -16108,10 +16108,10 @@
       </c>
     </row>
     <row r="350" spans="1:12" ht="30">
-      <c r="A350" s="106"/>
-      <c r="B350" s="107"/>
-      <c r="C350" s="107"/>
-      <c r="D350" s="108"/>
+      <c r="A350" s="120"/>
+      <c r="B350" s="122"/>
+      <c r="C350" s="122"/>
+      <c r="D350" s="124"/>
       <c r="E350" s="30" t="s">
         <v>49</v>
       </c>
@@ -16136,10 +16136,10 @@
       </c>
     </row>
     <row r="351" spans="1:12" ht="45">
-      <c r="A351" s="106"/>
-      <c r="B351" s="107"/>
-      <c r="C351" s="107"/>
-      <c r="D351" s="108"/>
+      <c r="A351" s="120"/>
+      <c r="B351" s="122"/>
+      <c r="C351" s="122"/>
+      <c r="D351" s="124"/>
       <c r="E351" s="30" t="s">
         <v>54</v>
       </c>
@@ -16162,10 +16162,10 @@
       </c>
     </row>
     <row r="352" spans="1:12" ht="30">
-      <c r="A352" s="106"/>
-      <c r="B352" s="107"/>
-      <c r="C352" s="107"/>
-      <c r="D352" s="108"/>
+      <c r="A352" s="120"/>
+      <c r="B352" s="122"/>
+      <c r="C352" s="122"/>
+      <c r="D352" s="124"/>
       <c r="E352" s="30" t="s">
         <v>60</v>
       </c>
@@ -16188,10 +16188,10 @@
       </c>
     </row>
     <row r="353" spans="1:12" ht="30">
-      <c r="A353" s="106"/>
-      <c r="B353" s="107"/>
-      <c r="C353" s="107"/>
-      <c r="D353" s="108"/>
+      <c r="A353" s="120"/>
+      <c r="B353" s="122"/>
+      <c r="C353" s="122"/>
+      <c r="D353" s="124"/>
       <c r="E353" s="30" t="s">
         <v>65</v>
       </c>
@@ -16214,16 +16214,16 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="51">
-      <c r="A354" s="106" t="s">
+      <c r="A354" s="120" t="s">
         <v>1272</v>
       </c>
-      <c r="B354" s="107" t="s">
+      <c r="B354" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="C354" s="107" t="s">
+      <c r="C354" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="D354" s="108"/>
+      <c r="D354" s="124"/>
       <c r="E354" s="30" t="s">
         <v>12</v>
       </c>
@@ -16248,10 +16248,10 @@
       </c>
     </row>
     <row r="355" spans="1:12" ht="30">
-      <c r="A355" s="106"/>
-      <c r="B355" s="107"/>
-      <c r="C355" s="107"/>
-      <c r="D355" s="108"/>
+      <c r="A355" s="120"/>
+      <c r="B355" s="122"/>
+      <c r="C355" s="122"/>
+      <c r="D355" s="124"/>
       <c r="E355" s="30" t="s">
         <v>13</v>
       </c>
@@ -16276,10 +16276,10 @@
       </c>
     </row>
     <row r="356" spans="1:12" ht="30">
-      <c r="A356" s="106"/>
-      <c r="B356" s="107"/>
-      <c r="C356" s="107"/>
-      <c r="D356" s="108"/>
+      <c r="A356" s="120"/>
+      <c r="B356" s="122"/>
+      <c r="C356" s="122"/>
+      <c r="D356" s="124"/>
       <c r="E356" s="30" t="s">
         <v>14</v>
       </c>
@@ -16302,10 +16302,10 @@
       </c>
     </row>
     <row r="357" spans="1:12" ht="30">
-      <c r="A357" s="106"/>
-      <c r="B357" s="107"/>
-      <c r="C357" s="107"/>
-      <c r="D357" s="108"/>
+      <c r="A357" s="120"/>
+      <c r="B357" s="122"/>
+      <c r="C357" s="122"/>
+      <c r="D357" s="124"/>
       <c r="E357" s="30" t="s">
         <v>15</v>
       </c>
@@ -16328,10 +16328,10 @@
       </c>
     </row>
     <row r="358" spans="1:12" ht="30">
-      <c r="A358" s="106"/>
-      <c r="B358" s="107"/>
-      <c r="C358" s="107"/>
-      <c r="D358" s="108"/>
+      <c r="A358" s="120"/>
+      <c r="B358" s="122"/>
+      <c r="C358" s="122"/>
+      <c r="D358" s="124"/>
       <c r="E358" s="30" t="s">
         <v>16</v>
       </c>
@@ -16354,16 +16354,16 @@
       </c>
     </row>
     <row r="359" spans="1:12" ht="51">
-      <c r="A359" s="106" t="s">
+      <c r="A359" s="120" t="s">
         <v>1278</v>
       </c>
-      <c r="B359" s="107" t="s">
+      <c r="B359" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="C359" s="107" t="s">
+      <c r="C359" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="D359" s="108"/>
+      <c r="D359" s="124"/>
       <c r="E359" s="30" t="s">
         <v>12</v>
       </c>
@@ -16388,10 +16388,10 @@
       </c>
     </row>
     <row r="360" spans="1:12" ht="30">
-      <c r="A360" s="106"/>
-      <c r="B360" s="107"/>
-      <c r="C360" s="107"/>
-      <c r="D360" s="108"/>
+      <c r="A360" s="120"/>
+      <c r="B360" s="122"/>
+      <c r="C360" s="122"/>
+      <c r="D360" s="124"/>
       <c r="E360" s="30" t="s">
         <v>13</v>
       </c>
@@ -16416,10 +16416,10 @@
       </c>
     </row>
     <row r="361" spans="1:12" ht="30">
-      <c r="A361" s="106"/>
-      <c r="B361" s="107"/>
-      <c r="C361" s="107"/>
-      <c r="D361" s="108"/>
+      <c r="A361" s="120"/>
+      <c r="B361" s="122"/>
+      <c r="C361" s="122"/>
+      <c r="D361" s="124"/>
       <c r="E361" s="30" t="s">
         <v>14</v>
       </c>
@@ -16442,10 +16442,10 @@
       </c>
     </row>
     <row r="362" spans="1:12" ht="30">
-      <c r="A362" s="106"/>
-      <c r="B362" s="107"/>
-      <c r="C362" s="107"/>
-      <c r="D362" s="108"/>
+      <c r="A362" s="120"/>
+      <c r="B362" s="122"/>
+      <c r="C362" s="122"/>
+      <c r="D362" s="124"/>
       <c r="E362" s="30" t="s">
         <v>15</v>
       </c>
@@ -16468,10 +16468,10 @@
       </c>
     </row>
     <row r="363" spans="1:12" ht="30">
-      <c r="A363" s="106"/>
-      <c r="B363" s="107"/>
-      <c r="C363" s="107"/>
-      <c r="D363" s="108"/>
+      <c r="A363" s="120"/>
+      <c r="B363" s="122"/>
+      <c r="C363" s="122"/>
+      <c r="D363" s="124"/>
       <c r="E363" s="30" t="s">
         <v>16</v>
       </c>
@@ -16494,16 +16494,16 @@
       </c>
     </row>
     <row r="364" spans="1:12" ht="51">
-      <c r="A364" s="106" t="s">
+      <c r="A364" s="120" t="s">
         <v>1284</v>
       </c>
-      <c r="B364" s="107" t="s">
+      <c r="B364" s="122" t="s">
         <v>338</v>
       </c>
-      <c r="C364" s="107" t="s">
+      <c r="C364" s="122" t="s">
         <v>338</v>
       </c>
-      <c r="D364" s="108"/>
+      <c r="D364" s="124"/>
       <c r="E364" s="30" t="s">
         <v>12</v>
       </c>
@@ -16528,10 +16528,10 @@
       </c>
     </row>
     <row r="365" spans="1:12" ht="30">
-      <c r="A365" s="106"/>
-      <c r="B365" s="107"/>
-      <c r="C365" s="107"/>
-      <c r="D365" s="108"/>
+      <c r="A365" s="120"/>
+      <c r="B365" s="122"/>
+      <c r="C365" s="122"/>
+      <c r="D365" s="124"/>
       <c r="E365" s="30" t="s">
         <v>13</v>
       </c>
@@ -16556,10 +16556,10 @@
       </c>
     </row>
     <row r="366" spans="1:12" ht="30">
-      <c r="A366" s="106"/>
-      <c r="B366" s="107"/>
-      <c r="C366" s="107"/>
-      <c r="D366" s="108"/>
+      <c r="A366" s="120"/>
+      <c r="B366" s="122"/>
+      <c r="C366" s="122"/>
+      <c r="D366" s="124"/>
       <c r="E366" s="30" t="s">
         <v>14</v>
       </c>
@@ -16582,10 +16582,10 @@
       </c>
     </row>
     <row r="367" spans="1:12" ht="45">
-      <c r="A367" s="106"/>
-      <c r="B367" s="107"/>
-      <c r="C367" s="107"/>
-      <c r="D367" s="108"/>
+      <c r="A367" s="120"/>
+      <c r="B367" s="122"/>
+      <c r="C367" s="122"/>
+      <c r="D367" s="124"/>
       <c r="E367" s="30" t="s">
         <v>15</v>
       </c>
@@ -16608,10 +16608,10 @@
       </c>
     </row>
     <row r="368" spans="1:12" ht="30">
-      <c r="A368" s="106"/>
-      <c r="B368" s="107"/>
-      <c r="C368" s="107"/>
-      <c r="D368" s="108"/>
+      <c r="A368" s="120"/>
+      <c r="B368" s="122"/>
+      <c r="C368" s="122"/>
+      <c r="D368" s="124"/>
       <c r="E368" s="30" t="s">
         <v>16</v>
       </c>
@@ -16636,10 +16636,10 @@
       </c>
     </row>
     <row r="369" spans="1:12" ht="30">
-      <c r="A369" s="106"/>
-      <c r="B369" s="107"/>
-      <c r="C369" s="107"/>
-      <c r="D369" s="108"/>
+      <c r="A369" s="120"/>
+      <c r="B369" s="122"/>
+      <c r="C369" s="122"/>
+      <c r="D369" s="124"/>
       <c r="E369" s="30" t="s">
         <v>44</v>
       </c>
@@ -16664,10 +16664,10 @@
       </c>
     </row>
     <row r="370" spans="1:12" ht="45">
-      <c r="A370" s="106"/>
-      <c r="B370" s="107"/>
-      <c r="C370" s="107"/>
-      <c r="D370" s="108"/>
+      <c r="A370" s="120"/>
+      <c r="B370" s="122"/>
+      <c r="C370" s="122"/>
+      <c r="D370" s="124"/>
       <c r="E370" s="30" t="s">
         <v>49</v>
       </c>
@@ -16690,10 +16690,10 @@
       </c>
     </row>
     <row r="371" spans="1:12" ht="60">
-      <c r="A371" s="106"/>
-      <c r="B371" s="107"/>
-      <c r="C371" s="107"/>
-      <c r="D371" s="108"/>
+      <c r="A371" s="120"/>
+      <c r="B371" s="122"/>
+      <c r="C371" s="122"/>
+      <c r="D371" s="124"/>
       <c r="E371" s="30" t="s">
         <v>54</v>
       </c>
@@ -16716,10 +16716,10 @@
       </c>
     </row>
     <row r="372" spans="1:12" ht="30">
-      <c r="A372" s="106"/>
-      <c r="B372" s="107"/>
-      <c r="C372" s="107"/>
-      <c r="D372" s="108"/>
+      <c r="A372" s="120"/>
+      <c r="B372" s="122"/>
+      <c r="C372" s="122"/>
+      <c r="D372" s="124"/>
       <c r="E372" s="30" t="s">
         <v>60</v>
       </c>
@@ -16742,10 +16742,10 @@
       </c>
     </row>
     <row r="373" spans="1:12" ht="45">
-      <c r="A373" s="106"/>
-      <c r="B373" s="107"/>
-      <c r="C373" s="107"/>
-      <c r="D373" s="108"/>
+      <c r="A373" s="120"/>
+      <c r="B373" s="122"/>
+      <c r="C373" s="122"/>
+      <c r="D373" s="124"/>
       <c r="E373" s="30" t="s">
         <v>65</v>
       </c>
@@ -16768,10 +16768,10 @@
       </c>
     </row>
     <row r="374" spans="1:12" ht="45">
-      <c r="A374" s="106"/>
-      <c r="B374" s="107"/>
-      <c r="C374" s="107"/>
-      <c r="D374" s="108"/>
+      <c r="A374" s="120"/>
+      <c r="B374" s="122"/>
+      <c r="C374" s="122"/>
+      <c r="D374" s="124"/>
       <c r="E374" s="30" t="s">
         <v>71</v>
       </c>
@@ -16797,10 +16797,10 @@
       </c>
     </row>
     <row r="375" spans="1:12" ht="45">
-      <c r="A375" s="106"/>
-      <c r="B375" s="107"/>
-      <c r="C375" s="107"/>
-      <c r="D375" s="108"/>
+      <c r="A375" s="120"/>
+      <c r="B375" s="122"/>
+      <c r="C375" s="122"/>
+      <c r="D375" s="124"/>
       <c r="E375" s="30" t="s">
         <v>76</v>
       </c>
@@ -16823,10 +16823,10 @@
       </c>
     </row>
     <row r="376" spans="1:12" ht="30">
-      <c r="A376" s="106"/>
-      <c r="B376" s="107"/>
-      <c r="C376" s="107"/>
-      <c r="D376" s="108"/>
+      <c r="A376" s="120"/>
+      <c r="B376" s="122"/>
+      <c r="C376" s="122"/>
+      <c r="D376" s="124"/>
       <c r="E376" s="30" t="s">
         <v>82</v>
       </c>
@@ -16849,10 +16849,10 @@
       </c>
     </row>
     <row r="377" spans="1:12" ht="30">
-      <c r="A377" s="106"/>
-      <c r="B377" s="107"/>
-      <c r="C377" s="107"/>
-      <c r="D377" s="108"/>
+      <c r="A377" s="120"/>
+      <c r="B377" s="122"/>
+      <c r="C377" s="122"/>
+      <c r="D377" s="124"/>
       <c r="E377" s="30" t="s">
         <v>84</v>
       </c>
@@ -16875,10 +16875,10 @@
       </c>
     </row>
     <row r="378" spans="1:12" ht="30">
-      <c r="A378" s="106"/>
-      <c r="B378" s="107"/>
-      <c r="C378" s="107"/>
-      <c r="D378" s="108"/>
+      <c r="A378" s="120"/>
+      <c r="B378" s="122"/>
+      <c r="C378" s="122"/>
+      <c r="D378" s="124"/>
       <c r="E378" s="30" t="s">
         <v>89</v>
       </c>
@@ -16901,16 +16901,16 @@
       </c>
     </row>
     <row r="379" spans="1:12" ht="51">
-      <c r="A379" s="106" t="s">
+      <c r="A379" s="120" t="s">
         <v>1300</v>
       </c>
-      <c r="B379" s="107" t="s">
+      <c r="B379" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="C379" s="107" t="s">
+      <c r="C379" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D379" s="108"/>
+      <c r="D379" s="124"/>
       <c r="E379" s="30" t="s">
         <v>12</v>
       </c>
@@ -16935,10 +16935,10 @@
       </c>
     </row>
     <row r="380" spans="1:12" ht="30">
-      <c r="A380" s="106"/>
-      <c r="B380" s="107"/>
-      <c r="C380" s="107"/>
-      <c r="D380" s="108"/>
+      <c r="A380" s="120"/>
+      <c r="B380" s="122"/>
+      <c r="C380" s="122"/>
+      <c r="D380" s="124"/>
       <c r="E380" s="30" t="s">
         <v>13</v>
       </c>
@@ -16963,10 +16963,10 @@
       </c>
     </row>
     <row r="381" spans="1:12" ht="45">
-      <c r="A381" s="106"/>
-      <c r="B381" s="107"/>
-      <c r="C381" s="107"/>
-      <c r="D381" s="108"/>
+      <c r="A381" s="120"/>
+      <c r="B381" s="122"/>
+      <c r="C381" s="122"/>
+      <c r="D381" s="124"/>
       <c r="E381" s="30" t="s">
         <v>14</v>
       </c>
@@ -16989,10 +16989,10 @@
       </c>
     </row>
     <row r="382" spans="1:12" ht="30">
-      <c r="A382" s="106"/>
-      <c r="B382" s="107"/>
-      <c r="C382" s="107"/>
-      <c r="D382" s="108"/>
+      <c r="A382" s="120"/>
+      <c r="B382" s="122"/>
+      <c r="C382" s="122"/>
+      <c r="D382" s="124"/>
       <c r="E382" s="30" t="s">
         <v>15</v>
       </c>
@@ -17015,10 +17015,10 @@
       </c>
     </row>
     <row r="383" spans="1:12" ht="45">
-      <c r="A383" s="106"/>
-      <c r="B383" s="107"/>
-      <c r="C383" s="107"/>
-      <c r="D383" s="108"/>
+      <c r="A383" s="120"/>
+      <c r="B383" s="122"/>
+      <c r="C383" s="122"/>
+      <c r="D383" s="124"/>
       <c r="E383" s="30" t="s">
         <v>16</v>
       </c>
@@ -17041,10 +17041,10 @@
       </c>
     </row>
     <row r="384" spans="1:12" ht="15">
-      <c r="A384" s="106"/>
-      <c r="B384" s="107"/>
-      <c r="C384" s="107"/>
-      <c r="D384" s="108"/>
+      <c r="A384" s="120"/>
+      <c r="B384" s="122"/>
+      <c r="C384" s="122"/>
+      <c r="D384" s="124"/>
       <c r="E384" s="30" t="s">
         <v>44</v>
       </c>
@@ -17067,10 +17067,10 @@
       </c>
     </row>
     <row r="385" spans="1:12" ht="30">
-      <c r="A385" s="106"/>
-      <c r="B385" s="107"/>
-      <c r="C385" s="107"/>
-      <c r="D385" s="108"/>
+      <c r="A385" s="120"/>
+      <c r="B385" s="122"/>
+      <c r="C385" s="122"/>
+      <c r="D385" s="124"/>
       <c r="E385" s="30" t="s">
         <v>49</v>
       </c>
@@ -17093,16 +17093,16 @@
       </c>
     </row>
     <row r="386" spans="1:12" ht="51">
-      <c r="A386" s="99" t="s">
+      <c r="A386" s="131" t="s">
         <v>1308</v>
       </c>
-      <c r="B386" s="107" t="s">
+      <c r="B386" s="122" t="s">
         <v>365</v>
       </c>
-      <c r="C386" s="107" t="s">
+      <c r="C386" s="122" t="s">
         <v>365</v>
       </c>
-      <c r="D386" s="108"/>
+      <c r="D386" s="124"/>
       <c r="E386" s="30" t="s">
         <v>12</v>
       </c>
@@ -17127,10 +17127,10 @@
       </c>
     </row>
     <row r="387" spans="1:12" ht="60">
-      <c r="A387" s="100"/>
-      <c r="B387" s="107"/>
-      <c r="C387" s="107"/>
-      <c r="D387" s="108"/>
+      <c r="A387" s="132"/>
+      <c r="B387" s="122"/>
+      <c r="C387" s="122"/>
+      <c r="D387" s="124"/>
       <c r="E387" s="30" t="s">
         <v>13</v>
       </c>
@@ -17155,10 +17155,10 @@
       </c>
     </row>
     <row r="388" spans="1:12" ht="45">
-      <c r="A388" s="100"/>
-      <c r="B388" s="107"/>
-      <c r="C388" s="107"/>
-      <c r="D388" s="108"/>
+      <c r="A388" s="132"/>
+      <c r="B388" s="122"/>
+      <c r="C388" s="122"/>
+      <c r="D388" s="124"/>
       <c r="E388" s="30" t="s">
         <v>14</v>
       </c>
@@ -17181,10 +17181,10 @@
       </c>
     </row>
     <row r="389" spans="1:12" ht="30">
-      <c r="A389" s="100"/>
-      <c r="B389" s="107"/>
-      <c r="C389" s="107"/>
-      <c r="D389" s="108"/>
+      <c r="A389" s="132"/>
+      <c r="B389" s="122"/>
+      <c r="C389" s="122"/>
+      <c r="D389" s="124"/>
       <c r="E389" s="30" t="s">
         <v>15</v>
       </c>
@@ -17207,10 +17207,10 @@
       </c>
     </row>
     <row r="390" spans="1:12" ht="30">
-      <c r="A390" s="100"/>
-      <c r="B390" s="107"/>
-      <c r="C390" s="107"/>
-      <c r="D390" s="108"/>
+      <c r="A390" s="132"/>
+      <c r="B390" s="122"/>
+      <c r="C390" s="122"/>
+      <c r="D390" s="124"/>
       <c r="E390" s="30" t="s">
         <v>16</v>
       </c>
@@ -17233,10 +17233,10 @@
       </c>
     </row>
     <row r="391" spans="1:12" ht="30">
-      <c r="A391" s="100"/>
-      <c r="B391" s="107"/>
-      <c r="C391" s="107"/>
-      <c r="D391" s="108"/>
+      <c r="A391" s="132"/>
+      <c r="B391" s="122"/>
+      <c r="C391" s="122"/>
+      <c r="D391" s="124"/>
       <c r="E391" s="30" t="s">
         <v>44</v>
       </c>
@@ -17259,10 +17259,10 @@
       </c>
     </row>
     <row r="392" spans="1:12" ht="30">
-      <c r="A392" s="100"/>
-      <c r="B392" s="107"/>
-      <c r="C392" s="107"/>
-      <c r="D392" s="108"/>
+      <c r="A392" s="132"/>
+      <c r="B392" s="122"/>
+      <c r="C392" s="122"/>
+      <c r="D392" s="124"/>
       <c r="E392" s="30" t="s">
         <v>49</v>
       </c>
@@ -17285,16 +17285,16 @@
       </c>
     </row>
     <row r="393" spans="1:12" ht="45">
-      <c r="A393" s="99" t="s">
+      <c r="A393" s="131" t="s">
         <v>1316</v>
       </c>
-      <c r="B393" s="102" t="s">
+      <c r="B393" s="133" t="s">
         <v>391</v>
       </c>
-      <c r="C393" s="102" t="s">
+      <c r="C393" s="133" t="s">
         <v>391</v>
       </c>
-      <c r="D393" s="111"/>
+      <c r="D393" s="134"/>
       <c r="E393" s="71" t="s">
         <v>12</v>
       </c>
@@ -17319,10 +17319,10 @@
       </c>
     </row>
     <row r="394" spans="1:12" ht="25.5">
-      <c r="A394" s="100"/>
-      <c r="B394" s="102"/>
-      <c r="C394" s="102"/>
-      <c r="D394" s="112"/>
+      <c r="A394" s="132"/>
+      <c r="B394" s="133"/>
+      <c r="C394" s="133"/>
+      <c r="D394" s="135"/>
       <c r="E394" s="71" t="s">
         <v>13</v>
       </c>
@@ -17347,10 +17347,10 @@
       </c>
     </row>
     <row r="395" spans="1:12" ht="25.5">
-      <c r="A395" s="100"/>
-      <c r="B395" s="102"/>
-      <c r="C395" s="102"/>
-      <c r="D395" s="112"/>
+      <c r="A395" s="132"/>
+      <c r="B395" s="133"/>
+      <c r="C395" s="133"/>
+      <c r="D395" s="135"/>
       <c r="E395" s="71" t="s">
         <v>14</v>
       </c>
@@ -17373,10 +17373,10 @@
       </c>
     </row>
     <row r="396" spans="1:12" ht="30">
-      <c r="A396" s="100"/>
-      <c r="B396" s="102"/>
-      <c r="C396" s="102"/>
-      <c r="D396" s="112"/>
+      <c r="A396" s="132"/>
+      <c r="B396" s="133"/>
+      <c r="C396" s="133"/>
+      <c r="D396" s="135"/>
       <c r="E396" s="71" t="s">
         <v>15</v>
       </c>
@@ -17399,10 +17399,10 @@
       </c>
     </row>
     <row r="397" spans="1:12" ht="30">
-      <c r="A397" s="100"/>
-      <c r="B397" s="102"/>
-      <c r="C397" s="102"/>
-      <c r="D397" s="112"/>
+      <c r="A397" s="132"/>
+      <c r="B397" s="133"/>
+      <c r="C397" s="133"/>
+      <c r="D397" s="135"/>
       <c r="E397" s="71" t="s">
         <v>16</v>
       </c>
@@ -17425,10 +17425,10 @@
       </c>
     </row>
     <row r="398" spans="1:12" ht="30">
-      <c r="A398" s="100"/>
-      <c r="B398" s="102"/>
-      <c r="C398" s="102"/>
-      <c r="D398" s="112"/>
+      <c r="A398" s="132"/>
+      <c r="B398" s="133"/>
+      <c r="C398" s="133"/>
+      <c r="D398" s="135"/>
       <c r="E398" s="71" t="s">
         <v>44</v>
       </c>
@@ -17451,10 +17451,10 @@
       </c>
     </row>
     <row r="399" spans="1:12" ht="30">
-      <c r="A399" s="101"/>
-      <c r="B399" s="102"/>
-      <c r="C399" s="102"/>
-      <c r="D399" s="113"/>
+      <c r="A399" s="119"/>
+      <c r="B399" s="133"/>
+      <c r="C399" s="133"/>
+      <c r="D399" s="136"/>
       <c r="E399" s="71" t="s">
         <v>49</v>
       </c>
@@ -17477,16 +17477,16 @@
       </c>
     </row>
     <row r="400" spans="1:12" ht="45">
-      <c r="A400" s="99" t="s">
+      <c r="A400" s="131" t="s">
         <v>1323</v>
       </c>
-      <c r="B400" s="102" t="s">
+      <c r="B400" s="133" t="s">
         <v>390</v>
       </c>
-      <c r="C400" s="102" t="s">
+      <c r="C400" s="133" t="s">
         <v>390</v>
       </c>
-      <c r="D400" s="111"/>
+      <c r="D400" s="134"/>
       <c r="E400" s="71" t="s">
         <v>12</v>
       </c>
@@ -17511,10 +17511,10 @@
       </c>
     </row>
     <row r="401" spans="1:12" ht="25.5">
-      <c r="A401" s="100"/>
-      <c r="B401" s="102"/>
-      <c r="C401" s="102"/>
-      <c r="D401" s="112"/>
+      <c r="A401" s="132"/>
+      <c r="B401" s="133"/>
+      <c r="C401" s="133"/>
+      <c r="D401" s="135"/>
       <c r="E401" s="71" t="s">
         <v>13</v>
       </c>
@@ -17539,10 +17539,10 @@
       </c>
     </row>
     <row r="402" spans="1:12" ht="25.5">
-      <c r="A402" s="100"/>
-      <c r="B402" s="102"/>
-      <c r="C402" s="102"/>
-      <c r="D402" s="112"/>
+      <c r="A402" s="132"/>
+      <c r="B402" s="133"/>
+      <c r="C402" s="133"/>
+      <c r="D402" s="135"/>
       <c r="E402" s="71" t="s">
         <v>14</v>
       </c>
@@ -17565,10 +17565,10 @@
       </c>
     </row>
     <row r="403" spans="1:12" ht="30">
-      <c r="A403" s="100"/>
-      <c r="B403" s="102"/>
-      <c r="C403" s="102"/>
-      <c r="D403" s="112"/>
+      <c r="A403" s="132"/>
+      <c r="B403" s="133"/>
+      <c r="C403" s="133"/>
+      <c r="D403" s="135"/>
       <c r="E403" s="71" t="s">
         <v>15</v>
       </c>
@@ -17591,10 +17591,10 @@
       </c>
     </row>
     <row r="404" spans="1:12" ht="30">
-      <c r="A404" s="100"/>
-      <c r="B404" s="102"/>
-      <c r="C404" s="102"/>
-      <c r="D404" s="112"/>
+      <c r="A404" s="132"/>
+      <c r="B404" s="133"/>
+      <c r="C404" s="133"/>
+      <c r="D404" s="135"/>
       <c r="E404" s="71" t="s">
         <v>16</v>
       </c>
@@ -17617,10 +17617,10 @@
       </c>
     </row>
     <row r="405" spans="1:12" ht="30">
-      <c r="A405" s="100"/>
-      <c r="B405" s="102"/>
-      <c r="C405" s="102"/>
-      <c r="D405" s="112"/>
+      <c r="A405" s="132"/>
+      <c r="B405" s="133"/>
+      <c r="C405" s="133"/>
+      <c r="D405" s="135"/>
       <c r="E405" s="71" t="s">
         <v>44</v>
       </c>
@@ -17643,10 +17643,10 @@
       </c>
     </row>
     <row r="406" spans="1:12" ht="30">
-      <c r="A406" s="101"/>
-      <c r="B406" s="102"/>
-      <c r="C406" s="102"/>
-      <c r="D406" s="113"/>
+      <c r="A406" s="119"/>
+      <c r="B406" s="133"/>
+      <c r="C406" s="133"/>
+      <c r="D406" s="136"/>
       <c r="E406" s="71" t="s">
         <v>49</v>
       </c>
@@ -17669,16 +17669,16 @@
       </c>
     </row>
     <row r="407" spans="1:12" ht="45">
-      <c r="A407" s="99" t="s">
+      <c r="A407" s="131" t="s">
         <v>1331</v>
       </c>
-      <c r="B407" s="102" t="s">
+      <c r="B407" s="133" t="s">
         <v>399</v>
       </c>
-      <c r="C407" s="102" t="s">
+      <c r="C407" s="133" t="s">
         <v>399</v>
       </c>
-      <c r="D407" s="103"/>
+      <c r="D407" s="127"/>
       <c r="E407" s="71" t="s">
         <v>12</v>
       </c>
@@ -17703,10 +17703,10 @@
       </c>
     </row>
     <row r="408" spans="1:12" ht="25.5">
-      <c r="A408" s="100"/>
-      <c r="B408" s="102"/>
-      <c r="C408" s="102"/>
-      <c r="D408" s="104"/>
+      <c r="A408" s="132"/>
+      <c r="B408" s="133"/>
+      <c r="C408" s="133"/>
+      <c r="D408" s="128"/>
       <c r="E408" s="71" t="s">
         <v>13</v>
       </c>
@@ -17731,10 +17731,10 @@
       </c>
     </row>
     <row r="409" spans="1:12" ht="25.5">
-      <c r="A409" s="100"/>
-      <c r="B409" s="102"/>
-      <c r="C409" s="102"/>
-      <c r="D409" s="104"/>
+      <c r="A409" s="132"/>
+      <c r="B409" s="133"/>
+      <c r="C409" s="133"/>
+      <c r="D409" s="128"/>
       <c r="E409" s="71" t="s">
         <v>14</v>
       </c>
@@ -17757,10 +17757,10 @@
       </c>
     </row>
     <row r="410" spans="1:12" ht="30">
-      <c r="A410" s="101"/>
-      <c r="B410" s="102"/>
-      <c r="C410" s="102"/>
-      <c r="D410" s="105"/>
+      <c r="A410" s="119"/>
+      <c r="B410" s="133"/>
+      <c r="C410" s="133"/>
+      <c r="D410" s="129"/>
       <c r="E410" s="71" t="s">
         <v>15</v>
       </c>
@@ -17783,16 +17783,16 @@
       </c>
     </row>
     <row r="411" spans="1:12" ht="45">
-      <c r="A411" s="109" t="s">
+      <c r="A411" s="130" t="s">
         <v>1336</v>
       </c>
-      <c r="B411" s="110" t="s">
+      <c r="B411" s="126" t="s">
         <v>1337</v>
       </c>
-      <c r="C411" s="110" t="s">
+      <c r="C411" s="126" t="s">
         <v>1337</v>
       </c>
-      <c r="D411" s="103"/>
+      <c r="D411" s="127"/>
       <c r="E411" s="15" t="s">
         <v>12</v>
       </c>
@@ -17819,10 +17819,10 @@
       </c>
     </row>
     <row r="412" spans="1:12" ht="38.25">
-      <c r="A412" s="109"/>
-      <c r="B412" s="110"/>
-      <c r="C412" s="110"/>
-      <c r="D412" s="104"/>
+      <c r="A412" s="130"/>
+      <c r="B412" s="126"/>
+      <c r="C412" s="126"/>
+      <c r="D412" s="128"/>
       <c r="E412" s="15" t="s">
         <v>13</v>
       </c>
@@ -17849,10 +17849,10 @@
       </c>
     </row>
     <row r="413" spans="1:12" ht="30">
-      <c r="A413" s="109"/>
-      <c r="B413" s="110"/>
-      <c r="C413" s="110"/>
-      <c r="D413" s="104"/>
+      <c r="A413" s="130"/>
+      <c r="B413" s="126"/>
+      <c r="C413" s="126"/>
+      <c r="D413" s="128"/>
       <c r="E413" s="15" t="s">
         <v>14</v>
       </c>
@@ -17877,10 +17877,10 @@
       </c>
     </row>
     <row r="414" spans="1:12" ht="45">
-      <c r="A414" s="109"/>
-      <c r="B414" s="110"/>
-      <c r="C414" s="110"/>
-      <c r="D414" s="104"/>
+      <c r="A414" s="130"/>
+      <c r="B414" s="126"/>
+      <c r="C414" s="126"/>
+      <c r="D414" s="128"/>
       <c r="E414" s="15" t="s">
         <v>15</v>
       </c>
@@ -17905,10 +17905,10 @@
       </c>
     </row>
     <row r="415" spans="1:12" ht="30">
-      <c r="A415" s="109"/>
-      <c r="B415" s="110"/>
-      <c r="C415" s="110"/>
-      <c r="D415" s="104"/>
+      <c r="A415" s="130"/>
+      <c r="B415" s="126"/>
+      <c r="C415" s="126"/>
+      <c r="D415" s="128"/>
       <c r="E415" s="15" t="s">
         <v>16</v>
       </c>
@@ -17936,10 +17936,10 @@
       </c>
     </row>
     <row r="416" spans="1:12" ht="45">
-      <c r="A416" s="109"/>
-      <c r="B416" s="110"/>
-      <c r="C416" s="110"/>
-      <c r="D416" s="104"/>
+      <c r="A416" s="130"/>
+      <c r="B416" s="126"/>
+      <c r="C416" s="126"/>
+      <c r="D416" s="128"/>
       <c r="E416" s="15" t="s">
         <v>44</v>
       </c>
@@ -17966,10 +17966,10 @@
       </c>
     </row>
     <row r="417" spans="1:12" ht="30">
-      <c r="A417" s="109"/>
-      <c r="B417" s="110"/>
-      <c r="C417" s="110"/>
-      <c r="D417" s="104"/>
+      <c r="A417" s="130"/>
+      <c r="B417" s="126"/>
+      <c r="C417" s="126"/>
+      <c r="D417" s="128"/>
       <c r="E417" s="15" t="s">
         <v>49</v>
       </c>
@@ -17994,10 +17994,10 @@
       </c>
     </row>
     <row r="418" spans="1:12" ht="30">
-      <c r="A418" s="109"/>
-      <c r="B418" s="110"/>
-      <c r="C418" s="110"/>
-      <c r="D418" s="104"/>
+      <c r="A418" s="130"/>
+      <c r="B418" s="126"/>
+      <c r="C418" s="126"/>
+      <c r="D418" s="128"/>
       <c r="E418" s="15" t="s">
         <v>54</v>
       </c>
@@ -18025,10 +18025,10 @@
       </c>
     </row>
     <row r="419" spans="1:12" ht="60">
-      <c r="A419" s="109"/>
-      <c r="B419" s="110"/>
-      <c r="C419" s="110"/>
-      <c r="D419" s="104"/>
+      <c r="A419" s="130"/>
+      <c r="B419" s="126"/>
+      <c r="C419" s="126"/>
+      <c r="D419" s="128"/>
       <c r="E419" s="15" t="s">
         <v>60</v>
       </c>
@@ -18055,10 +18055,10 @@
       </c>
     </row>
     <row r="420" spans="1:12" ht="60">
-      <c r="A420" s="109"/>
-      <c r="B420" s="110"/>
-      <c r="C420" s="110"/>
-      <c r="D420" s="104"/>
+      <c r="A420" s="130"/>
+      <c r="B420" s="126"/>
+      <c r="C420" s="126"/>
+      <c r="D420" s="128"/>
       <c r="E420" s="15" t="s">
         <v>65</v>
       </c>
@@ -18083,10 +18083,10 @@
       </c>
     </row>
     <row r="421" spans="1:12" ht="30">
-      <c r="A421" s="109"/>
-      <c r="B421" s="110"/>
-      <c r="C421" s="110"/>
-      <c r="D421" s="104"/>
+      <c r="A421" s="130"/>
+      <c r="B421" s="126"/>
+      <c r="C421" s="126"/>
+      <c r="D421" s="128"/>
       <c r="E421" s="15" t="s">
         <v>71</v>
       </c>
@@ -18114,10 +18114,10 @@
       </c>
     </row>
     <row r="422" spans="1:12" ht="45">
-      <c r="A422" s="109"/>
-      <c r="B422" s="110"/>
-      <c r="C422" s="110"/>
-      <c r="D422" s="104"/>
+      <c r="A422" s="130"/>
+      <c r="B422" s="126"/>
+      <c r="C422" s="126"/>
+      <c r="D422" s="128"/>
       <c r="E422" s="15" t="s">
         <v>76</v>
       </c>
@@ -18144,10 +18144,10 @@
       </c>
     </row>
     <row r="423" spans="1:12" ht="30">
-      <c r="A423" s="109"/>
-      <c r="B423" s="110"/>
-      <c r="C423" s="110"/>
-      <c r="D423" s="104"/>
+      <c r="A423" s="130"/>
+      <c r="B423" s="126"/>
+      <c r="C423" s="126"/>
+      <c r="D423" s="128"/>
       <c r="E423" s="15" t="s">
         <v>82</v>
       </c>
@@ -18172,10 +18172,10 @@
       </c>
     </row>
     <row r="424" spans="1:12" ht="30">
-      <c r="A424" s="109"/>
-      <c r="B424" s="110"/>
-      <c r="C424" s="110"/>
-      <c r="D424" s="104"/>
+      <c r="A424" s="130"/>
+      <c r="B424" s="126"/>
+      <c r="C424" s="126"/>
+      <c r="D424" s="128"/>
       <c r="E424" s="15" t="s">
         <v>84</v>
       </c>
@@ -18203,10 +18203,10 @@
       </c>
     </row>
     <row r="425" spans="1:12" ht="60">
-      <c r="A425" s="109"/>
-      <c r="B425" s="110"/>
-      <c r="C425" s="110"/>
-      <c r="D425" s="104"/>
+      <c r="A425" s="130"/>
+      <c r="B425" s="126"/>
+      <c r="C425" s="126"/>
+      <c r="D425" s="128"/>
       <c r="E425" s="15" t="s">
         <v>89</v>
       </c>
@@ -18233,10 +18233,10 @@
       </c>
     </row>
     <row r="426" spans="1:12" ht="30">
-      <c r="A426" s="109"/>
-      <c r="B426" s="110"/>
-      <c r="C426" s="110"/>
-      <c r="D426" s="105"/>
+      <c r="A426" s="130"/>
+      <c r="B426" s="126"/>
+      <c r="C426" s="126"/>
+      <c r="D426" s="129"/>
       <c r="E426" s="15" t="s">
         <v>106</v>
       </c>
@@ -18261,16 +18261,16 @@
       </c>
     </row>
     <row r="427" spans="1:12" ht="45">
-      <c r="A427" s="109" t="s">
+      <c r="A427" s="130" t="s">
         <v>1400</v>
       </c>
-      <c r="B427" s="110" t="s">
+      <c r="B427" s="126" t="s">
         <v>1401</v>
       </c>
-      <c r="C427" s="110" t="s">
+      <c r="C427" s="126" t="s">
         <v>1401</v>
       </c>
-      <c r="D427" s="103"/>
+      <c r="D427" s="127"/>
       <c r="E427" s="15" t="s">
         <v>12</v>
       </c>
@@ -18297,10 +18297,10 @@
       </c>
     </row>
     <row r="428" spans="1:12" ht="30">
-      <c r="A428" s="109"/>
-      <c r="B428" s="110"/>
-      <c r="C428" s="110"/>
-      <c r="D428" s="104"/>
+      <c r="A428" s="130"/>
+      <c r="B428" s="126"/>
+      <c r="C428" s="126"/>
+      <c r="D428" s="128"/>
       <c r="E428" s="15" t="s">
         <v>13</v>
       </c>
@@ -18325,10 +18325,10 @@
       </c>
     </row>
     <row r="429" spans="1:12" ht="45">
-      <c r="A429" s="109"/>
-      <c r="B429" s="110"/>
-      <c r="C429" s="110"/>
-      <c r="D429" s="104"/>
+      <c r="A429" s="130"/>
+      <c r="B429" s="126"/>
+      <c r="C429" s="126"/>
+      <c r="D429" s="128"/>
       <c r="E429" s="15" t="s">
         <v>14</v>
       </c>
@@ -18353,10 +18353,10 @@
       </c>
     </row>
     <row r="430" spans="1:12" ht="30">
-      <c r="A430" s="109"/>
-      <c r="B430" s="110"/>
-      <c r="C430" s="110"/>
-      <c r="D430" s="104"/>
+      <c r="A430" s="130"/>
+      <c r="B430" s="126"/>
+      <c r="C430" s="126"/>
+      <c r="D430" s="128"/>
       <c r="E430" s="15" t="s">
         <v>15</v>
       </c>
@@ -18383,10 +18383,10 @@
       </c>
     </row>
     <row r="431" spans="1:12" ht="38.25">
-      <c r="A431" s="109"/>
-      <c r="B431" s="110"/>
-      <c r="C431" s="110"/>
-      <c r="D431" s="104"/>
+      <c r="A431" s="130"/>
+      <c r="B431" s="126"/>
+      <c r="C431" s="126"/>
+      <c r="D431" s="128"/>
       <c r="E431" s="15" t="s">
         <v>16</v>
       </c>
@@ -18411,10 +18411,10 @@
       </c>
     </row>
     <row r="432" spans="1:12" ht="30">
-      <c r="A432" s="109"/>
-      <c r="B432" s="110"/>
-      <c r="C432" s="110"/>
-      <c r="D432" s="104"/>
+      <c r="A432" s="130"/>
+      <c r="B432" s="126"/>
+      <c r="C432" s="126"/>
+      <c r="D432" s="128"/>
       <c r="E432" s="15" t="s">
         <v>44</v>
       </c>
@@ -18439,10 +18439,10 @@
       </c>
     </row>
     <row r="433" spans="1:12" ht="45">
-      <c r="A433" s="109"/>
-      <c r="B433" s="110"/>
-      <c r="C433" s="110"/>
-      <c r="D433" s="104"/>
+      <c r="A433" s="130"/>
+      <c r="B433" s="126"/>
+      <c r="C433" s="126"/>
+      <c r="D433" s="128"/>
       <c r="E433" s="15" t="s">
         <v>49</v>
       </c>
@@ -18469,10 +18469,10 @@
       </c>
     </row>
     <row r="434" spans="1:12" ht="30">
-      <c r="A434" s="109"/>
-      <c r="B434" s="110"/>
-      <c r="C434" s="110"/>
-      <c r="D434" s="104"/>
+      <c r="A434" s="130"/>
+      <c r="B434" s="126"/>
+      <c r="C434" s="126"/>
+      <c r="D434" s="128"/>
       <c r="E434" s="15" t="s">
         <v>54</v>
       </c>
@@ -18497,10 +18497,10 @@
       </c>
     </row>
     <row r="435" spans="1:12" ht="45">
-      <c r="A435" s="109"/>
-      <c r="B435" s="110"/>
-      <c r="C435" s="110"/>
-      <c r="D435" s="104"/>
+      <c r="A435" s="130"/>
+      <c r="B435" s="126"/>
+      <c r="C435" s="126"/>
+      <c r="D435" s="128"/>
       <c r="E435" s="15" t="s">
         <v>60</v>
       </c>
@@ -18527,10 +18527,10 @@
       </c>
     </row>
     <row r="436" spans="1:12" ht="60">
-      <c r="A436" s="109"/>
-      <c r="B436" s="110"/>
-      <c r="C436" s="110"/>
-      <c r="D436" s="104"/>
+      <c r="A436" s="130"/>
+      <c r="B436" s="126"/>
+      <c r="C436" s="126"/>
+      <c r="D436" s="128"/>
       <c r="E436" s="15" t="s">
         <v>65</v>
       </c>
@@ -18555,10 +18555,10 @@
       </c>
     </row>
     <row r="437" spans="1:12" ht="45">
-      <c r="A437" s="109"/>
-      <c r="B437" s="110"/>
-      <c r="C437" s="110"/>
-      <c r="D437" s="104"/>
+      <c r="A437" s="130"/>
+      <c r="B437" s="126"/>
+      <c r="C437" s="126"/>
+      <c r="D437" s="128"/>
       <c r="E437" s="15" t="s">
         <v>71</v>
       </c>
@@ -18585,10 +18585,10 @@
       </c>
     </row>
     <row r="438" spans="1:12" ht="30">
-      <c r="A438" s="109"/>
-      <c r="B438" s="110"/>
-      <c r="C438" s="110"/>
-      <c r="D438" s="105"/>
+      <c r="A438" s="130"/>
+      <c r="B438" s="126"/>
+      <c r="C438" s="126"/>
+      <c r="D438" s="129"/>
       <c r="E438" s="15" t="s">
         <v>76</v>
       </c>
@@ -18613,16 +18613,16 @@
       </c>
     </row>
     <row r="439" spans="1:12" ht="45">
-      <c r="A439" s="109" t="s">
+      <c r="A439" s="130" t="s">
         <v>1434</v>
       </c>
-      <c r="B439" s="110" t="s">
+      <c r="B439" s="126" t="s">
         <v>1435</v>
       </c>
-      <c r="C439" s="110" t="s">
+      <c r="C439" s="126" t="s">
         <v>1435</v>
       </c>
-      <c r="D439" s="103"/>
+      <c r="D439" s="127"/>
       <c r="E439" s="15" t="s">
         <v>12</v>
       </c>
@@ -18647,10 +18647,10 @@
       </c>
     </row>
     <row r="440" spans="1:12" ht="38.25">
-      <c r="A440" s="109"/>
-      <c r="B440" s="110"/>
-      <c r="C440" s="110"/>
-      <c r="D440" s="104"/>
+      <c r="A440" s="130"/>
+      <c r="B440" s="126"/>
+      <c r="C440" s="126"/>
+      <c r="D440" s="128"/>
       <c r="E440" s="15" t="s">
         <v>13</v>
       </c>
@@ -18673,10 +18673,10 @@
       </c>
     </row>
     <row r="441" spans="1:12" ht="45">
-      <c r="A441" s="109"/>
-      <c r="B441" s="110"/>
-      <c r="C441" s="110"/>
-      <c r="D441" s="104"/>
+      <c r="A441" s="130"/>
+      <c r="B441" s="126"/>
+      <c r="C441" s="126"/>
+      <c r="D441" s="128"/>
       <c r="E441" s="15" t="s">
         <v>14</v>
       </c>
@@ -18699,10 +18699,10 @@
       </c>
     </row>
     <row r="442" spans="1:12" ht="30">
-      <c r="A442" s="109"/>
-      <c r="B442" s="110"/>
-      <c r="C442" s="110"/>
-      <c r="D442" s="104"/>
+      <c r="A442" s="130"/>
+      <c r="B442" s="126"/>
+      <c r="C442" s="126"/>
+      <c r="D442" s="128"/>
       <c r="E442" s="15" t="s">
         <v>15</v>
       </c>
@@ -18725,10 +18725,10 @@
       </c>
     </row>
     <row r="443" spans="1:12" ht="30">
-      <c r="A443" s="109"/>
-      <c r="B443" s="110"/>
-      <c r="C443" s="110"/>
-      <c r="D443" s="104"/>
+      <c r="A443" s="130"/>
+      <c r="B443" s="126"/>
+      <c r="C443" s="126"/>
+      <c r="D443" s="128"/>
       <c r="E443" s="15" t="s">
         <v>16</v>
       </c>
@@ -18751,10 +18751,10 @@
       </c>
     </row>
     <row r="444" spans="1:12" ht="30">
-      <c r="A444" s="109"/>
-      <c r="B444" s="110"/>
-      <c r="C444" s="110"/>
-      <c r="D444" s="104"/>
+      <c r="A444" s="130"/>
+      <c r="B444" s="126"/>
+      <c r="C444" s="126"/>
+      <c r="D444" s="128"/>
       <c r="E444" s="15" t="s">
         <v>44</v>
       </c>
@@ -18777,10 +18777,10 @@
       </c>
     </row>
     <row r="445" spans="1:12" ht="45">
-      <c r="A445" s="109"/>
-      <c r="B445" s="110"/>
-      <c r="C445" s="110"/>
-      <c r="D445" s="104"/>
+      <c r="A445" s="130"/>
+      <c r="B445" s="126"/>
+      <c r="C445" s="126"/>
+      <c r="D445" s="128"/>
       <c r="E445" s="15" t="s">
         <v>49</v>
       </c>
@@ -18803,10 +18803,10 @@
       </c>
     </row>
     <row r="446" spans="1:12" ht="45">
-      <c r="A446" s="109"/>
-      <c r="B446" s="110"/>
-      <c r="C446" s="110"/>
-      <c r="D446" s="104"/>
+      <c r="A446" s="130"/>
+      <c r="B446" s="126"/>
+      <c r="C446" s="126"/>
+      <c r="D446" s="128"/>
       <c r="E446" s="15" t="s">
         <v>54</v>
       </c>
@@ -18831,10 +18831,10 @@
       </c>
     </row>
     <row r="447" spans="1:12" ht="45">
-      <c r="A447" s="109"/>
-      <c r="B447" s="110"/>
-      <c r="C447" s="110"/>
-      <c r="D447" s="104"/>
+      <c r="A447" s="130"/>
+      <c r="B447" s="126"/>
+      <c r="C447" s="126"/>
+      <c r="D447" s="128"/>
       <c r="E447" s="15" t="s">
         <v>60</v>
       </c>
@@ -18859,10 +18859,10 @@
       </c>
     </row>
     <row r="448" spans="1:12" ht="45">
-      <c r="A448" s="109"/>
-      <c r="B448" s="110"/>
-      <c r="C448" s="110"/>
-      <c r="D448" s="104"/>
+      <c r="A448" s="130"/>
+      <c r="B448" s="126"/>
+      <c r="C448" s="126"/>
+      <c r="D448" s="128"/>
       <c r="E448" s="15" t="s">
         <v>65</v>
       </c>
@@ -18887,10 +18887,10 @@
       </c>
     </row>
     <row r="449" spans="1:12" ht="75">
-      <c r="A449" s="109"/>
-      <c r="B449" s="110"/>
-      <c r="C449" s="110"/>
-      <c r="D449" s="104"/>
+      <c r="A449" s="130"/>
+      <c r="B449" s="126"/>
+      <c r="C449" s="126"/>
+      <c r="D449" s="128"/>
       <c r="E449" s="15" t="s">
         <v>71</v>
       </c>
@@ -18915,10 +18915,10 @@
       </c>
     </row>
     <row r="450" spans="1:12" ht="30">
-      <c r="A450" s="109"/>
-      <c r="B450" s="110"/>
-      <c r="C450" s="110"/>
-      <c r="D450" s="104"/>
+      <c r="A450" s="130"/>
+      <c r="B450" s="126"/>
+      <c r="C450" s="126"/>
+      <c r="D450" s="128"/>
       <c r="E450" s="15" t="s">
         <v>76</v>
       </c>
@@ -18943,10 +18943,10 @@
       </c>
     </row>
     <row r="451" spans="1:12" ht="45">
-      <c r="A451" s="109"/>
-      <c r="B451" s="110"/>
-      <c r="C451" s="110"/>
-      <c r="D451" s="104"/>
+      <c r="A451" s="130"/>
+      <c r="B451" s="126"/>
+      <c r="C451" s="126"/>
+      <c r="D451" s="128"/>
       <c r="E451" s="15" t="s">
         <v>82</v>
       </c>
@@ -18971,10 +18971,10 @@
       </c>
     </row>
     <row r="452" spans="1:12" ht="45">
-      <c r="A452" s="109"/>
-      <c r="B452" s="110"/>
-      <c r="C452" s="110"/>
-      <c r="D452" s="104"/>
+      <c r="A452" s="130"/>
+      <c r="B452" s="126"/>
+      <c r="C452" s="126"/>
+      <c r="D452" s="128"/>
       <c r="E452" s="15" t="s">
         <v>84</v>
       </c>
@@ -18999,10 +18999,10 @@
       </c>
     </row>
     <row r="453" spans="1:12" ht="45">
-      <c r="A453" s="109"/>
-      <c r="B453" s="110"/>
-      <c r="C453" s="110"/>
-      <c r="D453" s="104"/>
+      <c r="A453" s="130"/>
+      <c r="B453" s="126"/>
+      <c r="C453" s="126"/>
+      <c r="D453" s="128"/>
       <c r="E453" s="15" t="s">
         <v>89</v>
       </c>
@@ -19027,10 +19027,10 @@
       </c>
     </row>
     <row r="454" spans="1:12" ht="30">
-      <c r="A454" s="109"/>
-      <c r="B454" s="110"/>
-      <c r="C454" s="110"/>
-      <c r="D454" s="105"/>
+      <c r="A454" s="130"/>
+      <c r="B454" s="126"/>
+      <c r="C454" s="126"/>
+      <c r="D454" s="129"/>
       <c r="E454" s="15" t="s">
         <v>106</v>
       </c>
@@ -19053,16 +19053,16 @@
       </c>
     </row>
     <row r="455" spans="1:12" ht="45">
-      <c r="A455" s="109" t="s">
+      <c r="A455" s="130" t="s">
         <v>1511</v>
       </c>
-      <c r="B455" s="110" t="s">
+      <c r="B455" s="126" t="s">
         <v>1512</v>
       </c>
-      <c r="C455" s="110" t="s">
+      <c r="C455" s="126" t="s">
         <v>1512</v>
       </c>
-      <c r="D455" s="103"/>
+      <c r="D455" s="127"/>
       <c r="E455" s="15" t="s">
         <v>12</v>
       </c>
@@ -19087,10 +19087,10 @@
       </c>
     </row>
     <row r="456" spans="1:12" ht="38.25">
-      <c r="A456" s="109"/>
-      <c r="B456" s="110"/>
-      <c r="C456" s="110"/>
-      <c r="D456" s="104"/>
+      <c r="A456" s="130"/>
+      <c r="B456" s="126"/>
+      <c r="C456" s="126"/>
+      <c r="D456" s="128"/>
       <c r="E456" s="15" t="s">
         <v>13</v>
       </c>
@@ -19113,10 +19113,10 @@
       </c>
     </row>
     <row r="457" spans="1:12" ht="45">
-      <c r="A457" s="109"/>
-      <c r="B457" s="110"/>
-      <c r="C457" s="110"/>
-      <c r="D457" s="104"/>
+      <c r="A457" s="130"/>
+      <c r="B457" s="126"/>
+      <c r="C457" s="126"/>
+      <c r="D457" s="128"/>
       <c r="E457" s="15" t="s">
         <v>14</v>
       </c>
@@ -19139,10 +19139,10 @@
       </c>
     </row>
     <row r="458" spans="1:12" ht="30">
-      <c r="A458" s="109"/>
-      <c r="B458" s="110"/>
-      <c r="C458" s="110"/>
-      <c r="D458" s="104"/>
+      <c r="A458" s="130"/>
+      <c r="B458" s="126"/>
+      <c r="C458" s="126"/>
+      <c r="D458" s="128"/>
       <c r="E458" s="15" t="s">
         <v>15</v>
       </c>
@@ -19165,10 +19165,10 @@
       </c>
     </row>
     <row r="459" spans="1:12" ht="30">
-      <c r="A459" s="109"/>
-      <c r="B459" s="110"/>
-      <c r="C459" s="110"/>
-      <c r="D459" s="104"/>
+      <c r="A459" s="130"/>
+      <c r="B459" s="126"/>
+      <c r="C459" s="126"/>
+      <c r="D459" s="128"/>
       <c r="E459" s="15" t="s">
         <v>16</v>
       </c>
@@ -19191,10 +19191,10 @@
       </c>
     </row>
     <row r="460" spans="1:12" ht="45">
-      <c r="A460" s="109"/>
-      <c r="B460" s="110"/>
-      <c r="C460" s="110"/>
-      <c r="D460" s="104"/>
+      <c r="A460" s="130"/>
+      <c r="B460" s="126"/>
+      <c r="C460" s="126"/>
+      <c r="D460" s="128"/>
       <c r="E460" s="15" t="s">
         <v>44</v>
       </c>
@@ -19217,10 +19217,10 @@
       </c>
     </row>
     <row r="461" spans="1:12" ht="45">
-      <c r="A461" s="109"/>
-      <c r="B461" s="110"/>
-      <c r="C461" s="110"/>
-      <c r="D461" s="104"/>
+      <c r="A461" s="130"/>
+      <c r="B461" s="126"/>
+      <c r="C461" s="126"/>
+      <c r="D461" s="128"/>
       <c r="E461" s="15" t="s">
         <v>49</v>
       </c>
@@ -19245,10 +19245,10 @@
       </c>
     </row>
     <row r="462" spans="1:12" ht="45">
-      <c r="A462" s="109"/>
-      <c r="B462" s="110"/>
-      <c r="C462" s="110"/>
-      <c r="D462" s="104"/>
+      <c r="A462" s="130"/>
+      <c r="B462" s="126"/>
+      <c r="C462" s="126"/>
+      <c r="D462" s="128"/>
       <c r="E462" s="15" t="s">
         <v>54</v>
       </c>
@@ -19273,10 +19273,10 @@
       </c>
     </row>
     <row r="463" spans="1:12" ht="45">
-      <c r="A463" s="109"/>
-      <c r="B463" s="110"/>
-      <c r="C463" s="110"/>
-      <c r="D463" s="104"/>
+      <c r="A463" s="130"/>
+      <c r="B463" s="126"/>
+      <c r="C463" s="126"/>
+      <c r="D463" s="128"/>
       <c r="E463" s="15" t="s">
         <v>60</v>
       </c>
@@ -19301,10 +19301,10 @@
       </c>
     </row>
     <row r="464" spans="1:12" ht="75">
-      <c r="A464" s="109"/>
-      <c r="B464" s="110"/>
-      <c r="C464" s="110"/>
-      <c r="D464" s="104"/>
+      <c r="A464" s="130"/>
+      <c r="B464" s="126"/>
+      <c r="C464" s="126"/>
+      <c r="D464" s="128"/>
       <c r="E464" s="15" t="s">
         <v>65</v>
       </c>
@@ -19329,10 +19329,10 @@
       </c>
     </row>
     <row r="465" spans="1:12" ht="30">
-      <c r="A465" s="109"/>
-      <c r="B465" s="110"/>
-      <c r="C465" s="110"/>
-      <c r="D465" s="104"/>
+      <c r="A465" s="130"/>
+      <c r="B465" s="126"/>
+      <c r="C465" s="126"/>
+      <c r="D465" s="128"/>
       <c r="E465" s="15" t="s">
         <v>71</v>
       </c>
@@ -19357,10 +19357,10 @@
       </c>
     </row>
     <row r="466" spans="1:12" ht="45">
-      <c r="A466" s="109"/>
-      <c r="B466" s="110"/>
-      <c r="C466" s="110"/>
-      <c r="D466" s="104"/>
+      <c r="A466" s="130"/>
+      <c r="B466" s="126"/>
+      <c r="C466" s="126"/>
+      <c r="D466" s="128"/>
       <c r="E466" s="15" t="s">
         <v>76</v>
       </c>
@@ -19385,10 +19385,10 @@
       </c>
     </row>
     <row r="467" spans="1:12" ht="45">
-      <c r="A467" s="109"/>
-      <c r="B467" s="110"/>
-      <c r="C467" s="110"/>
-      <c r="D467" s="104"/>
+      <c r="A467" s="130"/>
+      <c r="B467" s="126"/>
+      <c r="C467" s="126"/>
+      <c r="D467" s="128"/>
       <c r="E467" s="15" t="s">
         <v>82</v>
       </c>
@@ -19413,10 +19413,10 @@
       </c>
     </row>
     <row r="468" spans="1:12" ht="45">
-      <c r="A468" s="109"/>
-      <c r="B468" s="110"/>
-      <c r="C468" s="110"/>
-      <c r="D468" s="104"/>
+      <c r="A468" s="130"/>
+      <c r="B468" s="126"/>
+      <c r="C468" s="126"/>
+      <c r="D468" s="128"/>
       <c r="E468" s="15" t="s">
         <v>84</v>
       </c>
@@ -19441,10 +19441,10 @@
       </c>
     </row>
     <row r="469" spans="1:12" ht="30">
-      <c r="A469" s="109"/>
-      <c r="B469" s="110"/>
-      <c r="C469" s="110"/>
-      <c r="D469" s="105"/>
+      <c r="A469" s="130"/>
+      <c r="B469" s="126"/>
+      <c r="C469" s="126"/>
+      <c r="D469" s="129"/>
       <c r="E469" s="15" t="s">
         <v>89</v>
       </c>
@@ -19467,16 +19467,16 @@
       </c>
     </row>
     <row r="470" spans="1:12" ht="45">
-      <c r="A470" s="109" t="s">
+      <c r="A470" s="130" t="s">
         <v>1528</v>
       </c>
-      <c r="B470" s="110" t="s">
+      <c r="B470" s="126" t="s">
         <v>1529</v>
       </c>
-      <c r="C470" s="110" t="s">
+      <c r="C470" s="126" t="s">
         <v>1529</v>
       </c>
-      <c r="D470" s="103"/>
+      <c r="D470" s="127"/>
       <c r="E470" s="15" t="s">
         <v>12</v>
       </c>
@@ -19501,10 +19501,10 @@
       </c>
     </row>
     <row r="471" spans="1:12" ht="38.25">
-      <c r="A471" s="109"/>
-      <c r="B471" s="110"/>
-      <c r="C471" s="110"/>
-      <c r="D471" s="104"/>
+      <c r="A471" s="130"/>
+      <c r="B471" s="126"/>
+      <c r="C471" s="126"/>
+      <c r="D471" s="128"/>
       <c r="E471" s="15" t="s">
         <v>13</v>
       </c>
@@ -19527,10 +19527,10 @@
       </c>
     </row>
     <row r="472" spans="1:12" ht="45">
-      <c r="A472" s="109"/>
-      <c r="B472" s="110"/>
-      <c r="C472" s="110"/>
-      <c r="D472" s="104"/>
+      <c r="A472" s="130"/>
+      <c r="B472" s="126"/>
+      <c r="C472" s="126"/>
+      <c r="D472" s="128"/>
       <c r="E472" s="15" t="s">
         <v>14</v>
       </c>
@@ -19553,10 +19553,10 @@
       </c>
     </row>
     <row r="473" spans="1:12" ht="30">
-      <c r="A473" s="109"/>
-      <c r="B473" s="110"/>
-      <c r="C473" s="110"/>
-      <c r="D473" s="104"/>
+      <c r="A473" s="130"/>
+      <c r="B473" s="126"/>
+      <c r="C473" s="126"/>
+      <c r="D473" s="128"/>
       <c r="E473" s="15" t="s">
         <v>15</v>
       </c>
@@ -19579,10 +19579,10 @@
       </c>
     </row>
     <row r="474" spans="1:12" ht="75">
-      <c r="A474" s="109"/>
-      <c r="B474" s="110"/>
-      <c r="C474" s="110"/>
-      <c r="D474" s="104"/>
+      <c r="A474" s="130"/>
+      <c r="B474" s="126"/>
+      <c r="C474" s="126"/>
+      <c r="D474" s="128"/>
       <c r="E474" s="15" t="s">
         <v>16</v>
       </c>
@@ -19607,10 +19607,10 @@
       </c>
     </row>
     <row r="475" spans="1:12" ht="45">
-      <c r="A475" s="109"/>
-      <c r="B475" s="110"/>
-      <c r="C475" s="110"/>
-      <c r="D475" s="104"/>
+      <c r="A475" s="130"/>
+      <c r="B475" s="126"/>
+      <c r="C475" s="126"/>
+      <c r="D475" s="128"/>
       <c r="E475" s="15" t="s">
         <v>44</v>
       </c>
@@ -19633,10 +19633,10 @@
       </c>
     </row>
     <row r="476" spans="1:12" ht="30">
-      <c r="A476" s="109"/>
-      <c r="B476" s="110"/>
-      <c r="C476" s="110"/>
-      <c r="D476" s="104"/>
+      <c r="A476" s="130"/>
+      <c r="B476" s="126"/>
+      <c r="C476" s="126"/>
+      <c r="D476" s="128"/>
       <c r="E476" s="15" t="s">
         <v>49</v>
       </c>
@@ -19659,10 +19659,10 @@
       </c>
     </row>
     <row r="477" spans="1:12" ht="60">
-      <c r="A477" s="109"/>
-      <c r="B477" s="110"/>
-      <c r="C477" s="110"/>
-      <c r="D477" s="104"/>
+      <c r="A477" s="130"/>
+      <c r="B477" s="126"/>
+      <c r="C477" s="126"/>
+      <c r="D477" s="128"/>
       <c r="E477" s="15" t="s">
         <v>54</v>
       </c>
@@ -19685,10 +19685,10 @@
       </c>
     </row>
     <row r="478" spans="1:12" ht="45">
-      <c r="A478" s="109"/>
-      <c r="B478" s="110"/>
-      <c r="C478" s="110"/>
-      <c r="D478" s="104"/>
+      <c r="A478" s="130"/>
+      <c r="B478" s="126"/>
+      <c r="C478" s="126"/>
+      <c r="D478" s="128"/>
       <c r="E478" s="15" t="s">
         <v>60</v>
       </c>
@@ -19713,10 +19713,10 @@
       </c>
     </row>
     <row r="479" spans="1:12" ht="45">
-      <c r="A479" s="109"/>
-      <c r="B479" s="110"/>
-      <c r="C479" s="110"/>
-      <c r="D479" s="104"/>
+      <c r="A479" s="130"/>
+      <c r="B479" s="126"/>
+      <c r="C479" s="126"/>
+      <c r="D479" s="128"/>
       <c r="E479" s="15" t="s">
         <v>65</v>
       </c>
@@ -19741,10 +19741,10 @@
       </c>
     </row>
     <row r="480" spans="1:12" ht="45">
-      <c r="A480" s="109"/>
-      <c r="B480" s="110"/>
-      <c r="C480" s="110"/>
-      <c r="D480" s="104"/>
+      <c r="A480" s="130"/>
+      <c r="B480" s="126"/>
+      <c r="C480" s="126"/>
+      <c r="D480" s="128"/>
       <c r="E480" s="15" t="s">
         <v>71</v>
       </c>
@@ -19769,10 +19769,10 @@
       </c>
     </row>
     <row r="481" spans="1:12" ht="45">
-      <c r="A481" s="109"/>
-      <c r="B481" s="110"/>
-      <c r="C481" s="110"/>
-      <c r="D481" s="104"/>
+      <c r="A481" s="130"/>
+      <c r="B481" s="126"/>
+      <c r="C481" s="126"/>
+      <c r="D481" s="128"/>
       <c r="E481" s="15" t="s">
         <v>76</v>
       </c>
@@ -19795,10 +19795,10 @@
       </c>
     </row>
     <row r="482" spans="1:12" ht="30">
-      <c r="A482" s="109"/>
-      <c r="B482" s="110"/>
-      <c r="C482" s="110"/>
-      <c r="D482" s="105"/>
+      <c r="A482" s="130"/>
+      <c r="B482" s="126"/>
+      <c r="C482" s="126"/>
+      <c r="D482" s="129"/>
       <c r="E482" s="15" t="s">
         <v>82</v>
       </c>
@@ -19821,16 +19821,16 @@
       </c>
     </row>
     <row r="483" spans="1:12" ht="45">
-      <c r="A483" s="109" t="s">
+      <c r="A483" s="130" t="s">
         <v>1587</v>
       </c>
-      <c r="B483" s="110" t="s">
+      <c r="B483" s="126" t="s">
         <v>1588</v>
       </c>
-      <c r="C483" s="110" t="s">
+      <c r="C483" s="126" t="s">
         <v>1588</v>
       </c>
-      <c r="D483" s="103"/>
+      <c r="D483" s="127"/>
       <c r="E483" s="15" t="s">
         <v>12</v>
       </c>
@@ -19857,10 +19857,10 @@
       </c>
     </row>
     <row r="484" spans="1:12" ht="38.25">
-      <c r="A484" s="109"/>
-      <c r="B484" s="110"/>
-      <c r="C484" s="110"/>
-      <c r="D484" s="104"/>
+      <c r="A484" s="130"/>
+      <c r="B484" s="126"/>
+      <c r="C484" s="126"/>
+      <c r="D484" s="128"/>
       <c r="E484" s="15" t="s">
         <v>13</v>
       </c>
@@ -19885,10 +19885,10 @@
       </c>
     </row>
     <row r="485" spans="1:12" ht="45">
-      <c r="A485" s="109"/>
-      <c r="B485" s="110"/>
-      <c r="C485" s="110"/>
-      <c r="D485" s="104"/>
+      <c r="A485" s="130"/>
+      <c r="B485" s="126"/>
+      <c r="C485" s="126"/>
+      <c r="D485" s="128"/>
       <c r="E485" s="15" t="s">
         <v>14</v>
       </c>
@@ -19913,10 +19913,10 @@
       </c>
     </row>
     <row r="486" spans="1:12" ht="90">
-      <c r="A486" s="109"/>
-      <c r="B486" s="110"/>
-      <c r="C486" s="110"/>
-      <c r="D486" s="104"/>
+      <c r="A486" s="130"/>
+      <c r="B486" s="126"/>
+      <c r="C486" s="126"/>
+      <c r="D486" s="128"/>
       <c r="E486" s="15" t="s">
         <v>15</v>
       </c>
@@ -19943,10 +19943,10 @@
       </c>
     </row>
     <row r="487" spans="1:12" ht="60">
-      <c r="A487" s="109"/>
-      <c r="B487" s="110"/>
-      <c r="C487" s="110"/>
-      <c r="D487" s="104"/>
+      <c r="A487" s="130"/>
+      <c r="B487" s="126"/>
+      <c r="C487" s="126"/>
+      <c r="D487" s="128"/>
       <c r="E487" s="15" t="s">
         <v>16</v>
       </c>
@@ -19971,10 +19971,10 @@
       </c>
     </row>
     <row r="488" spans="1:12" ht="45">
-      <c r="A488" s="109"/>
-      <c r="B488" s="110"/>
-      <c r="C488" s="110"/>
-      <c r="D488" s="104"/>
+      <c r="A488" s="130"/>
+      <c r="B488" s="126"/>
+      <c r="C488" s="126"/>
+      <c r="D488" s="128"/>
       <c r="E488" s="15" t="s">
         <v>44</v>
       </c>
@@ -20001,10 +20001,10 @@
       </c>
     </row>
     <row r="489" spans="1:12" ht="45">
-      <c r="A489" s="109"/>
-      <c r="B489" s="110"/>
-      <c r="C489" s="110"/>
-      <c r="D489" s="104"/>
+      <c r="A489" s="130"/>
+      <c r="B489" s="126"/>
+      <c r="C489" s="126"/>
+      <c r="D489" s="128"/>
       <c r="E489" s="15" t="s">
         <v>49</v>
       </c>
@@ -20031,10 +20031,10 @@
       </c>
     </row>
     <row r="490" spans="1:12" ht="45">
-      <c r="A490" s="109"/>
-      <c r="B490" s="110"/>
-      <c r="C490" s="110"/>
-      <c r="D490" s="104"/>
+      <c r="A490" s="130"/>
+      <c r="B490" s="126"/>
+      <c r="C490" s="126"/>
+      <c r="D490" s="128"/>
       <c r="E490" s="15" t="s">
         <v>54</v>
       </c>
@@ -20061,10 +20061,10 @@
       </c>
     </row>
     <row r="491" spans="1:12" ht="60">
-      <c r="A491" s="109"/>
-      <c r="B491" s="110"/>
-      <c r="C491" s="110"/>
-      <c r="D491" s="104"/>
+      <c r="A491" s="130"/>
+      <c r="B491" s="126"/>
+      <c r="C491" s="126"/>
+      <c r="D491" s="128"/>
       <c r="E491" s="15" t="s">
         <v>60</v>
       </c>
@@ -20091,10 +20091,10 @@
       </c>
     </row>
     <row r="492" spans="1:12" ht="45">
-      <c r="A492" s="109"/>
-      <c r="B492" s="110"/>
-      <c r="C492" s="110"/>
-      <c r="D492" s="104"/>
+      <c r="A492" s="130"/>
+      <c r="B492" s="126"/>
+      <c r="C492" s="126"/>
+      <c r="D492" s="128"/>
       <c r="E492" s="15" t="s">
         <v>65</v>
       </c>
@@ -20121,10 +20121,10 @@
       </c>
     </row>
     <row r="493" spans="1:12" ht="30">
-      <c r="A493" s="109"/>
-      <c r="B493" s="110"/>
-      <c r="C493" s="110"/>
-      <c r="D493" s="105"/>
+      <c r="A493" s="130"/>
+      <c r="B493" s="126"/>
+      <c r="C493" s="126"/>
+      <c r="D493" s="129"/>
       <c r="E493" s="15" t="s">
         <v>71</v>
       </c>
@@ -20149,16 +20149,16 @@
       </c>
     </row>
     <row r="494" spans="1:12" ht="45">
-      <c r="A494" s="99" t="s">
+      <c r="A494" s="131" t="s">
         <v>1637</v>
       </c>
-      <c r="B494" s="102" t="s">
+      <c r="B494" s="133" t="s">
         <v>1638</v>
       </c>
-      <c r="C494" s="102" t="s">
+      <c r="C494" s="133" t="s">
         <v>1638</v>
       </c>
-      <c r="D494" s="103"/>
+      <c r="D494" s="127"/>
       <c r="E494" s="71" t="s">
         <v>12</v>
       </c>
@@ -20183,10 +20183,10 @@
       </c>
     </row>
     <row r="495" spans="1:12" ht="38.25">
-      <c r="A495" s="100"/>
-      <c r="B495" s="102"/>
-      <c r="C495" s="102"/>
-      <c r="D495" s="104"/>
+      <c r="A495" s="132"/>
+      <c r="B495" s="133"/>
+      <c r="C495" s="133"/>
+      <c r="D495" s="128"/>
       <c r="E495" s="71" t="s">
         <v>13</v>
       </c>
@@ -20209,10 +20209,10 @@
       </c>
     </row>
     <row r="496" spans="1:12" ht="60">
-      <c r="A496" s="100"/>
-      <c r="B496" s="102"/>
-      <c r="C496" s="102"/>
-      <c r="D496" s="104"/>
+      <c r="A496" s="132"/>
+      <c r="B496" s="133"/>
+      <c r="C496" s="133"/>
+      <c r="D496" s="128"/>
       <c r="E496" s="71" t="s">
         <v>14</v>
       </c>
@@ -20235,10 +20235,10 @@
       </c>
     </row>
     <row r="497" spans="1:12" ht="45">
-      <c r="A497" s="100"/>
-      <c r="B497" s="102"/>
-      <c r="C497" s="102"/>
-      <c r="D497" s="104"/>
+      <c r="A497" s="132"/>
+      <c r="B497" s="133"/>
+      <c r="C497" s="133"/>
+      <c r="D497" s="128"/>
       <c r="E497" s="71" t="s">
         <v>15</v>
       </c>
@@ -20261,10 +20261,10 @@
       </c>
     </row>
     <row r="498" spans="1:12" ht="30">
-      <c r="A498" s="101"/>
-      <c r="B498" s="102"/>
-      <c r="C498" s="102"/>
-      <c r="D498" s="105"/>
+      <c r="A498" s="119"/>
+      <c r="B498" s="133"/>
+      <c r="C498" s="133"/>
+      <c r="D498" s="129"/>
       <c r="E498" s="71" t="s">
         <v>16</v>
       </c>
@@ -20287,16 +20287,16 @@
       </c>
     </row>
     <row r="499" spans="1:12" ht="45">
-      <c r="A499" s="99" t="s">
+      <c r="A499" s="131" t="s">
         <v>1649</v>
       </c>
-      <c r="B499" s="102" t="s">
+      <c r="B499" s="133" t="s">
         <v>1650</v>
       </c>
-      <c r="C499" s="102" t="s">
+      <c r="C499" s="133" t="s">
         <v>1650</v>
       </c>
-      <c r="D499" s="103"/>
+      <c r="D499" s="127"/>
       <c r="E499" s="71" t="s">
         <v>12</v>
       </c>
@@ -20321,10 +20321,10 @@
       </c>
     </row>
     <row r="500" spans="1:12" ht="38.25">
-      <c r="A500" s="100"/>
-      <c r="B500" s="102"/>
-      <c r="C500" s="102"/>
-      <c r="D500" s="104"/>
+      <c r="A500" s="132"/>
+      <c r="B500" s="133"/>
+      <c r="C500" s="133"/>
+      <c r="D500" s="128"/>
       <c r="E500" s="71" t="s">
         <v>13</v>
       </c>
@@ -20347,10 +20347,10 @@
       </c>
     </row>
     <row r="501" spans="1:12" ht="60">
-      <c r="A501" s="100"/>
-      <c r="B501" s="102"/>
-      <c r="C501" s="102"/>
-      <c r="D501" s="104"/>
+      <c r="A501" s="132"/>
+      <c r="B501" s="133"/>
+      <c r="C501" s="133"/>
+      <c r="D501" s="128"/>
       <c r="E501" s="71" t="s">
         <v>14</v>
       </c>
@@ -20373,10 +20373,10 @@
       </c>
     </row>
     <row r="502" spans="1:12" ht="105">
-      <c r="A502" s="100"/>
-      <c r="B502" s="102"/>
-      <c r="C502" s="102"/>
-      <c r="D502" s="104"/>
+      <c r="A502" s="132"/>
+      <c r="B502" s="133"/>
+      <c r="C502" s="133"/>
+      <c r="D502" s="128"/>
       <c r="E502" s="71" t="s">
         <v>15</v>
       </c>
@@ -20399,10 +20399,10 @@
       </c>
     </row>
     <row r="503" spans="1:12" ht="30">
-      <c r="A503" s="101"/>
-      <c r="B503" s="102"/>
-      <c r="C503" s="102"/>
-      <c r="D503" s="105"/>
+      <c r="A503" s="119"/>
+      <c r="B503" s="133"/>
+      <c r="C503" s="133"/>
+      <c r="D503" s="129"/>
       <c r="E503" s="71" t="s">
         <v>16</v>
       </c>
@@ -20425,16 +20425,16 @@
       </c>
     </row>
     <row r="504" spans="1:12" ht="45">
-      <c r="A504" s="99" t="s">
+      <c r="A504" s="131" t="s">
         <v>1660</v>
       </c>
-      <c r="B504" s="102" t="s">
+      <c r="B504" s="133" t="s">
         <v>1661</v>
       </c>
-      <c r="C504" s="102" t="s">
+      <c r="C504" s="133" t="s">
         <v>1661</v>
       </c>
-      <c r="D504" s="103"/>
+      <c r="D504" s="127"/>
       <c r="E504" s="71" t="s">
         <v>12</v>
       </c>
@@ -20459,10 +20459,10 @@
       </c>
     </row>
     <row r="505" spans="1:12" ht="38.25">
-      <c r="A505" s="100"/>
-      <c r="B505" s="102"/>
-      <c r="C505" s="102"/>
-      <c r="D505" s="104"/>
+      <c r="A505" s="132"/>
+      <c r="B505" s="133"/>
+      <c r="C505" s="133"/>
+      <c r="D505" s="128"/>
       <c r="E505" s="71" t="s">
         <v>13</v>
       </c>
@@ -20485,10 +20485,10 @@
       </c>
     </row>
     <row r="506" spans="1:12" ht="75">
-      <c r="A506" s="100"/>
-      <c r="B506" s="102"/>
-      <c r="C506" s="102"/>
-      <c r="D506" s="104"/>
+      <c r="A506" s="132"/>
+      <c r="B506" s="133"/>
+      <c r="C506" s="133"/>
+      <c r="D506" s="128"/>
       <c r="E506" s="71" t="s">
         <v>14</v>
       </c>
@@ -20511,10 +20511,10 @@
       </c>
     </row>
     <row r="507" spans="1:12" ht="120">
-      <c r="A507" s="100"/>
-      <c r="B507" s="102"/>
-      <c r="C507" s="102"/>
-      <c r="D507" s="104"/>
+      <c r="A507" s="132"/>
+      <c r="B507" s="133"/>
+      <c r="C507" s="133"/>
+      <c r="D507" s="128"/>
       <c r="E507" s="71" t="s">
         <v>15</v>
       </c>
@@ -20537,10 +20537,10 @@
       </c>
     </row>
     <row r="508" spans="1:12" ht="30">
-      <c r="A508" s="101"/>
-      <c r="B508" s="102"/>
-      <c r="C508" s="102"/>
-      <c r="D508" s="105"/>
+      <c r="A508" s="119"/>
+      <c r="B508" s="133"/>
+      <c r="C508" s="133"/>
+      <c r="D508" s="129"/>
       <c r="E508" s="71" t="s">
         <v>16</v>
       </c>
@@ -20563,16 +20563,16 @@
       </c>
     </row>
     <row r="509" spans="1:12" ht="45">
-      <c r="A509" s="99" t="s">
+      <c r="A509" s="131" t="s">
         <v>1670</v>
       </c>
-      <c r="B509" s="102" t="s">
+      <c r="B509" s="133" t="s">
         <v>1671</v>
       </c>
-      <c r="C509" s="102" t="s">
+      <c r="C509" s="133" t="s">
         <v>1671</v>
       </c>
-      <c r="D509" s="103"/>
+      <c r="D509" s="127"/>
       <c r="E509" s="71" t="s">
         <v>12</v>
       </c>
@@ -20597,10 +20597,10 @@
       </c>
     </row>
     <row r="510" spans="1:12" ht="38.25">
-      <c r="A510" s="100"/>
-      <c r="B510" s="102"/>
-      <c r="C510" s="102"/>
-      <c r="D510" s="104"/>
+      <c r="A510" s="132"/>
+      <c r="B510" s="133"/>
+      <c r="C510" s="133"/>
+      <c r="D510" s="128"/>
       <c r="E510" s="71" t="s">
         <v>13</v>
       </c>
@@ -20623,10 +20623,10 @@
       </c>
     </row>
     <row r="511" spans="1:12" ht="75">
-      <c r="A511" s="100"/>
-      <c r="B511" s="102"/>
-      <c r="C511" s="102"/>
-      <c r="D511" s="104"/>
+      <c r="A511" s="132"/>
+      <c r="B511" s="133"/>
+      <c r="C511" s="133"/>
+      <c r="D511" s="128"/>
       <c r="E511" s="71" t="s">
         <v>14</v>
       </c>
@@ -20649,10 +20649,10 @@
       </c>
     </row>
     <row r="512" spans="1:12" ht="30">
-      <c r="A512" s="101"/>
-      <c r="B512" s="102"/>
-      <c r="C512" s="102"/>
-      <c r="D512" s="105"/>
+      <c r="A512" s="119"/>
+      <c r="B512" s="133"/>
+      <c r="C512" s="133"/>
+      <c r="D512" s="129"/>
       <c r="E512" s="71" t="s">
         <v>15</v>
       </c>
@@ -20675,16 +20675,16 @@
       </c>
     </row>
     <row r="513" spans="1:12" ht="51">
-      <c r="A513" s="106" t="s">
+      <c r="A513" s="120" t="s">
         <v>1676</v>
       </c>
-      <c r="B513" s="107" t="s">
+      <c r="B513" s="122" t="s">
         <v>1677</v>
       </c>
-      <c r="C513" s="107" t="s">
+      <c r="C513" s="122" t="s">
         <v>1677</v>
       </c>
-      <c r="D513" s="108" t="s">
+      <c r="D513" s="124" t="s">
         <v>1067</v>
       </c>
       <c r="E513" s="30" t="s">
@@ -20709,10 +20709,10 @@
       <c r="L513" s="14"/>
     </row>
     <row r="514" spans="1:12" ht="30">
-      <c r="A514" s="106"/>
-      <c r="B514" s="107"/>
-      <c r="C514" s="107"/>
-      <c r="D514" s="108"/>
+      <c r="A514" s="120"/>
+      <c r="B514" s="122"/>
+      <c r="C514" s="122"/>
+      <c r="D514" s="124"/>
       <c r="E514" s="30" t="s">
         <v>13</v>
       </c>
@@ -20737,10 +20737,10 @@
       <c r="L514" s="14"/>
     </row>
     <row r="515" spans="1:12" ht="45">
-      <c r="A515" s="106"/>
-      <c r="B515" s="107"/>
-      <c r="C515" s="107"/>
-      <c r="D515" s="108"/>
+      <c r="A515" s="120"/>
+      <c r="B515" s="122"/>
+      <c r="C515" s="122"/>
+      <c r="D515" s="124"/>
       <c r="E515" s="30" t="s">
         <v>14</v>
       </c>
@@ -20763,10 +20763,10 @@
       <c r="L515" s="14"/>
     </row>
     <row r="516" spans="1:12" ht="30">
-      <c r="A516" s="106"/>
-      <c r="B516" s="107"/>
-      <c r="C516" s="107"/>
-      <c r="D516" s="108"/>
+      <c r="A516" s="120"/>
+      <c r="B516" s="122"/>
+      <c r="C516" s="122"/>
+      <c r="D516" s="124"/>
       <c r="E516" s="30" t="s">
         <v>15</v>
       </c>
@@ -20789,10 +20789,10 @@
       <c r="L516" s="14"/>
     </row>
     <row r="517" spans="1:12" ht="60">
-      <c r="A517" s="106"/>
-      <c r="B517" s="107"/>
-      <c r="C517" s="107"/>
-      <c r="D517" s="108"/>
+      <c r="A517" s="120"/>
+      <c r="B517" s="122"/>
+      <c r="C517" s="122"/>
+      <c r="D517" s="124"/>
       <c r="E517" s="30" t="s">
         <v>16</v>
       </c>
@@ -20815,10 +20815,10 @@
       <c r="L517" s="14"/>
     </row>
     <row r="518" spans="1:12" ht="45">
-      <c r="A518" s="106"/>
-      <c r="B518" s="107"/>
-      <c r="C518" s="107"/>
-      <c r="D518" s="108"/>
+      <c r="A518" s="120"/>
+      <c r="B518" s="122"/>
+      <c r="C518" s="122"/>
+      <c r="D518" s="124"/>
       <c r="E518" s="30" t="s">
         <v>44</v>
       </c>
@@ -20843,10 +20843,10 @@
       <c r="L518" s="14"/>
     </row>
     <row r="519" spans="1:12" ht="30">
-      <c r="A519" s="106"/>
-      <c r="B519" s="107"/>
-      <c r="C519" s="107"/>
-      <c r="D519" s="108"/>
+      <c r="A519" s="120"/>
+      <c r="B519" s="122"/>
+      <c r="C519" s="122"/>
+      <c r="D519" s="124"/>
       <c r="E519" s="30" t="s">
         <v>49</v>
       </c>
@@ -20871,10 +20871,10 @@
       <c r="L519" s="14"/>
     </row>
     <row r="520" spans="1:12" ht="63.75">
-      <c r="A520" s="106"/>
-      <c r="B520" s="107"/>
-      <c r="C520" s="107"/>
-      <c r="D520" s="108"/>
+      <c r="A520" s="120"/>
+      <c r="B520" s="122"/>
+      <c r="C520" s="122"/>
+      <c r="D520" s="124"/>
       <c r="E520" s="30" t="s">
         <v>54</v>
       </c>
@@ -20899,10 +20899,10 @@
       <c r="L520" s="14"/>
     </row>
     <row r="521" spans="1:12" ht="30">
-      <c r="A521" s="106"/>
-      <c r="B521" s="107"/>
-      <c r="C521" s="107"/>
-      <c r="D521" s="108"/>
+      <c r="A521" s="120"/>
+      <c r="B521" s="122"/>
+      <c r="C521" s="122"/>
+      <c r="D521" s="124"/>
       <c r="E521" s="30" t="s">
         <v>60</v>
       </c>
@@ -20927,10 +20927,10 @@
       <c r="L521" s="14"/>
     </row>
     <row r="522" spans="1:12" ht="45">
-      <c r="A522" s="106"/>
-      <c r="B522" s="107"/>
-      <c r="C522" s="107"/>
-      <c r="D522" s="108"/>
+      <c r="A522" s="120"/>
+      <c r="B522" s="122"/>
+      <c r="C522" s="122"/>
+      <c r="D522" s="124"/>
       <c r="E522" s="30" t="s">
         <v>65</v>
       </c>
@@ -20953,10 +20953,10 @@
       <c r="L522" s="14"/>
     </row>
     <row r="523" spans="1:12" ht="30">
-      <c r="A523" s="106"/>
-      <c r="B523" s="107"/>
-      <c r="C523" s="107"/>
-      <c r="D523" s="108"/>
+      <c r="A523" s="120"/>
+      <c r="B523" s="122"/>
+      <c r="C523" s="122"/>
+      <c r="D523" s="124"/>
       <c r="E523" s="30" t="s">
         <v>71</v>
       </c>
@@ -20981,10 +20981,10 @@
       <c r="L523" s="14"/>
     </row>
     <row r="524" spans="1:12" ht="30">
-      <c r="A524" s="106"/>
-      <c r="B524" s="107"/>
-      <c r="C524" s="107"/>
-      <c r="D524" s="108"/>
+      <c r="A524" s="120"/>
+      <c r="B524" s="122"/>
+      <c r="C524" s="122"/>
+      <c r="D524" s="124"/>
       <c r="E524" s="30" t="s">
         <v>76</v>
       </c>
@@ -21009,10 +21009,10 @@
       <c r="L524" s="14"/>
     </row>
     <row r="525" spans="1:12" ht="45">
-      <c r="A525" s="106"/>
-      <c r="B525" s="107"/>
-      <c r="C525" s="107"/>
-      <c r="D525" s="108"/>
+      <c r="A525" s="120"/>
+      <c r="B525" s="122"/>
+      <c r="C525" s="122"/>
+      <c r="D525" s="124"/>
       <c r="E525" s="30" t="s">
         <v>82</v>
       </c>
@@ -21037,10 +21037,10 @@
       <c r="L525" s="14"/>
     </row>
     <row r="526" spans="1:12" ht="30">
-      <c r="A526" s="106"/>
-      <c r="B526" s="107"/>
-      <c r="C526" s="107"/>
-      <c r="D526" s="108"/>
+      <c r="A526" s="120"/>
+      <c r="B526" s="122"/>
+      <c r="C526" s="122"/>
+      <c r="D526" s="124"/>
       <c r="E526" s="30" t="s">
         <v>84</v>
       </c>
@@ -21065,10 +21065,10 @@
       <c r="L526" s="14"/>
     </row>
     <row r="527" spans="1:12" ht="30">
-      <c r="A527" s="106"/>
-      <c r="B527" s="107"/>
-      <c r="C527" s="107"/>
-      <c r="D527" s="108"/>
+      <c r="A527" s="120"/>
+      <c r="B527" s="122"/>
+      <c r="C527" s="122"/>
+      <c r="D527" s="124"/>
       <c r="E527" s="30" t="s">
         <v>89</v>
       </c>
@@ -21091,10 +21091,10 @@
       <c r="L527" s="14"/>
     </row>
     <row r="528" spans="1:12" ht="45">
-      <c r="A528" s="106"/>
-      <c r="B528" s="107"/>
-      <c r="C528" s="107"/>
-      <c r="D528" s="108"/>
+      <c r="A528" s="120"/>
+      <c r="B528" s="122"/>
+      <c r="C528" s="122"/>
+      <c r="D528" s="124"/>
       <c r="E528" s="30" t="s">
         <v>106</v>
       </c>
@@ -21117,10 +21117,10 @@
       <c r="L528" s="14"/>
     </row>
     <row r="529" spans="1:12" ht="30">
-      <c r="A529" s="106"/>
-      <c r="B529" s="107"/>
-      <c r="C529" s="107"/>
-      <c r="D529" s="108"/>
+      <c r="A529" s="120"/>
+      <c r="B529" s="122"/>
+      <c r="C529" s="122"/>
+      <c r="D529" s="124"/>
       <c r="E529" s="30" t="s">
         <v>107</v>
       </c>
@@ -21145,10 +21145,10 @@
       <c r="L529" s="14"/>
     </row>
     <row r="530" spans="1:12" ht="45">
-      <c r="A530" s="106"/>
-      <c r="B530" s="107"/>
-      <c r="C530" s="107"/>
-      <c r="D530" s="108"/>
+      <c r="A530" s="120"/>
+      <c r="B530" s="122"/>
+      <c r="C530" s="122"/>
+      <c r="D530" s="124"/>
       <c r="E530" s="30" t="s">
         <v>128</v>
       </c>
@@ -21173,10 +21173,10 @@
       <c r="L530" s="14"/>
     </row>
     <row r="531" spans="1:12" ht="30">
-      <c r="A531" s="106"/>
-      <c r="B531" s="107"/>
-      <c r="C531" s="107"/>
-      <c r="D531" s="108"/>
+      <c r="A531" s="120"/>
+      <c r="B531" s="122"/>
+      <c r="C531" s="122"/>
+      <c r="D531" s="124"/>
       <c r="E531" s="30" t="s">
         <v>130</v>
       </c>
@@ -21201,10 +21201,10 @@
       <c r="L531" s="14"/>
     </row>
     <row r="532" spans="1:12" ht="45">
-      <c r="A532" s="106"/>
-      <c r="B532" s="107"/>
-      <c r="C532" s="107"/>
-      <c r="D532" s="108"/>
+      <c r="A532" s="120"/>
+      <c r="B532" s="122"/>
+      <c r="C532" s="122"/>
+      <c r="D532" s="124"/>
       <c r="E532" s="30" t="s">
         <v>414</v>
       </c>
@@ -21225,10 +21225,10 @@
       <c r="L532" s="14"/>
     </row>
     <row r="533" spans="1:12" ht="30">
-      <c r="A533" s="106"/>
-      <c r="B533" s="107"/>
-      <c r="C533" s="107"/>
-      <c r="D533" s="108"/>
+      <c r="A533" s="120"/>
+      <c r="B533" s="122"/>
+      <c r="C533" s="122"/>
+      <c r="D533" s="124"/>
       <c r="E533" s="30" t="s">
         <v>637</v>
       </c>
@@ -21249,10 +21249,10 @@
       <c r="L533" s="14"/>
     </row>
     <row r="534" spans="1:12" ht="30">
-      <c r="A534" s="106"/>
-      <c r="B534" s="107"/>
-      <c r="C534" s="107"/>
-      <c r="D534" s="108"/>
+      <c r="A534" s="120"/>
+      <c r="B534" s="122"/>
+      <c r="C534" s="122"/>
+      <c r="D534" s="124"/>
       <c r="E534" s="30" t="s">
         <v>640</v>
       </c>
@@ -21463,90 +21463,122 @@
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="A227:A238"/>
-    <mergeCell ref="B227:B238"/>
-    <mergeCell ref="C227:C238"/>
-    <mergeCell ref="D227:D238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="A218:A226"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="C218:C226"/>
-    <mergeCell ref="D218:D226"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="C206:C210"/>
-    <mergeCell ref="D206:D210"/>
-    <mergeCell ref="A211:A217"/>
-    <mergeCell ref="B211:B217"/>
-    <mergeCell ref="C211:C217"/>
-    <mergeCell ref="D211:D217"/>
-    <mergeCell ref="A184:A192"/>
-    <mergeCell ref="B184:B192"/>
-    <mergeCell ref="C184:C192"/>
-    <mergeCell ref="D184:D192"/>
-    <mergeCell ref="A193:A205"/>
-    <mergeCell ref="B193:B205"/>
-    <mergeCell ref="C193:C205"/>
-    <mergeCell ref="D193:D205"/>
-    <mergeCell ref="A166:A174"/>
-    <mergeCell ref="B166:B174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="A175:A183"/>
-    <mergeCell ref="B175:B183"/>
-    <mergeCell ref="C175:C183"/>
-    <mergeCell ref="D175:D183"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="A158:A165"/>
-    <mergeCell ref="B158:B165"/>
-    <mergeCell ref="C158:C165"/>
-    <mergeCell ref="D158:D165"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="C139:C144"/>
-    <mergeCell ref="D139:D144"/>
-    <mergeCell ref="A145:A152"/>
-    <mergeCell ref="B145:B152"/>
-    <mergeCell ref="C145:C152"/>
-    <mergeCell ref="D145:D152"/>
-    <mergeCell ref="A101:A131"/>
-    <mergeCell ref="B101:B131"/>
-    <mergeCell ref="C101:C131"/>
-    <mergeCell ref="D101:D131"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="C132:C138"/>
-    <mergeCell ref="D132:D138"/>
-    <mergeCell ref="A84:A100"/>
-    <mergeCell ref="B84:B100"/>
-    <mergeCell ref="C84:C100"/>
-    <mergeCell ref="D84:D100"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="C21:C34"/>
-    <mergeCell ref="D21:D34"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="A509:A512"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="C509:C512"/>
+    <mergeCell ref="D509:D512"/>
+    <mergeCell ref="A513:A534"/>
+    <mergeCell ref="B513:B534"/>
+    <mergeCell ref="C513:C534"/>
+    <mergeCell ref="D513:D534"/>
+    <mergeCell ref="A494:A498"/>
+    <mergeCell ref="B494:B498"/>
+    <mergeCell ref="C494:C498"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="A499:A503"/>
+    <mergeCell ref="B499:B503"/>
+    <mergeCell ref="C499:C503"/>
+    <mergeCell ref="D499:D503"/>
+    <mergeCell ref="A504:A508"/>
+    <mergeCell ref="B504:B508"/>
+    <mergeCell ref="C504:C508"/>
+    <mergeCell ref="D504:D508"/>
+    <mergeCell ref="A455:A469"/>
+    <mergeCell ref="B455:B469"/>
+    <mergeCell ref="C455:C469"/>
+    <mergeCell ref="D455:D469"/>
+    <mergeCell ref="A470:A482"/>
+    <mergeCell ref="B470:B482"/>
+    <mergeCell ref="C470:C482"/>
+    <mergeCell ref="D470:D482"/>
+    <mergeCell ref="A483:A493"/>
+    <mergeCell ref="B483:B493"/>
+    <mergeCell ref="C483:C493"/>
+    <mergeCell ref="D483:D493"/>
+    <mergeCell ref="A411:A426"/>
+    <mergeCell ref="B411:B426"/>
+    <mergeCell ref="C411:C426"/>
+    <mergeCell ref="D411:D426"/>
+    <mergeCell ref="A427:A438"/>
+    <mergeCell ref="B427:B438"/>
+    <mergeCell ref="C427:C438"/>
+    <mergeCell ref="D427:D438"/>
+    <mergeCell ref="A439:A454"/>
+    <mergeCell ref="B439:B454"/>
+    <mergeCell ref="C439:C454"/>
+    <mergeCell ref="D439:D454"/>
+    <mergeCell ref="A393:A399"/>
+    <mergeCell ref="B393:B399"/>
+    <mergeCell ref="C393:C399"/>
+    <mergeCell ref="D393:D399"/>
+    <mergeCell ref="A400:A406"/>
+    <mergeCell ref="B400:B406"/>
+    <mergeCell ref="C400:C406"/>
+    <mergeCell ref="D400:D406"/>
+    <mergeCell ref="A407:A410"/>
+    <mergeCell ref="B407:B410"/>
+    <mergeCell ref="C407:C410"/>
+    <mergeCell ref="D407:D410"/>
+    <mergeCell ref="A364:A378"/>
+    <mergeCell ref="B364:B378"/>
+    <mergeCell ref="C364:C378"/>
+    <mergeCell ref="D364:D378"/>
+    <mergeCell ref="A379:A385"/>
+    <mergeCell ref="B379:B385"/>
+    <mergeCell ref="C379:C385"/>
+    <mergeCell ref="D379:D385"/>
+    <mergeCell ref="A386:A392"/>
+    <mergeCell ref="B386:B392"/>
+    <mergeCell ref="C386:C392"/>
+    <mergeCell ref="D386:D392"/>
+    <mergeCell ref="A344:A353"/>
+    <mergeCell ref="B344:B353"/>
+    <mergeCell ref="C344:C353"/>
+    <mergeCell ref="D344:D353"/>
+    <mergeCell ref="A354:A358"/>
+    <mergeCell ref="B354:B358"/>
+    <mergeCell ref="C354:C358"/>
+    <mergeCell ref="D354:D358"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="B359:B363"/>
+    <mergeCell ref="C359:C363"/>
+    <mergeCell ref="D359:D363"/>
+    <mergeCell ref="A312:A320"/>
+    <mergeCell ref="B312:B320"/>
+    <mergeCell ref="C312:C320"/>
+    <mergeCell ref="D312:D320"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B336"/>
+    <mergeCell ref="C321:C336"/>
+    <mergeCell ref="D321:D336"/>
+    <mergeCell ref="A337:A343"/>
+    <mergeCell ref="B337:B343"/>
+    <mergeCell ref="C337:C343"/>
+    <mergeCell ref="D337:D343"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="B293:B301"/>
+    <mergeCell ref="C293:C301"/>
+    <mergeCell ref="D293:D301"/>
+    <mergeCell ref="A302:A306"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="A307:A311"/>
+    <mergeCell ref="B307:B311"/>
+    <mergeCell ref="C307:C311"/>
+    <mergeCell ref="D307:D311"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="C250:C254"/>
+    <mergeCell ref="D250:D254"/>
+    <mergeCell ref="A255:A272"/>
+    <mergeCell ref="B255:B272"/>
+    <mergeCell ref="C255:C272"/>
+    <mergeCell ref="D255:D272"/>
+    <mergeCell ref="A273:A292"/>
+    <mergeCell ref="B273:B292"/>
+    <mergeCell ref="C273:C292"/>
+    <mergeCell ref="D273:D292"/>
     <mergeCell ref="A246:A249"/>
     <mergeCell ref="B246:B249"/>
     <mergeCell ref="C246:C249"/>
@@ -21571,122 +21603,90 @@
     <mergeCell ref="B58:B64"/>
     <mergeCell ref="C58:C64"/>
     <mergeCell ref="D58:D64"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="C250:C254"/>
-    <mergeCell ref="D250:D254"/>
-    <mergeCell ref="A255:A272"/>
-    <mergeCell ref="B255:B272"/>
-    <mergeCell ref="C255:C272"/>
-    <mergeCell ref="D255:D272"/>
-    <mergeCell ref="A273:A292"/>
-    <mergeCell ref="B273:B292"/>
-    <mergeCell ref="C273:C292"/>
-    <mergeCell ref="D273:D292"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="B293:B301"/>
-    <mergeCell ref="C293:C301"/>
-    <mergeCell ref="D293:D301"/>
-    <mergeCell ref="A302:A306"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="A307:A311"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="C307:C311"/>
-    <mergeCell ref="D307:D311"/>
-    <mergeCell ref="A312:A320"/>
-    <mergeCell ref="B312:B320"/>
-    <mergeCell ref="C312:C320"/>
-    <mergeCell ref="D312:D320"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B336"/>
-    <mergeCell ref="C321:C336"/>
-    <mergeCell ref="D321:D336"/>
-    <mergeCell ref="A337:A343"/>
-    <mergeCell ref="B337:B343"/>
-    <mergeCell ref="C337:C343"/>
-    <mergeCell ref="D337:D343"/>
-    <mergeCell ref="A344:A353"/>
-    <mergeCell ref="B344:B353"/>
-    <mergeCell ref="C344:C353"/>
-    <mergeCell ref="D344:D353"/>
-    <mergeCell ref="A354:A358"/>
-    <mergeCell ref="B354:B358"/>
-    <mergeCell ref="C354:C358"/>
-    <mergeCell ref="D354:D358"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="C359:C363"/>
-    <mergeCell ref="D359:D363"/>
-    <mergeCell ref="A364:A378"/>
-    <mergeCell ref="B364:B378"/>
-    <mergeCell ref="C364:C378"/>
-    <mergeCell ref="D364:D378"/>
-    <mergeCell ref="A379:A385"/>
-    <mergeCell ref="B379:B385"/>
-    <mergeCell ref="C379:C385"/>
-    <mergeCell ref="D379:D385"/>
-    <mergeCell ref="A386:A392"/>
-    <mergeCell ref="B386:B392"/>
-    <mergeCell ref="C386:C392"/>
-    <mergeCell ref="D386:D392"/>
-    <mergeCell ref="A393:A399"/>
-    <mergeCell ref="B393:B399"/>
-    <mergeCell ref="C393:C399"/>
-    <mergeCell ref="D393:D399"/>
-    <mergeCell ref="A400:A406"/>
-    <mergeCell ref="B400:B406"/>
-    <mergeCell ref="C400:C406"/>
-    <mergeCell ref="D400:D406"/>
-    <mergeCell ref="A407:A410"/>
-    <mergeCell ref="B407:B410"/>
-    <mergeCell ref="C407:C410"/>
-    <mergeCell ref="D407:D410"/>
-    <mergeCell ref="A411:A426"/>
-    <mergeCell ref="B411:B426"/>
-    <mergeCell ref="C411:C426"/>
-    <mergeCell ref="D411:D426"/>
-    <mergeCell ref="A427:A438"/>
-    <mergeCell ref="B427:B438"/>
-    <mergeCell ref="C427:C438"/>
-    <mergeCell ref="D427:D438"/>
-    <mergeCell ref="A439:A454"/>
-    <mergeCell ref="B439:B454"/>
-    <mergeCell ref="C439:C454"/>
-    <mergeCell ref="D439:D454"/>
-    <mergeCell ref="A455:A469"/>
-    <mergeCell ref="B455:B469"/>
-    <mergeCell ref="C455:C469"/>
-    <mergeCell ref="D455:D469"/>
-    <mergeCell ref="A470:A482"/>
-    <mergeCell ref="B470:B482"/>
-    <mergeCell ref="C470:C482"/>
-    <mergeCell ref="D470:D482"/>
-    <mergeCell ref="A483:A493"/>
-    <mergeCell ref="B483:B493"/>
-    <mergeCell ref="C483:C493"/>
-    <mergeCell ref="D483:D493"/>
-    <mergeCell ref="A509:A512"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="C509:C512"/>
-    <mergeCell ref="D509:D512"/>
-    <mergeCell ref="A513:A534"/>
-    <mergeCell ref="B513:B534"/>
-    <mergeCell ref="C513:C534"/>
-    <mergeCell ref="D513:D534"/>
-    <mergeCell ref="A494:A498"/>
-    <mergeCell ref="B494:B498"/>
-    <mergeCell ref="C494:C498"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="A499:A503"/>
-    <mergeCell ref="B499:B503"/>
-    <mergeCell ref="C499:C503"/>
-    <mergeCell ref="D499:D503"/>
-    <mergeCell ref="A504:A508"/>
-    <mergeCell ref="B504:B508"/>
-    <mergeCell ref="C504:C508"/>
-    <mergeCell ref="D504:D508"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="C21:C34"/>
+    <mergeCell ref="D21:D34"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="A84:A100"/>
+    <mergeCell ref="B84:B100"/>
+    <mergeCell ref="C84:C100"/>
+    <mergeCell ref="D84:D100"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="C139:C144"/>
+    <mergeCell ref="D139:D144"/>
+    <mergeCell ref="A145:A152"/>
+    <mergeCell ref="B145:B152"/>
+    <mergeCell ref="C145:C152"/>
+    <mergeCell ref="D145:D152"/>
+    <mergeCell ref="A101:A131"/>
+    <mergeCell ref="B101:B131"/>
+    <mergeCell ref="C101:C131"/>
+    <mergeCell ref="D101:D131"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="C132:C138"/>
+    <mergeCell ref="D132:D138"/>
+    <mergeCell ref="A166:A174"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="A175:A183"/>
+    <mergeCell ref="B175:B183"/>
+    <mergeCell ref="C175:C183"/>
+    <mergeCell ref="D175:D183"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="A158:A165"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="C158:C165"/>
+    <mergeCell ref="D158:D165"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="D206:D210"/>
+    <mergeCell ref="A211:A217"/>
+    <mergeCell ref="B211:B217"/>
+    <mergeCell ref="C211:C217"/>
+    <mergeCell ref="D211:D217"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="B184:B192"/>
+    <mergeCell ref="C184:C192"/>
+    <mergeCell ref="D184:D192"/>
+    <mergeCell ref="A193:A205"/>
+    <mergeCell ref="B193:B205"/>
+    <mergeCell ref="C193:C205"/>
+    <mergeCell ref="D193:D205"/>
+    <mergeCell ref="A227:A238"/>
+    <mergeCell ref="B227:B238"/>
+    <mergeCell ref="C227:C238"/>
+    <mergeCell ref="D227:D238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="A218:A226"/>
+    <mergeCell ref="B218:B226"/>
+    <mergeCell ref="C218:C226"/>
+    <mergeCell ref="D218:D226"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
